--- a/pro_mini_ntc/Справочная информация/ADS.xlsx
+++ b/pro_mini_ntc/Справочная информация/ADS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lexa\Documents\Arduino\pro_mini_ntc\Справочная информация\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lexa\Documents\Arduino\pro_mini_ntc_3_09\Справочная информация\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F345774-F783-492F-BEF6-6582EBA108DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB21900E-2F90-4FFB-86D6-0615AC14B980}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2436" yWindow="4692" windowWidth="23040" windowHeight="12264" xr2:uid="{963E5BCC-41ED-4F71-9DF7-E518A5F20EC7}"/>
+    <workbookView xWindow="15432" yWindow="2448" windowWidth="21144" windowHeight="16464" xr2:uid="{963E5BCC-41ED-4F71-9DF7-E518A5F20EC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -510,9 +510,6 @@
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -527,22 +524,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -552,9 +555,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -906,7 +906,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -915,67 +915,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14">
-        <v>3.33</v>
-      </c>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="12">
+        <v>3.29</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="8">
+      <c r="F1" s="7">
         <v>10000</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="9">
+      <c r="I1" s="8">
         <v>25</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="23" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>3950</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="10">
-        <f>ROUND( (LOG(F1,2.7182818)  - LOG(F2,2.7182818))/(1/(25+273.15)-1/(100+273.15)),0)</f>
-        <v>3977</v>
-      </c>
-      <c r="E2" s="11" t="s">
+        <f>D2</f>
+        <v>4032</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="9">
+        <f>ROUND( (LOG(F1,2.7182818)  - LOG(F2,2.7182818))/(1/(I1+273.15)-1/(I2+273.15)),0)</f>
+        <v>4032</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="11">
-        <v>685</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="10">
+        <v>945</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="30">
-        <v>100</v>
+      <c r="I2" s="24">
+        <v>88</v>
       </c>
       <c r="J2" s="33" t="str">
         <f>_xlfn.TEXTJOIN(", ",,E9:E159)</f>
-        <v>32055, 32000, 31943, 31882, 31819, 31752, 31682, 31608, 31530, 31449, 31364, 31275, 31182, 31084, 30982, 30876, 30765, 30650, 30529, 30404, 30273, 30138, 29997, 29851, 29699, 29542, 29379, 29211, 29037, 28858, 28672, 28481, 28284, 28081, 27873, 27658, 27438, 27212, 26981, 26743, 26501, 26253, 25999, 25741, 25477, 25209, 24935, 24657, 24375, 24088, 23797, 23503, 23205, 22903, 22598, 22291, 21980, 21667, 21352, 21036, 20717, 20397, 20076, 19755, 19432, 19110, 18787, 18464, 18142, 17821, 17501, 17182, 16864, 16548, 16234, 15922, 15613, 15305, 15001, 14699, 14401, 14105, 13813, 13524, 13239, 12958, 12680, 12406, 12137, 11871, 11609, 11352, 11099, 10850, 10605, 10365, 10129, 9897, 9670, 9447, 9228, 9014, 8804, 8599, 8397, 8200, 8007, 7818, 7634, 7453, 7277, 7104, 6936, 6771, 6610, 6453, 6299, 6149, 6003, 5860, 5721, 5584, 5452, 5322, 5196, 5073, 4952, 4835, 4721, 4609, 4501, 4395, 4291, 4191, 4093, 3997, 3904, 3813, 3724, 3638, 3553, 3471, 3391, 3314, 3238, 3164, 3091, 3021, 2953, 2886, 2821</v>
+        <v>31714, 31662, 31607, 31549, 31487, 31423, 31355, 31284, 31209, 31130, 31048, 30961, 30871, 30776, 30677, 30573, 30465, 30351, 30233, 30110, 29982, 29849, 29710, 29566, 29417, 29262, 29101, 28934, 28762, 28583, 28399, 28209, 28013, 27811, 27603, 27389, 27169, 26943, 26712, 26474, 26231, 25982, 25728, 25468, 25203, 24933, 24658, 24378, 24094, 23805, 23511, 23214, 22913, 22609, 22301, 21991, 21677, 21361, 21043, 20722, 20401, 20077, 19753, 19428, 19102, 18776, 18450, 18124, 17799, 17474, 17151, 16829, 16508, 16189, 15873, 15558, 15246, 14937, 14631, 14327, 14027, 13730, 13437, 13147, 12861, 12579, 12301, 12026, 11757, 11491, 11230, 10973, 10720, 10472, 10228, 9989, 9754, 9524, 9298, 9077, 8861, 8648, 8441, 8237, 8038, 7844, 7654, 7468, 7286, 7108, 6935, 6765, 6600, 6438, 6280, 6127, 5976, 5830, 5687, 5548, 5412, 5279, 5150, 5024, 4901, 4782, 4665, 4552, 4441, 4333, 4228, 4126, 4026, 3929, 3834, 3742, 3652, 3565, 3480, 3397, 3316, 3237, 3161, 3086, 3014, 2943, 2874, 2807, 2741, 2678, 2616</v>
       </c>
       <c r="K2" s="34"/>
       <c r="L2" s="34"/>
@@ -990,23 +991,23 @@
       <c r="U2" s="35"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>2.0470000000000002</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
       <c r="J3" s="36"/>
       <c r="K3" s="37"/>
       <c r="L3" s="37"/>
@@ -1021,21 +1022,21 @@
       <c r="U3" s="38"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>32768</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="19" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
       <c r="J4" s="36"/>
       <c r="K4" s="37"/>
       <c r="L4" s="37"/>
@@ -1050,23 +1051,23 @@
       <c r="U4" s="38"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>6200</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
       <c r="J5" s="36"/>
       <c r="K5" s="37"/>
       <c r="L5" s="37"/>
@@ -1081,23 +1082,23 @@
       <c r="U5" s="38"/>
     </row>
     <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>10000</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="36"/>
       <c r="K6" s="37"/>
       <c r="L6" s="37"/>
@@ -1112,17 +1113,17 @@
       <c r="U6" s="38"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="25" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="30"/>
       <c r="I7" s="31" t="s">
         <v>23</v>
       </c>
@@ -1140,25 +1141,25 @@
       <c r="U7" s="38"/>
     </row>
     <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I8" s="32"/>
@@ -1181,31 +1182,31 @@
       </c>
       <c r="C9" s="1">
         <f>B$6*EXP((1/(B9+273.15)-1/(I$1+273.15))*$B$2)</f>
-        <v>144316.93726809666</v>
+        <v>152540.14111201672</v>
       </c>
       <c r="D9" s="1">
-        <f>1/(1/C9+1/B$6)</f>
-        <v>9351.9829918198229</v>
-      </c>
-      <c r="E9" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D9+1),0)</f>
-        <v>32055</v>
+        <f t="shared" ref="D9:D40" si="0">1/(1/C9+1/B$6)</f>
+        <v>9384.767360752543</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" ref="E9:E40" si="1">ROUND((B$1/B$3*B$4)/(B$5/D9+1),0)</f>
+        <v>31714</v>
       </c>
       <c r="F9" s="1">
         <f>B$5 / (B$1 / ((E9/B$4)*B$3)- 1)</f>
-        <v>9352.065080100152</v>
+        <v>9384.758889877352</v>
       </c>
       <c r="G9" s="1">
         <f>1/(1/F9-1/B$6)</f>
-        <v>144336.48801558226</v>
+        <v>152537.90319711433</v>
       </c>
       <c r="H9" s="1">
         <f>1/(1/(I$1+273.15)+LOG(G9/B$6,2.7182818)*(1/B$2))-273.15</f>
-        <v>-25.002112195000109</v>
+        <v>-24.999776372226194</v>
       </c>
       <c r="I9" s="1">
-        <f>H9-B9</f>
-        <v>-2.1121950001088408E-3</v>
+        <f t="shared" ref="I9:I40" si="2">H9-B9</f>
+        <v>2.2362777380635634E-4</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -1214,31 +1215,31 @@
       </c>
       <c r="C10" s="1">
         <f>B$6*EXP((1/(B10+273.15)-1/(I$1+273.15))*$B$2)</f>
-        <v>135385.11855020453</v>
+        <v>142909.72026909032</v>
       </c>
       <c r="D10" s="1">
-        <f>1/(1/C10+1/B$6)</f>
-        <v>9312.1716926931022</v>
-      </c>
-      <c r="E10" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D10+1),0)</f>
-        <v>32000</v>
+        <f t="shared" si="0"/>
+        <v>9346.0193385742896</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="1"/>
+        <v>31662</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" ref="F10:F73" si="0">B$5 / (B$1 / ((E10/B$4)*B$3)- 1)</f>
-        <v>9311.9185278666428</v>
+        <f t="shared" ref="F10:F73" si="3">B$5 / (B$1 / ((E10/B$4)*B$3)- 1)</f>
+        <v>9346.1748852867731</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" ref="G10:G73" si="1">1/(1/F10-1/B$6)</f>
-        <v>135331.62721262625</v>
+        <f t="shared" ref="G10:G73" si="4">1/(1/F10-1/B$6)</f>
+        <v>142946.09789325832</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" ref="H10:H73" si="2">1/(1/(I$1+273.15)+LOG(G10/B$6,2.7182818)*(1/B$2))-273.15</f>
-        <v>-23.993789824470866</v>
+        <f t="shared" ref="H10:H73" si="5">1/(1/(I$1+273.15)+LOG(G10/B$6,2.7182818)*(1/B$2))-273.15</f>
+        <v>-24.003918855385763</v>
       </c>
       <c r="I10" s="1">
-        <f>H10-B10</f>
-        <v>6.2101755291337213E-3</v>
+        <f t="shared" si="2"/>
+        <v>-3.9188553857627539E-3</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -1246,32 +1247,32 @@
         <v>-23</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" ref="C11:C74" si="3">B$6*EXP((1/(B11+273.15)-1/(I$1+273.15))*$B$2)</f>
-        <v>127070.98414555467</v>
+        <f t="shared" ref="C11:C74" si="6">B$6*EXP((1/(B11+273.15)-1/(I$1+273.15))*$B$2)</f>
+        <v>133957.13101403593</v>
       </c>
       <c r="D11" s="1">
-        <f>1/(1/C11+1/B$6)</f>
-        <v>9270.4509957132086</v>
-      </c>
-      <c r="E11" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D11+1),0)</f>
-        <v>31943</v>
+        <f t="shared" si="0"/>
+        <v>9305.3487569834251</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="1"/>
+        <v>31607</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="0"/>
-        <v>9270.5302311205687</v>
+        <f t="shared" si="3"/>
+        <v>9305.5722373559456</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="1"/>
-        <v>127085.87287121455</v>
+        <f t="shared" si="4"/>
+        <v>134003.45922122564</v>
       </c>
       <c r="H11" s="1">
+        <f t="shared" si="5"/>
+        <v>-23.005366731488891</v>
+      </c>
+      <c r="I11" s="1">
         <f t="shared" si="2"/>
-        <v>-23.001856457616441</v>
-      </c>
-      <c r="I11" s="1">
-        <f>H11-B11</f>
-        <v>-1.8564576164408209E-3</v>
+        <v>-5.3667314888912188E-3</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -1279,32 +1280,32 @@
         <v>-22</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="3"/>
-        <v>119327.63833441163</v>
+        <f t="shared" si="6"/>
+        <v>125630.08231016339</v>
       </c>
       <c r="D12" s="1">
-        <f>1/(1/C12+1/B$6)</f>
-        <v>9226.7700756939284</v>
-      </c>
-      <c r="E12" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D12+1),0)</f>
-        <v>31882</v>
+        <f t="shared" si="0"/>
+        <v>9262.7004400740771</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="1"/>
+        <v>31549</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="0"/>
-        <v>9226.4814495665341</v>
+        <f t="shared" si="3"/>
+        <v>9262.9840241445927</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="1"/>
-        <v>119279.38178594655</v>
+        <f t="shared" si="4"/>
+        <v>125682.26914475832</v>
       </c>
       <c r="H12" s="1">
+        <f t="shared" si="5"/>
+        <v>-22.00649739754212</v>
+      </c>
+      <c r="I12" s="1">
         <f t="shared" si="2"/>
-        <v>-21.993541143847239</v>
-      </c>
-      <c r="I12" s="1">
-        <f>H12-B12</f>
-        <v>6.4588561527614274E-3</v>
+        <v>-6.4973975421196428E-3</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -1312,32 +1313,32 @@
         <v>-21</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="3"/>
-        <v>112112.04578468086</v>
+        <f t="shared" si="6"/>
+        <v>117880.65146924234</v>
       </c>
       <c r="D13" s="1">
-        <f>1/(1/C13+1/B$6)</f>
-        <v>9181.0799716161564</v>
-      </c>
-      <c r="E13" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D13+1),0)</f>
-        <v>31819</v>
+        <f t="shared" si="0"/>
+        <v>9218.0208745335349</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>31487</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="0"/>
-        <v>9181.2509823186174</v>
+        <f t="shared" si="3"/>
+        <v>9217.7166423110884</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="1"/>
-        <v>112137.55111815616</v>
+        <f t="shared" si="4"/>
+        <v>117830.91832022165</v>
       </c>
       <c r="H13" s="1">
+        <f t="shared" si="5"/>
+        <v>-20.993346083237896</v>
+      </c>
+      <c r="I13" s="1">
         <f t="shared" si="2"/>
-        <v>-21.003661779487061</v>
-      </c>
-      <c r="I13" s="1">
-        <f>H13-B13</f>
-        <v>-3.6617794870608122E-3</v>
+        <v>6.6539167621044726E-3</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
@@ -1345,32 +1346,32 @@
         <v>-20</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="3"/>
-        <v>105384.69020603797</v>
+        <f t="shared" si="6"/>
+        <v>110664.8925584832</v>
       </c>
       <c r="D14" s="1">
-        <f>1/(1/C14+1/B$6)</f>
-        <v>9133.3338953249877</v>
-      </c>
-      <c r="E14" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D14+1),0)</f>
-        <v>31752</v>
+        <f t="shared" si="0"/>
+        <v>9171.2585336158772</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="1"/>
+        <v>31423</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="0"/>
-        <v>9133.4388610835977</v>
+        <f t="shared" si="3"/>
+        <v>9171.266184662305</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="1"/>
-        <v>105398.66664808642</v>
+        <f t="shared" si="4"/>
+        <v>110666.00656237458</v>
       </c>
       <c r="H14" s="1">
+        <f t="shared" si="5"/>
+        <v>-20.000160396240375</v>
+      </c>
+      <c r="I14" s="1">
         <f t="shared" si="2"/>
-        <v>-20.002151920020566</v>
-      </c>
-      <c r="I14" s="1">
-        <f>H14-B14</f>
-        <v>-2.1519200205659672E-3</v>
+        <v>-1.6039624037489375E-4</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -1378,32 +1379,32 @@
         <v>-19</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="3"/>
-        <v>99109.265187933459</v>
+        <f t="shared" si="6"/>
+        <v>103942.48220738799</v>
       </c>
       <c r="D15" s="1">
-        <f>1/(1/C15+1/B$6)</f>
-        <v>9083.4875495884189</v>
-      </c>
-      <c r="E15" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D15+1),0)</f>
-        <v>31682</v>
+        <f t="shared" si="0"/>
+        <v>9122.3642133933081</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="1"/>
+        <v>31355</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="0"/>
-        <v>9083.8023778303395</v>
+        <f t="shared" si="3"/>
+        <v>9122.2182729835276</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="1"/>
-        <v>99146.757839415339</v>
+        <f t="shared" si="4"/>
+        <v>103923.53807579716</v>
       </c>
       <c r="H15" s="1">
+        <f t="shared" si="5"/>
+        <v>-18.997080372212565</v>
+      </c>
+      <c r="I15" s="1">
         <f t="shared" si="2"/>
-        <v>-19.006185145285599</v>
-      </c>
-      <c r="I15" s="1">
-        <f>H15-B15</f>
-        <v>-6.1851452855989919E-3</v>
+        <v>2.9196277874348198E-3</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
@@ -1411,32 +1412,32 @@
         <v>-18</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="3"/>
-        <v>93252.394004937596</v>
+        <f t="shared" si="6"/>
+        <v>97676.399030873086</v>
       </c>
       <c r="D16" s="1">
-        <f>1/(1/C16+1/B$6)</f>
-        <v>9031.4994537054718</v>
-      </c>
-      <c r="E16" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D16+1),0)</f>
-        <v>31608</v>
+        <f t="shared" si="0"/>
+        <v>9071.2913795405821</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="1"/>
+        <v>31284</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="0"/>
-        <v>9031.6777627020874</v>
+        <f t="shared" si="3"/>
+        <v>9071.3394046276171</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="1"/>
-        <v>93271.407128941253</v>
+        <f t="shared" si="4"/>
+        <v>97681.967446784052</v>
       </c>
       <c r="H16" s="1">
+        <f t="shared" si="5"/>
+        <v>-18.000920832087587</v>
+      </c>
+      <c r="I16" s="1">
         <f t="shared" si="2"/>
-        <v>-18.003360371930768</v>
-      </c>
-      <c r="I16" s="1">
-        <f>H16-B16</f>
-        <v>-3.3603719307677693E-3</v>
+        <v>-9.2083208758708679E-4</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
@@ -1444,32 +1445,32 @@
         <v>-17</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="3"/>
-        <v>87783.375511991326</v>
+        <f t="shared" si="6"/>
+        <v>91832.633288587691</v>
       </c>
       <c r="D17" s="1">
-        <f>1/(1/C17+1/B$6)</f>
-        <v>8977.3312746016127</v>
-      </c>
-      <c r="E17" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D17+1),0)</f>
-        <v>31530</v>
+        <f t="shared" si="0"/>
+        <v>9017.9965226215263</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="1"/>
+        <v>31209</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="0"/>
-        <v>8977.1191054823139</v>
+        <f t="shared" si="3"/>
+        <v>9017.9598253691111</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="1"/>
-        <v>87763.092981761569</v>
+        <f t="shared" si="4"/>
+        <v>91828.82796784371</v>
       </c>
       <c r="H17" s="1">
+        <f t="shared" si="5"/>
+        <v>-16.999326047634554</v>
+      </c>
+      <c r="I17" s="1">
         <f t="shared" si="2"/>
-        <v>-16.996161907619069</v>
-      </c>
-      <c r="I17" s="1">
-        <f>H17-B17</f>
-        <v>3.8380923809313572E-3</v>
+        <v>6.7395236544598447E-4</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
@@ -1477,32 +1478,32 @@
         <v>-16</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="3"/>
-        <v>82673.953553657164</v>
+        <f t="shared" si="6"/>
+        <v>86379.923758667399</v>
       </c>
       <c r="D18" s="1">
-        <f>1/(1/C18+1/B$6)</f>
-        <v>8920.9481611022329</v>
-      </c>
-      <c r="E18" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D18+1),0)</f>
-        <v>31449</v>
+        <f t="shared" si="0"/>
+        <v>8962.4395195580637</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="1"/>
+        <v>31130</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="0"/>
-        <v>8920.8741929191801</v>
+        <f t="shared" si="3"/>
+        <v>8962.1354058798752</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="1"/>
-        <v>82667.601260054624</v>
+        <f t="shared" si="4"/>
+        <v>86351.682643897759</v>
       </c>
       <c r="H18" s="1">
+        <f t="shared" si="5"/>
+        <v>-15.994637446527065</v>
+      </c>
+      <c r="I18" s="1">
         <f t="shared" si="2"/>
-        <v>-15.998714027542746</v>
-      </c>
-      <c r="I18" s="1">
-        <f>H18-B18</f>
-        <v>1.2859724572535924E-3</v>
+        <v>5.3625534729349056E-3</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
@@ -1510,32 +1511,32 @@
         <v>-15</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="3"/>
-        <v>77898.107579808362</v>
+        <f t="shared" si="6"/>
+        <v>81289.519122605881</v>
       </c>
       <c r="D19" s="1">
-        <f>1/(1/C19+1/B$6)</f>
-        <v>8862.3190788356442</v>
-      </c>
-      <c r="E19" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D19+1),0)</f>
-        <v>31364</v>
+        <f t="shared" si="0"/>
+        <v>8904.5839986768297</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="1"/>
+        <v>31048</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="0"/>
-        <v>8862.298281575655</v>
+        <f t="shared" si="3"/>
+        <v>8904.622617683337</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="1"/>
-        <v>77896.500796794586</v>
+        <f t="shared" si="4"/>
+        <v>81292.737657687889</v>
       </c>
       <c r="H19" s="1">
+        <f t="shared" si="5"/>
+        <v>-15.000654754222012</v>
+      </c>
+      <c r="I19" s="1">
         <f t="shared" si="2"/>
-        <v>-14.999652359942445</v>
-      </c>
-      <c r="I19" s="1">
-        <f>H19-B19</f>
-        <v>3.4764005755505423E-4</v>
+        <v>-6.5475422201188849E-4</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
@@ -1543,32 +1544,32 @@
         <v>-14</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="3"/>
-        <v>73431.862399160324</v>
+        <f t="shared" si="6"/>
+        <v>76534.961441124047</v>
       </c>
       <c r="D20" s="1">
-        <f>1/(1/C20+1/B$6)</f>
-        <v>8801.4171429906073</v>
-      </c>
-      <c r="E20" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D20+1),0)</f>
-        <v>31275</v>
+        <f t="shared" si="0"/>
+        <v>8844.3977054518327</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="1"/>
+        <v>30961</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="0"/>
-        <v>8801.4502572924484</v>
+        <f t="shared" si="3"/>
+        <v>8844.0780711883363</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="1"/>
-        <v>73434.167508223458</v>
+        <f t="shared" si="4"/>
+        <v>76511.032888530957</v>
       </c>
       <c r="H20" s="1">
+        <f t="shared" si="5"/>
+        <v>-13.994791825784432</v>
+      </c>
+      <c r="I20" s="1">
         <f t="shared" si="2"/>
-        <v>-14.000534063940108</v>
-      </c>
-      <c r="I20" s="1">
-        <f>H20-B20</f>
-        <v>-5.3406394010835356E-4</v>
+        <v>5.2081742155678512E-3</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
@@ -1576,32 +1577,32 @@
         <v>-13</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="3"/>
-        <v>69253.115215008889</v>
+        <f t="shared" si="6"/>
+        <v>72091.889552950874</v>
       </c>
       <c r="D21" s="1">
-        <f>1/(1/C21+1/B$6)</f>
-        <v>8738.2199459452659</v>
-      </c>
-      <c r="E21" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D21+1),0)</f>
-        <v>31182</v>
+        <f t="shared" si="0"/>
+        <v>8781.8528657998777</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="1"/>
+        <v>30871</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="0"/>
-        <v>8738.390544438309</v>
+        <f t="shared" si="3"/>
+        <v>8781.9544332297501</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="1"/>
-        <v>69263.832051320715</v>
+        <f t="shared" si="4"/>
+        <v>72098.734832358023</v>
       </c>
       <c r="H21" s="1">
+        <f t="shared" si="5"/>
+        <v>-13.001594054696</v>
+      </c>
+      <c r="I21" s="1">
         <f t="shared" si="2"/>
-        <v>-13.002651530856838</v>
-      </c>
-      <c r="I21" s="1">
-        <f>H21-B21</f>
-        <v>-2.6515308568377804E-3</v>
+        <v>-1.5940546959996027E-3</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
@@ -1609,32 +1610,32 @@
         <v>-12</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="3"/>
-        <v>65341.478277463073</v>
+        <f t="shared" si="6"/>
+        <v>67937.860452900859</v>
       </c>
       <c r="D22" s="1">
-        <f>1/(1/C22+1/B$6)</f>
-        <v>8672.7098766004292</v>
-      </c>
-      <c r="E22" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D22+1),0)</f>
-        <v>31084</v>
+        <f t="shared" si="0"/>
+        <v>8716.9265435451398</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="1"/>
+        <v>30776</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="0"/>
-        <v>8672.5116673465473</v>
+        <f t="shared" si="3"/>
+        <v>8716.9336859588893</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="1"/>
-        <v>65330.228929481287</v>
+        <f t="shared" si="4"/>
+        <v>67938.294307675125</v>
       </c>
       <c r="H22" s="1">
+        <f t="shared" si="5"/>
+        <v>-12.000108355895748</v>
+      </c>
+      <c r="I22" s="1">
         <f t="shared" si="2"/>
-        <v>-11.997027552972952</v>
-      </c>
-      <c r="I22" s="1">
-        <f>H22-B22</f>
-        <v>2.9724470270480197E-3</v>
+        <v>-1.0835589574753612E-4</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
@@ -1642,32 +1643,32 @@
         <v>-11</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="3"/>
-        <v>61678.135655943021</v>
+        <f t="shared" si="6"/>
+        <v>64052.186905679409</v>
       </c>
       <c r="D23" s="1">
-        <f>1/(1/C23+1/B$6)</f>
-        <v>8604.8744280961382</v>
-      </c>
-      <c r="E23" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D23+1),0)</f>
-        <v>30982</v>
+        <f t="shared" si="0"/>
+        <v>8649.6009884573632</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="1"/>
+        <v>30677</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="0"/>
-        <v>8604.558152534486</v>
+        <f t="shared" si="3"/>
+        <v>8649.7730360918576</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="1"/>
-        <v>61661.88987497121</v>
+        <f t="shared" si="4"/>
+        <v>64061.622729379247</v>
       </c>
       <c r="H23" s="1">
+        <f t="shared" si="5"/>
+        <v>-11.002510997231582</v>
+      </c>
+      <c r="I23" s="1">
         <f t="shared" si="2"/>
-        <v>-10.995417047246519</v>
-      </c>
-      <c r="I23" s="1">
-        <f>H23-B23</f>
-        <v>4.5829527534806402E-3</v>
+        <v>-2.5109972315817686E-3</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
@@ -1675,32 +1676,32 @@
         <v>-10</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="3"/>
-        <v>58245.712787078817</v>
+        <f t="shared" si="6"/>
+        <v>60415.7897302696</v>
       </c>
       <c r="D24" s="1">
-        <f>1/(1/C24+1/B$6)</f>
-        <v>8534.706490472272</v>
-      </c>
-      <c r="E24" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D24+1),0)</f>
-        <v>30876</v>
+        <f t="shared" si="0"/>
+        <v>8579.863971091514</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="1"/>
+        <v>30573</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="0"/>
-        <v>8534.5946580265645</v>
+        <f t="shared" si="3"/>
+        <v>8579.8687102489366</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="1"/>
-        <v>58240.504613782708</v>
+        <f t="shared" si="4"/>
+        <v>60416.024716650769</v>
       </c>
       <c r="H24" s="1">
+        <f t="shared" si="5"/>
+        <v>-10.000067123577878</v>
+      </c>
+      <c r="I24" s="1">
         <f t="shared" si="2"/>
-        <v>-9.9984326589183752</v>
-      </c>
-      <c r="I24" s="1">
-        <f>H24-B24</f>
-        <v>1.5673410816248179E-3</v>
+        <v>-6.7123577878192009E-5</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
@@ -1708,32 +1709,32 @@
         <v>-9</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="3"/>
-        <v>55028.15758840015</v>
+        <f t="shared" si="6"/>
+        <v>57011.063348981435</v>
       </c>
       <c r="D25" s="1">
-        <f>1/(1/C25+1/B$6)</f>
-        <v>8462.2046247572271</v>
-      </c>
-      <c r="E25" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D25+1),0)</f>
-        <v>30765</v>
+        <f t="shared" si="0"/>
+        <v>8507.7091005224283</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="1"/>
+        <v>30465</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="0"/>
-        <v>8462.036299872012</v>
+        <f t="shared" si="3"/>
+        <v>8507.9689641502955</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="1"/>
-        <v>55021.04047818431</v>
+        <f t="shared" si="4"/>
+        <v>57022.734512389354</v>
       </c>
       <c r="H25" s="1">
+        <f t="shared" si="5"/>
+        <v>-9.0035426162282306</v>
+      </c>
+      <c r="I25" s="1">
         <f t="shared" si="2"/>
-        <v>-8.9977154811219862</v>
-      </c>
-      <c r="I25" s="1">
-        <f>H25-B25</f>
-        <v>2.2845188780138415E-3</v>
+        <v>-3.5426162282305995E-3</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
@@ -1741,32 +1742,32 @@
         <v>-8</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="3"/>
-        <v>52010.632049170083</v>
+        <f t="shared" si="6"/>
+        <v>53821.753337457514</v>
       </c>
       <c r="D26" s="1">
-        <f>1/(1/C26+1/B$6)</f>
-        <v>8387.3733149388481</v>
-      </c>
-      <c r="E26" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D26+1),0)</f>
-        <v>30650</v>
+        <f t="shared" si="0"/>
+        <v>8433.1361209829192</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="1"/>
+        <v>30351</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="0"/>
-        <v>8387.6130978166075</v>
+        <f t="shared" si="3"/>
+        <v>8432.8298279028932</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="1"/>
-        <v>52019.853835693139</v>
+        <f t="shared" si="4"/>
+        <v>53809.279796453222</v>
       </c>
       <c r="H26" s="1">
+        <f t="shared" si="5"/>
+        <v>-7.9959587232459057</v>
+      </c>
+      <c r="I26" s="1">
         <f t="shared" si="2"/>
-        <v>-8.0031557872882786</v>
-      </c>
-      <c r="I26" s="1">
-        <f>H26-B26</f>
-        <v>-3.1557872882785887E-3</v>
+        <v>4.0412767540942696E-3</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
@@ -1774,32 +1775,32 @@
         <v>-7</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="3"/>
-        <v>49179.41331794596</v>
+        <f t="shared" si="6"/>
+        <v>50832.844839011304</v>
       </c>
       <c r="D27" s="1">
-        <f>1/(1/C27+1/B$6)</f>
-        <v>8310.2231942932194</v>
-      </c>
-      <c r="E27" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D27+1),0)</f>
-        <v>30529</v>
+        <f t="shared" si="0"/>
+        <v>8356.1511833838922</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="1"/>
+        <v>30233</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="0"/>
-        <v>8310.1183009124143</v>
+        <f t="shared" si="3"/>
+        <v>8355.8585889227834</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="1"/>
-        <v>49175.739966882182</v>
+        <f t="shared" si="4"/>
+        <v>50822.018912887492</v>
       </c>
       <c r="H27" s="1">
+        <f t="shared" si="5"/>
+        <v>-6.9962582849539672</v>
+      </c>
+      <c r="I27" s="1">
         <f t="shared" si="2"/>
-        <v>-6.9986607662822848</v>
-      </c>
-      <c r="I27" s="1">
-        <f>H27-B27</f>
-        <v>1.3392337177151603E-3</v>
+        <v>3.741715046032823E-3</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
@@ -1807,32 +1808,32 @@
         <v>-6</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="3"/>
-        <v>46521.803403375408</v>
+        <f t="shared" si="6"/>
+        <v>48030.460820334498</v>
       </c>
       <c r="D28" s="1">
-        <f>1/(1/C28+1/B$6)</f>
-        <v>8230.7712426240778</v>
-      </c>
-      <c r="E28" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D28+1),0)</f>
-        <v>30404</v>
+        <f t="shared" si="0"/>
+        <v>8276.76708772647</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="1"/>
+        <v>30110</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="0"/>
-        <v>8230.9216131277935</v>
+        <f t="shared" si="3"/>
+        <v>8276.4831156848777</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="1"/>
-        <v>46526.607719629414</v>
+        <f t="shared" si="4"/>
+        <v>48020.899539801867</v>
       </c>
       <c r="H28" s="1">
+        <f t="shared" si="5"/>
+        <v>-5.9964762729244399</v>
+      </c>
+      <c r="I28" s="1">
         <f t="shared" si="2"/>
-        <v>-6.0018660812095845</v>
-      </c>
-      <c r="I28" s="1">
-        <f>H28-B28</f>
-        <v>-1.8660812095845358E-3</v>
+        <v>3.5237270755601457E-3</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
@@ -1840,32 +1841,32 @@
         <v>-5</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="3"/>
-        <v>44026.046691571566</v>
+        <f t="shared" si="6"/>
+        <v>45401.769247309792</v>
       </c>
       <c r="D29" s="1">
-        <f>1/(1/C29+1/B$6)</f>
-        <v>8149.0409511010785</v>
-      </c>
-      <c r="E29" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D29+1),0)</f>
-        <v>30273</v>
+        <f t="shared" si="0"/>
+        <v>8195.0034925129057</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="1"/>
+        <v>29982</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="0"/>
-        <v>8148.845964893685</v>
+        <f t="shared" si="3"/>
+        <v>8194.7950066983867</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="1"/>
-        <v>44020.356006871596</v>
+        <f t="shared" si="4"/>
+        <v>45395.37081442809</v>
       </c>
       <c r="H29" s="1">
+        <f t="shared" si="5"/>
+        <v>-4.997486830461412</v>
+      </c>
+      <c r="I29" s="1">
         <f t="shared" si="2"/>
-        <v>-4.9976471562519009</v>
-      </c>
-      <c r="I29" s="1">
-        <f>H29-B29</f>
-        <v>2.352843748099076E-3</v>
+        <v>2.5131695385880448E-3</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
@@ -1873,32 +1874,32 @@
         <v>-4</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="3"/>
-        <v>41681.254561274953</v>
+        <f t="shared" si="6"/>
+        <v>42934.898350742456</v>
       </c>
       <c r="D30" s="1">
-        <f>1/(1/C30+1/B$6)</f>
-        <v>8065.0624515812242</v>
-      </c>
-      <c r="E30" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D30+1),0)</f>
-        <v>30138</v>
+        <f t="shared" si="0"/>
+        <v>8110.8870874293943</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="1"/>
+        <v>29849</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="0"/>
-        <v>8065.2353020732517</v>
+        <f t="shared" si="3"/>
+        <v>8110.8868858883279</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="1"/>
-        <v>41685.871727532482</v>
+        <f t="shared" si="4"/>
+        <v>42934.892703353828</v>
       </c>
       <c r="H30" s="1">
+        <f t="shared" si="5"/>
+        <v>-3.9999979108563934</v>
+      </c>
+      <c r="I30" s="1">
         <f t="shared" si="2"/>
-        <v>-4.0020316910548672</v>
-      </c>
-      <c r="I30" s="1">
-        <f>H30-B30</f>
-        <v>-2.031691054867224E-3</v>
+        <v>2.0891436065539892E-6</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
@@ -1906,32 +1907,32 @@
         <v>-3</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="3"/>
-        <v>39477.336447864291</v>
+        <f t="shared" si="6"/>
+        <v>40618.859233429699</v>
       </c>
       <c r="D31" s="1">
-        <f>1/(1/C31+1/B$6)</f>
-        <v>7978.8726075549166</v>
-      </c>
-      <c r="E31" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D31+1),0)</f>
-        <v>29997</v>
+        <f t="shared" si="0"/>
+        <v>8024.4517258113547</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="1"/>
+        <v>29710</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="0"/>
-        <v>7978.9426368982868</v>
+        <f t="shared" si="3"/>
+        <v>8024.2325073126722</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="1"/>
-        <v>39479.050830368396</v>
+        <f t="shared" si="4"/>
+        <v>40613.242889215486</v>
       </c>
       <c r="H31" s="1">
+        <f t="shared" si="5"/>
+        <v>-2.99749733120575</v>
+      </c>
+      <c r="I31" s="1">
         <f t="shared" si="2"/>
-        <v>-3.000802612212965</v>
-      </c>
-      <c r="I31" s="1">
-        <f>H31-B31</f>
-        <v>-8.0261221296495933E-4</v>
+        <v>2.5026687942499848E-3</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
@@ -1939,32 +1940,32 @@
         <v>-2</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="3"/>
-        <v>37404.936769989145</v>
+        <f t="shared" si="6"/>
+        <v>38443.475143156196</v>
       </c>
       <c r="D32" s="1">
-        <f>1/(1/C32+1/B$6)</f>
-        <v>7890.5150641756054</v>
-      </c>
-      <c r="E32" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D32+1),0)</f>
-        <v>29851</v>
+        <f t="shared" si="0"/>
+        <v>7935.738513711327</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="1"/>
+        <v>29566</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" si="0"/>
-        <v>7890.6832839145482</v>
+        <f t="shared" si="3"/>
+        <v>7935.5608756226457</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="1"/>
-        <v>37408.717352595449</v>
+        <f t="shared" si="4"/>
+        <v>38439.306743985733</v>
       </c>
       <c r="H32" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.998022959326363</v>
+      </c>
+      <c r="I32" s="1">
         <f t="shared" si="2"/>
-        <v>-2.0018814224378616</v>
-      </c>
-      <c r="I32" s="1">
-        <f>H32-B32</f>
-        <v>-1.8814224378616018E-3</v>
+        <v>1.9770406736370205E-3</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
@@ -1972,32 +1973,32 @@
         <v>-1</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="3"/>
-        <v>35455.377188930848</v>
+        <f t="shared" si="6"/>
+        <v>36399.316801851135</v>
       </c>
       <c r="D33" s="1">
-        <f>1/(1/C33+1/B$6)</f>
-        <v>7800.0402552076557</v>
-      </c>
-      <c r="E33" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D33+1),0)</f>
-        <v>29699</v>
+        <f t="shared" si="0"/>
+        <v>7844.7958527697447</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="1"/>
+        <v>29417</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" si="0"/>
-        <v>7799.956749899382</v>
+        <f t="shared" si="3"/>
+        <v>7844.9666854177576</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="1"/>
-        <v>35453.65187499224</v>
+        <f t="shared" si="4"/>
+        <v>36402.994943669903</v>
       </c>
       <c r="H33" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.001856370357018</v>
+      </c>
+      <c r="I33" s="1">
         <f t="shared" si="2"/>
-        <v>-0.99908778049729108</v>
-      </c>
-      <c r="I33" s="1">
-        <f>H33-B33</f>
-        <v>9.1221950270892194E-4</v>
+        <v>-1.8563703570180223E-3</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
@@ -2005,32 +2006,32 @@
         <v>0</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="3"/>
-        <v>33620.603721435742</v>
+        <f t="shared" si="6"/>
+        <v>34477.643240078651</v>
       </c>
       <c r="D34" s="1">
-        <f>1/(1/C34+1/B$6)</f>
-        <v>7707.5053651570925</v>
-      </c>
-      <c r="E34" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D34+1),0)</f>
-        <v>29542</v>
+        <f t="shared" si="0"/>
+        <v>7751.6794345368917</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="1"/>
+        <v>29262</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" si="0"/>
-        <v>7707.4642995947415</v>
+        <f t="shared" si="3"/>
+        <v>7751.9485567638549</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="1"/>
-        <v>33619.822357541794</v>
+        <f t="shared" si="4"/>
+        <v>34482.967816807031</v>
       </c>
       <c r="H34" s="1">
+        <f t="shared" si="5"/>
+        <v>-2.8577732992971505E-3</v>
+      </c>
+      <c r="I34" s="1">
         <f t="shared" si="2"/>
-        <v>4.3875452200836662E-4</v>
-      </c>
-      <c r="I34" s="1">
-        <f>H34-B34</f>
-        <v>4.3875452200836662E-4</v>
+        <v>-2.8577732992971505E-3</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
@@ -2038,32 +2039,32 @@
         <v>1</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="3"/>
-        <v>31893.138272305434</v>
+        <f t="shared" si="6"/>
+        <v>32670.34763897413</v>
       </c>
       <c r="D35" s="1">
-        <f>1/(1/C35+1/B$6)</f>
-        <v>7612.9742453286772</v>
-      </c>
-      <c r="E35" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D35+1),0)</f>
-        <v>29379</v>
+        <f t="shared" si="0"/>
+        <v>7656.4521844049314</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="1"/>
+        <v>29101</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="0"/>
-        <v>7612.7213733451536</v>
+        <f t="shared" si="3"/>
+        <v>7656.6253732380756</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="1"/>
-        <v>31888.700750496035</v>
+        <f t="shared" si="4"/>
+        <v>32673.501222542483</v>
       </c>
       <c r="H35" s="1">
+        <f t="shared" si="5"/>
+        <v>0.99820055521786344</v>
+      </c>
+      <c r="I35" s="1">
         <f t="shared" si="2"/>
-        <v>1.0026473975514136</v>
-      </c>
-      <c r="I35" s="1">
-        <f>H35-B35</f>
-        <v>2.6473975514136328E-3</v>
+        <v>-1.7994447821365611E-3</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
@@ -2071,32 +2072,32 @@
         <v>2</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="3"/>
-        <v>30266.034194017953</v>
+        <f t="shared" si="6"/>
+        <v>30969.907729329632</v>
       </c>
       <c r="D36" s="1">
-        <f>1/(1/C36+1/B$6)</f>
-        <v>7516.5172830738738</v>
-      </c>
-      <c r="E36" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D36+1),0)</f>
-        <v>29211</v>
+        <f t="shared" si="0"/>
+        <v>7559.1841538756562</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="1"/>
+        <v>28934</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" si="0"/>
-        <v>7516.4136554814922</v>
+        <f t="shared" si="3"/>
+        <v>7559.1163490954959</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="1"/>
-        <v>30264.354094516882</v>
+        <f t="shared" si="4"/>
+        <v>30968.769635104738</v>
       </c>
       <c r="H36" s="1">
+        <f t="shared" si="5"/>
+        <v>2.0006898044712784</v>
+      </c>
+      <c r="I36" s="1">
         <f t="shared" si="2"/>
-        <v>2.0010637619329827</v>
-      </c>
-      <c r="I36" s="1">
-        <f>H36-B36</f>
-        <v>1.063761932982743E-3</v>
+        <v>6.8980447127842126E-4</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
@@ -2104,32 +2105,32 @@
         <v>3</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="3"/>
-        <v>28732.835517560583</v>
+        <f t="shared" si="6"/>
+        <v>29369.340340331739</v>
       </c>
       <c r="D37" s="1">
-        <f>1/(1/C37+1/B$6)</f>
-        <v>7418.2112240488495</v>
-      </c>
-      <c r="E37" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D37+1),0)</f>
-        <v>29037</v>
+        <f t="shared" si="0"/>
+        <v>7459.9523605033473</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="1"/>
+        <v>28762</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" si="0"/>
-        <v>7418.0720184289839</v>
+        <f t="shared" si="3"/>
+        <v>7460.1121589696313</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="1"/>
-        <v>28730.747222141097</v>
+        <f t="shared" si="4"/>
+        <v>29371.817284432727</v>
       </c>
       <c r="H37" s="1">
+        <f t="shared" si="5"/>
+        <v>2.9984047496452604</v>
+      </c>
+      <c r="I37" s="1">
         <f t="shared" si="2"/>
-        <v>3.0014030023886562</v>
-      </c>
-      <c r="I37" s="1">
-        <f>H37-B37</f>
-        <v>1.4030023886562049E-3</v>
+        <v>-1.5952503547396191E-3</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
@@ -2137,32 +2138,32 @@
         <v>4</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="3"/>
-        <v>27287.539531911738</v>
+        <f t="shared" si="6"/>
+        <v>27862.159728975992</v>
       </c>
       <c r="D38" s="1">
-        <f>1/(1/C38+1/B$6)</f>
-        <v>7318.1389478805067</v>
-      </c>
-      <c r="E38" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D38+1),0)</f>
-        <v>28858</v>
+        <f t="shared" si="0"/>
+        <v>7358.8405755028871</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="1"/>
+        <v>28583</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" si="0"/>
-        <v>7318.3652094388272</v>
+        <f t="shared" si="3"/>
+        <v>7358.5804169188195</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="1"/>
-        <v>27290.685648911003</v>
+        <f t="shared" si="4"/>
+        <v>27858.430610767009</v>
       </c>
       <c r="H38" s="1">
+        <f t="shared" si="5"/>
+        <v>4.0025497574567339</v>
+      </c>
+      <c r="I38" s="1">
         <f t="shared" si="2"/>
-        <v>3.9977579039849616</v>
-      </c>
-      <c r="I38" s="1">
-        <f>H38-B38</f>
-        <v>-2.2420960150384417E-3</v>
+        <v>2.5497574567339143E-3</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
@@ -2170,32 +2171,32 @@
         <v>5</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" si="3"/>
-        <v>25924.56241959352</v>
+        <f t="shared" si="6"/>
+        <v>26442.339355871107</v>
       </c>
       <c r="D39" s="1">
-        <f>1/(1/C39+1/B$6)</f>
-        <v>7216.3891982311443</v>
-      </c>
-      <c r="E39" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D39+1),0)</f>
-        <v>28672</v>
+        <f t="shared" si="0"/>
+        <v>7255.9390596891153</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="1"/>
+        <v>28399</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" si="0"/>
-        <v>7216.2943708878238</v>
+        <f t="shared" si="3"/>
+        <v>7255.7738060260017</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" si="1"/>
-        <v>25923.33864406978</v>
+        <f t="shared" si="4"/>
+        <v>26440.144846510248</v>
       </c>
       <c r="H39" s="1">
+        <f t="shared" si="5"/>
+        <v>5.0015923642066014</v>
+      </c>
+      <c r="I39" s="1">
         <f t="shared" si="2"/>
-        <v>5.0009244241794022</v>
-      </c>
-      <c r="I39" s="1">
-        <f>H39-B39</f>
-        <v>9.2442417940219457E-4</v>
+        <v>1.5923642066013599E-3</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
@@ -2203,32 +2204,32 @@
         <v>6</v>
       </c>
       <c r="C40" s="1">
-        <f t="shared" si="3"/>
-        <v>24638.70768276219</v>
+        <f t="shared" si="6"/>
+        <v>25104.276804398916</v>
       </c>
       <c r="D40" s="1">
-        <f>1/(1/C40+1/B$6)</f>
-        <v>7113.0562688467562</v>
-      </c>
-      <c r="E40" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D40+1),0)</f>
-        <v>28481</v>
+        <f t="shared" si="0"/>
+        <v>7151.3442491010383</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="1"/>
+        <v>28209</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="0"/>
-        <v>7113.0714383558698</v>
+        <f t="shared" si="3"/>
+        <v>7151.2382233892713</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" si="1"/>
-        <v>24638.889693567326</v>
+        <f t="shared" si="4"/>
+        <v>25102.970287313219</v>
       </c>
       <c r="H40" s="1">
+        <f t="shared" si="5"/>
+        <v>6.0010056678543151</v>
+      </c>
+      <c r="I40" s="1">
         <f t="shared" si="2"/>
-        <v>5.9998540815337265</v>
-      </c>
-      <c r="I40" s="1">
-        <f>H40-B40</f>
-        <v>-1.4591846627354244E-4</v>
+        <v>1.0056678543151065E-3</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
@@ -2236,32 +2237,32 @@
         <v>7</v>
       </c>
       <c r="C41" s="1">
-        <f t="shared" si="3"/>
-        <v>23425.137118719744</v>
+        <f t="shared" si="6"/>
+        <v>23842.761568376765</v>
       </c>
       <c r="D41" s="1">
-        <f>1/(1/C41+1/B$6)</f>
-        <v>7008.239647759141</v>
-      </c>
-      <c r="E41" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D41+1),0)</f>
-        <v>28284</v>
+        <f t="shared" ref="D41:D72" si="7">1/(1/C41+1/B$6)</f>
+        <v>7045.1583923505323</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" ref="E41:E72" si="8">ROUND((B$1/B$3*B$4)/(B$5/D41+1),0)</f>
+        <v>28013</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" si="0"/>
-        <v>7008.2567911045535</v>
+        <f t="shared" si="3"/>
+        <v>7045.0899707750732</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="1"/>
-        <v>23425.328652093791</v>
+        <f t="shared" si="4"/>
+        <v>23841.977931974474</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" si="2"/>
-        <v>6.9998373636731799</v>
+        <f t="shared" si="5"/>
+        <v>7.0006395974015732</v>
       </c>
       <c r="I41" s="1">
-        <f>H41-B41</f>
-        <v>-1.626363268201203E-4</v>
+        <f t="shared" ref="I41:I72" si="9">H41-B41</f>
+        <v>6.3959740157315537E-4</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
@@ -2269,32 +2270,32 @@
         <v>8</v>
       </c>
       <c r="C42" s="1">
-        <f t="shared" si="3"/>
-        <v>22279.344125776763</v>
+        <f t="shared" si="6"/>
+        <v>22652.945458786355</v>
       </c>
       <c r="D42" s="1">
-        <f>1/(1/C42+1/B$6)</f>
-        <v>6902.0436223750685</v>
-      </c>
-      <c r="E42" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D42+1),0)</f>
-        <v>28081</v>
+        <f t="shared" si="7"/>
+        <v>6937.4891424047109</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="8"/>
+        <v>27811</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" si="0"/>
-        <v>6901.9625149167814</v>
+        <f t="shared" si="3"/>
+        <v>6937.4440733774363</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" si="1"/>
-        <v>22278.499043827371</v>
+        <f t="shared" si="4"/>
+        <v>22652.464933197691</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" si="2"/>
-        <v>8.000758907566933</v>
+        <f t="shared" si="5"/>
+        <v>8.0004156975250567</v>
       </c>
       <c r="I42" s="1">
-        <f>H42-B42</f>
-        <v>7.589075669329759E-4</v>
+        <f t="shared" si="9"/>
+        <v>4.1569752505665747E-4</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
@@ -2302,32 +2303,32 @@
         <v>9</v>
       </c>
       <c r="C43" s="1">
-        <f t="shared" si="3"/>
-        <v>21197.129140324207</v>
+        <f t="shared" si="6"/>
+        <v>21530.315403079934</v>
       </c>
       <c r="D43" s="1">
-        <f>1/(1/C43+1/B$6)</f>
-        <v>6794.5768487157402</v>
-      </c>
-      <c r="E43" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D43+1),0)</f>
-        <v>27873</v>
+        <f t="shared" si="7"/>
+        <v>6828.4491061503359</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="8"/>
+        <v>27603</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" si="0"/>
-        <v>6794.8101865625649</v>
+        <f t="shared" si="3"/>
+        <v>6828.4140543647254</v>
       </c>
       <c r="G43" s="1">
-        <f t="shared" si="1"/>
-        <v>21199.400291602105</v>
+        <f t="shared" si="4"/>
+        <v>21529.966935822653</v>
       </c>
       <c r="H43" s="1">
-        <f t="shared" si="2"/>
-        <v>8.9978405789588578</v>
+        <f t="shared" si="5"/>
+        <v>9.0003194035148795</v>
       </c>
       <c r="I43" s="1">
-        <f>H43-B43</f>
-        <v>-2.1594210411421955E-3</v>
+        <f t="shared" si="9"/>
+        <v>3.1940351487946828E-4</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
@@ -2335,32 +2336,32 @@
         <v>10</v>
       </c>
       <c r="C44" s="1">
-        <f t="shared" si="3"/>
-        <v>20174.57702398485</v>
+        <f t="shared" si="6"/>
+        <v>20470.668431293561</v>
       </c>
       <c r="D44" s="1">
-        <f>1/(1/C44+1/B$6)</f>
-        <v>6685.951888554624</v>
-      </c>
-      <c r="E44" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D44+1),0)</f>
-        <v>27658</v>
+        <f t="shared" si="7"/>
+        <v>6718.1553556829949</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="8"/>
+        <v>27389</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" si="0"/>
-        <v>6685.8784529528048</v>
+        <f t="shared" si="3"/>
+        <v>6718.1117254242481</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" si="1"/>
-        <v>20173.908403901987</v>
+        <f t="shared" si="4"/>
+        <v>20470.263346465366</v>
       </c>
       <c r="H44" s="1">
-        <f t="shared" si="2"/>
-        <v>10.000672547481827</v>
+        <f t="shared" si="5"/>
+        <v>10.000393338835238</v>
       </c>
       <c r="I44" s="1">
-        <f>H44-B44</f>
-        <v>6.7254748182676849E-4</v>
+        <f t="shared" si="9"/>
+        <v>3.9333883523795521E-4</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
@@ -2368,32 +2369,32 @@
         <v>11</v>
       </c>
       <c r="C45" s="1">
-        <f t="shared" si="3"/>
-        <v>19208.036236013788</v>
+        <f t="shared" si="6"/>
+        <v>19470.088661923197</v>
       </c>
       <c r="D45" s="1">
-        <f>1/(1/C45+1/B$6)</f>
-        <v>6576.2847186316812</v>
-      </c>
-      <c r="E45" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D45+1),0)</f>
-        <v>27438</v>
+        <f t="shared" si="7"/>
+        <v>6606.7289058005135</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="8"/>
+        <v>27169</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" si="0"/>
-        <v>6576.2878330945696</v>
+        <f t="shared" si="3"/>
+        <v>6606.6469934526294</v>
       </c>
       <c r="G45" s="1">
-        <f t="shared" si="1"/>
-        <v>19208.062805813024</v>
+        <f t="shared" si="4"/>
+        <v>19469.377281719015</v>
       </c>
       <c r="H45" s="1">
-        <f t="shared" si="2"/>
-        <v>10.999971585271851</v>
+        <f t="shared" si="5"/>
+        <v>11.000731534440376</v>
       </c>
       <c r="I45" s="1">
-        <f>H45-B45</f>
-        <v>-2.8414728149073198E-5</v>
+        <f t="shared" si="9"/>
+        <v>7.3153444037643567E-4</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
@@ -2401,32 +2402,32 @@
         <v>12</v>
       </c>
       <c r="C46" s="1">
-        <f t="shared" si="3"/>
-        <v>18294.099640871082</v>
+        <f t="shared" si="6"/>
+        <v>18524.926117449944</v>
       </c>
       <c r="D46" s="1">
-        <f>1/(1/C46+1/B$6)</f>
-        <v>6465.6942164878392</v>
-      </c>
-      <c r="E46" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D46+1),0)</f>
-        <v>27212</v>
+        <f t="shared" si="7"/>
+        <v>6494.2941626472566</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="8"/>
+        <v>26943</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" si="0"/>
-        <v>6465.6325899368567</v>
+        <f t="shared" si="3"/>
+        <v>6494.1276834248938</v>
       </c>
       <c r="G46" s="1">
-        <f t="shared" si="1"/>
-        <v>18293.606294376019</v>
+        <f t="shared" si="4"/>
+        <v>18523.571587937982</v>
       </c>
       <c r="H46" s="1">
-        <f t="shared" si="2"/>
-        <v>12.00055500324504</v>
+        <f t="shared" si="5"/>
+        <v>12.00147447700931</v>
       </c>
       <c r="I46" s="1">
-        <f>H46-B46</f>
-        <v>5.5500324504009768E-4</v>
+        <f t="shared" si="9"/>
+        <v>1.4744770093102488E-3</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
@@ -2434,32 +2435,32 @@
         <v>13</v>
       </c>
       <c r="C47" s="1">
-        <f t="shared" si="3"/>
-        <v>17429.586814247774</v>
+        <f t="shared" si="6"/>
+        <v>17631.777214714282</v>
       </c>
       <c r="D47" s="1">
-        <f>1/(1/C47+1/B$6)</f>
-        <v>6354.3016277570423</v>
-      </c>
-      <c r="E47" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D47+1),0)</f>
-        <v>26981</v>
+        <f t="shared" si="7"/>
+        <v>6380.9783488429148</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="8"/>
+        <v>26712</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="0"/>
-        <v>6354.4926856929442</v>
+        <f t="shared" si="3"/>
+        <v>6381.1441117907552</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="1"/>
-        <v>17431.024375549267</v>
+        <f t="shared" si="4"/>
+        <v>17633.04289784361</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" si="2"/>
-        <v>12.998290221644822</v>
+        <f t="shared" si="5"/>
+        <v>12.998542146094564</v>
       </c>
       <c r="I47" s="1">
-        <f>H47-B47</f>
-        <v>-1.7097783551776047E-3</v>
+        <f t="shared" si="9"/>
+        <v>-1.4578539054355133E-3</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
@@ -2467,32 +2468,32 @@
         <v>14</v>
       </c>
       <c r="C48" s="1">
-        <f t="shared" si="3"/>
-        <v>16611.527722935953</v>
+        <f t="shared" si="6"/>
+        <v>16787.466789204285</v>
       </c>
       <c r="D48" s="1">
-        <f>1/(1/C48+1/B$6)</f>
-        <v>6242.23001996943</v>
-      </c>
-      <c r="E48" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D48+1),0)</f>
-        <v>26743</v>
+        <f t="shared" si="7"/>
+        <v>6266.9109107285431</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" si="8"/>
+        <v>26474</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" si="0"/>
-        <v>6242.0066686015189</v>
+        <f t="shared" si="3"/>
+        <v>6266.8212344726089</v>
       </c>
       <c r="G48" s="1">
-        <f t="shared" si="1"/>
-        <v>16609.946101949703</v>
+        <f t="shared" si="4"/>
+        <v>16786.823316207545</v>
       </c>
       <c r="H48" s="1">
-        <f t="shared" si="2"/>
-        <v>14.001987526097651</v>
+        <f t="shared" si="5"/>
+        <v>14.000783773068235</v>
       </c>
       <c r="I48" s="1">
-        <f>H48-B48</f>
-        <v>1.987526097650516E-3</v>
+        <f t="shared" si="9"/>
+        <v>7.8377306823540493E-4</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
@@ -2500,32 +2501,32 @@
         <v>15</v>
       </c>
       <c r="C49" s="1">
-        <f t="shared" si="3"/>
-        <v>15837.147664908136</v>
+        <f t="shared" si="6"/>
+        <v>15989.031524875525</v>
       </c>
       <c r="D49" s="1">
-        <f>1/(1/C49+1/B$6)</f>
-        <v>6129.6037280531773</v>
-      </c>
-      <c r="E49" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D49+1),0)</f>
-        <v>26501</v>
+        <f t="shared" si="7"/>
+        <v>6152.2229135670359</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" si="8"/>
+        <v>26231</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" si="0"/>
-        <v>6129.6782809472606</v>
+        <f t="shared" si="3"/>
+        <v>6152.2205103158267</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" si="1"/>
-        <v>15837.645358452264</v>
+        <f t="shared" si="4"/>
+        <v>15989.015292611797</v>
       </c>
       <c r="H49" s="1">
-        <f t="shared" si="2"/>
-        <v>14.999339331049384</v>
+        <f t="shared" si="5"/>
+        <v>15.000020804959263</v>
       </c>
       <c r="I49" s="1">
-        <f>H49-B49</f>
-        <v>-6.6066895061567266E-4</v>
+        <f t="shared" si="9"/>
+        <v>2.0804959262932243E-5</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.3">
@@ -2533,32 +2534,32 @@
         <v>16</v>
       </c>
       <c r="C50" s="1">
-        <f t="shared" si="3"/>
-        <v>15103.853365929419</v>
+        <f t="shared" si="6"/>
+        <v>15233.704672497699</v>
       </c>
       <c r="D50" s="1">
-        <f>1/(1/C50+1/B$6)</f>
-        <v>6016.5477967729639</v>
-      </c>
-      <c r="E50" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D50+1),0)</f>
-        <v>26253</v>
+        <f t="shared" si="7"/>
+        <v>6037.0464306420154</v>
+      </c>
+      <c r="E50" s="2">
+        <f t="shared" si="8"/>
+        <v>25982</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="0"/>
-        <v>6016.6498918180741</v>
+        <f t="shared" si="3"/>
+        <v>6036.9553447076214</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" si="1"/>
-        <v>15104.496788920682</v>
+        <f t="shared" si="4"/>
+        <v>15233.124705384471</v>
       </c>
       <c r="H50" s="1">
-        <f t="shared" si="2"/>
-        <v>15.999098238843487</v>
+        <f t="shared" si="5"/>
+        <v>16.000789374131671</v>
       </c>
       <c r="I50" s="1">
-        <f>H50-B50</f>
-        <v>-9.0176115651274813E-4</v>
+        <f t="shared" si="9"/>
+        <v>7.8937413167068371E-4</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.3">
@@ -2566,32 +2567,32 @@
         <v>17</v>
       </c>
       <c r="C51" s="1">
-        <f t="shared" si="3"/>
-        <v>14409.220138062792</v>
+        <f t="shared" si="6"/>
+        <v>14518.901949836278</v>
       </c>
       <c r="D51" s="1">
-        <f>1/(1/C51+1/B$6)</f>
-        <v>5903.187425309673</v>
-      </c>
-      <c r="E51" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D51+1),0)</f>
-        <v>25999</v>
+        <f t="shared" si="7"/>
+        <v>5921.513932206587</v>
+      </c>
+      <c r="E51" s="2">
+        <f t="shared" si="8"/>
+        <v>25728</v>
       </c>
       <c r="F51" s="1">
-        <f t="shared" si="0"/>
-        <v>5903.0150782986011</v>
+        <f t="shared" si="3"/>
+        <v>5921.5711490205276</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" si="1"/>
-        <v>14408.193320485039</v>
+        <f t="shared" si="4"/>
+        <v>14519.245928731621</v>
       </c>
       <c r="H51" s="1">
-        <f t="shared" si="2"/>
-        <v>17.001518781568564</v>
+        <f t="shared" si="5"/>
+        <v>16.999505247126763</v>
       </c>
       <c r="I51" s="1">
-        <f>H51-B51</f>
-        <v>1.5187815685635542E-3</v>
+        <f t="shared" si="9"/>
+        <v>-4.9475287323730299E-4</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
@@ -2599,32 +2600,32 @@
         <v>18</v>
       </c>
       <c r="C52" s="1">
-        <f t="shared" si="3"/>
-        <v>13750.980013633698</v>
+        <f t="shared" si="6"/>
+        <v>13842.208526332595</v>
       </c>
       <c r="D52" s="1">
-        <f>1/(1/C52+1/B$6)</f>
-        <v>5789.6474190708204</v>
-      </c>
-      <c r="E52" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D52+1),0)</f>
-        <v>25741</v>
+        <f t="shared" si="7"/>
+        <v>5805.7576801429814</v>
+      </c>
+      <c r="E52" s="2">
+        <f t="shared" si="8"/>
+        <v>25468</v>
       </c>
       <c r="F52" s="1">
-        <f t="shared" si="0"/>
-        <v>5789.7346618104093</v>
+        <f t="shared" si="3"/>
+        <v>5805.693457833001</v>
       </c>
       <c r="G52" s="1">
-        <f t="shared" si="1"/>
-        <v>13751.472168022525</v>
+        <f t="shared" si="4"/>
+        <v>13841.843459618654</v>
       </c>
       <c r="H52" s="1">
-        <f t="shared" si="2"/>
-        <v>17.999231868179947</v>
+        <f t="shared" si="5"/>
+        <v>18.000554409183906</v>
       </c>
       <c r="I52" s="1">
-        <f>H52-B52</f>
-        <v>-7.6813182005253111E-4</v>
+        <f t="shared" si="9"/>
+        <v>5.5440918390559091E-4</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
@@ -2632,32 +2633,32 @@
         <v>19</v>
       </c>
       <c r="C53" s="1">
-        <f t="shared" si="3"/>
-        <v>13127.010775676536</v>
+        <f t="shared" si="6"/>
+        <v>13201.367003436928</v>
       </c>
       <c r="D53" s="1">
-        <f>1/(1/C53+1/B$6)</f>
-        <v>5676.0516536286041</v>
-      </c>
-      <c r="E53" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D53+1),0)</f>
-        <v>25477</v>
+        <f t="shared" si="7"/>
+        <v>5689.9091340097966</v>
+      </c>
+      <c r="E53" s="2">
+        <f t="shared" si="8"/>
+        <v>25203</v>
       </c>
       <c r="F53" s="1">
-        <f t="shared" si="0"/>
-        <v>5675.9940772412374</v>
+        <f t="shared" si="3"/>
+        <v>5689.8451636138434</v>
       </c>
       <c r="G53" s="1">
-        <f t="shared" si="1"/>
-        <v>13126.702827501893</v>
+        <f t="shared" si="4"/>
+        <v>13201.022653711641</v>
       </c>
       <c r="H53" s="1">
-        <f t="shared" si="2"/>
-        <v>19.000506850164527</v>
+        <f t="shared" si="5"/>
+        <v>19.000552115791038</v>
       </c>
       <c r="I53" s="1">
-        <f>H53-B53</f>
-        <v>5.0685016452689524E-4</v>
+        <f t="shared" si="9"/>
+        <v>5.5211579103797703E-4</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
@@ -2665,32 +2666,32 @@
         <v>20</v>
       </c>
       <c r="C54" s="1">
-        <f t="shared" si="3"/>
-        <v>12535.32581266281</v>
+        <f t="shared" si="6"/>
+        <v>12594.266309458693</v>
       </c>
       <c r="D54" s="1">
-        <f>1/(1/C54+1/B$6)</f>
-        <v>5562.5225554178996</v>
-      </c>
-      <c r="E54" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D54+1),0)</f>
-        <v>25209</v>
+        <f t="shared" si="7"/>
+        <v>5574.0983738809546</v>
+      </c>
+      <c r="E54" s="2">
+        <f t="shared" si="8"/>
+        <v>24933</v>
       </c>
       <c r="F54" s="1">
-        <f t="shared" si="0"/>
-        <v>5562.71638912244</v>
+        <f t="shared" si="3"/>
+        <v>5574.0880833824604</v>
       </c>
       <c r="G54" s="1">
-        <f t="shared" si="1"/>
-        <v>12536.310222510894</v>
+        <f t="shared" si="4"/>
+        <v>12594.213776496492</v>
       </c>
       <c r="H54" s="1">
-        <f t="shared" si="2"/>
-        <v>19.998291493916895</v>
+        <f t="shared" si="5"/>
+        <v>20.000088852127476</v>
       </c>
       <c r="I54" s="1">
-        <f>H54-B54</f>
-        <v>-1.7085060831050214E-3</v>
+        <f t="shared" si="9"/>
+        <v>8.8852127476002352E-5</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
@@ -2698,32 +2699,32 @@
         <v>21</v>
       </c>
       <c r="C55" s="1">
-        <f t="shared" si="3"/>
-        <v>11974.064731474306</v>
+        <f t="shared" si="6"/>
+        <v>12018.931434802111</v>
       </c>
       <c r="D55" s="1">
-        <f>1/(1/C55+1/B$6)</f>
-        <v>5449.1806034972624</v>
-      </c>
-      <c r="E55" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D55+1),0)</f>
-        <v>24935</v>
+        <f t="shared" si="7"/>
+        <v>5458.4535450278663</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" si="8"/>
+        <v>24658</v>
       </c>
       <c r="F55" s="1">
-        <f t="shared" si="0"/>
-        <v>5449.1151388378184</v>
+        <f t="shared" si="3"/>
+        <v>5458.4815748134461</v>
       </c>
       <c r="G55" s="1">
-        <f t="shared" si="1"/>
-        <v>11973.748633680554</v>
+        <f t="shared" si="4"/>
+        <v>12019.067333386909</v>
       </c>
       <c r="H55" s="1">
-        <f t="shared" si="2"/>
-        <v>21.000578223892148</v>
+        <f t="shared" si="5"/>
+        <v>20.999757318095988</v>
       </c>
       <c r="I55" s="1">
-        <f>H55-B55</f>
-        <v>5.7822389214834402E-4</v>
+        <f t="shared" si="9"/>
+        <v>-2.4268190401244283E-4</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
@@ -2731,32 +2732,32 @@
         <v>22</v>
       </c>
       <c r="C56" s="1">
-        <f t="shared" si="3"/>
-        <v>11441.484668193882</v>
+        <f t="shared" si="6"/>
+        <v>11473.513939822811</v>
       </c>
       <c r="D56" s="1">
-        <f>1/(1/C56+1/B$6)</f>
-        <v>5336.1438562909234</v>
-      </c>
-      <c r="E56" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D56+1),0)</f>
-        <v>24657</v>
+        <f t="shared" si="7"/>
+        <v>5343.1003290733352</v>
+      </c>
+      <c r="E56" s="2">
+        <f t="shared" si="8"/>
+        <v>24378</v>
       </c>
       <c r="F56" s="1">
-        <f t="shared" si="0"/>
-        <v>5336.076261189849</v>
+        <f t="shared" si="3"/>
+        <v>5343.0825486883223</v>
       </c>
       <c r="G56" s="1">
-        <f t="shared" si="1"/>
-        <v>11441.173912828977</v>
+        <f t="shared" si="4"/>
+        <v>11473.4319526823</v>
       </c>
       <c r="H56" s="1">
-        <f t="shared" si="2"/>
-        <v>22.000598975380285</v>
+        <f t="shared" si="5"/>
+        <v>22.000154357826773</v>
       </c>
       <c r="I56" s="1">
-        <f>H56-B56</f>
-        <v>5.9897538028508279E-4</v>
+        <f t="shared" si="9"/>
+        <v>1.5435782677286625E-4</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.3">
@@ -2764,32 +2765,32 @@
         <v>23</v>
       </c>
       <c r="C57" s="1">
-        <f t="shared" si="3"/>
-        <v>10935.952241391826</v>
+        <f t="shared" si="6"/>
+        <v>10956.283173330488</v>
       </c>
       <c r="D57" s="1">
-        <f>1/(1/C57+1/B$6)</f>
-        <v>5223.5275067979437</v>
-      </c>
-      <c r="E57" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D57+1),0)</f>
-        <v>24375</v>
+        <f t="shared" si="7"/>
+        <v>5228.1614457633113</v>
+      </c>
+      <c r="E57" s="2">
+        <f t="shared" si="8"/>
+        <v>24094</v>
       </c>
       <c r="F57" s="1">
-        <f t="shared" si="0"/>
-        <v>5223.6304307796054</v>
+        <f t="shared" si="3"/>
+        <v>5228.3454611303687</v>
       </c>
       <c r="G57" s="1">
-        <f t="shared" si="1"/>
-        <v>10936.403381433094</v>
+        <f t="shared" si="4"/>
+        <v>10957.091337062562</v>
       </c>
       <c r="H57" s="1">
-        <f t="shared" si="2"/>
-        <v>22.999084031131702</v>
+        <f t="shared" si="5"/>
+        <v>22.998395549498071</v>
       </c>
       <c r="I57" s="1">
-        <f>H57-B57</f>
-        <v>-9.159688682984779E-4</v>
+        <f t="shared" si="9"/>
+        <v>-1.6044505019294775E-3</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.3">
@@ -2797,32 +2798,32 @@
         <v>24</v>
       </c>
       <c r="C58" s="1">
-        <f t="shared" si="3"/>
-        <v>10455.936097237052</v>
+        <f t="shared" si="6"/>
+        <v>10465.618145031392</v>
       </c>
       <c r="D58" s="1">
-        <f>1/(1/C58+1/B$6)</f>
-        <v>5111.4434692868044</v>
-      </c>
-      <c r="E58" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D58+1),0)</f>
-        <v>24088</v>
+        <f t="shared" si="7"/>
+        <v>5113.7561889730732</v>
+      </c>
+      <c r="E58" s="2">
+        <f t="shared" si="8"/>
+        <v>23805</v>
       </c>
       <c r="F58" s="1">
-        <f t="shared" si="0"/>
-        <v>5111.4195075736052</v>
+        <f t="shared" si="3"/>
+        <v>5113.9064473956714</v>
       </c>
       <c r="G58" s="1">
-        <f t="shared" si="1"/>
-        <v>10455.835831060656</v>
+        <f t="shared" si="4"/>
+        <v>10466.247509055403</v>
       </c>
       <c r="H58" s="1">
-        <f t="shared" si="2"/>
-        <v>24.000214351815714</v>
+        <f t="shared" si="5"/>
+        <v>23.998683088962252</v>
       </c>
       <c r="I58" s="1">
-        <f>H58-B58</f>
-        <v>2.1435181571405337E-4</v>
+        <f t="shared" si="9"/>
+        <v>-1.316911037747559E-3</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.3">
@@ -2830,32 +2831,32 @@
         <v>25</v>
       </c>
       <c r="C59" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>10000</v>
       </c>
       <c r="D59" s="1">
-        <f>1/(1/C59+1/B$6)</f>
+        <f t="shared" si="7"/>
         <v>5000</v>
       </c>
-      <c r="E59" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D59+1),0)</f>
-        <v>23797</v>
+      <c r="E59" s="2">
+        <f t="shared" si="8"/>
+        <v>23511</v>
       </c>
       <c r="F59" s="1">
-        <f t="shared" si="0"/>
-        <v>4999.8732025095751</v>
+        <f t="shared" si="3"/>
+        <v>4999.8155218701422</v>
       </c>
       <c r="G59" s="1">
-        <f t="shared" si="1"/>
-        <v>9999.4928229000561</v>
+        <f t="shared" si="4"/>
+        <v>9999.2621147053087</v>
       </c>
       <c r="H59" s="1">
-        <f t="shared" si="2"/>
-        <v>25.001141418345298</v>
+        <f t="shared" si="5"/>
+        <v>25.001626883134975</v>
       </c>
       <c r="I59" s="1">
-        <f>H59-B59</f>
-        <v>1.1414183452984616E-3</v>
+        <f t="shared" si="9"/>
+        <v>1.6268831349748325E-3</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
@@ -2863,32 +2864,32 @@
         <v>26</v>
       </c>
       <c r="C60" s="1">
-        <f t="shared" si="3"/>
-        <v>9566.7964253785212</v>
+        <f t="shared" si="6"/>
+        <v>9558.0050476375</v>
       </c>
       <c r="D60" s="1">
-        <f>1/(1/C60+1/B$6)</f>
-        <v>4889.3013538844798</v>
-      </c>
-      <c r="E60" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D60+1),0)</f>
-        <v>23503</v>
+        <f t="shared" si="7"/>
+        <v>4887.0040806089546</v>
+      </c>
+      <c r="E60" s="2">
+        <f t="shared" si="8"/>
+        <v>23214</v>
       </c>
       <c r="F60" s="1">
-        <f t="shared" si="0"/>
-        <v>4889.3890367858839</v>
+        <f t="shared" si="3"/>
+        <v>4886.873198035114</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" si="1"/>
-        <v>9567.132133475674</v>
+        <f t="shared" si="4"/>
+        <v>9557.5044142405641</v>
       </c>
       <c r="H60" s="1">
-        <f t="shared" si="2"/>
-        <v>25.999205009947161</v>
+        <f t="shared" si="5"/>
+        <v>26.001162591233083</v>
       </c>
       <c r="I60" s="1">
-        <f>H60-B60</f>
-        <v>-7.9499005283878432E-4</v>
+        <f t="shared" si="9"/>
+        <v>1.1625912330828214E-3</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
@@ -2896,32 +2897,32 @@
         <v>27</v>
       </c>
       <c r="C61" s="1">
-        <f t="shared" si="3"/>
-        <v>9155.0606176022357</v>
+        <f t="shared" si="6"/>
+        <v>9138.2983015547488</v>
       </c>
       <c r="D61" s="1">
-        <f>1/(1/C61+1/B$6)</f>
-        <v>4779.4474788502312</v>
-      </c>
-      <c r="E61" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D61+1),0)</f>
-        <v>23205</v>
+        <f t="shared" si="7"/>
+        <v>4774.8750477007543</v>
+      </c>
+      <c r="E61" s="2">
+        <f t="shared" si="8"/>
+        <v>22913</v>
       </c>
       <c r="F61" s="1">
-        <f t="shared" si="0"/>
-        <v>4779.6041518218926</v>
+        <f t="shared" si="3"/>
+        <v>4774.7103666373314</v>
       </c>
       <c r="G61" s="1">
-        <f t="shared" si="1"/>
-        <v>9155.6354935994968</v>
+        <f t="shared" si="4"/>
+        <v>9137.695135885946</v>
       </c>
       <c r="H61" s="1">
-        <f t="shared" si="2"/>
-        <v>26.998567909524127</v>
+        <f t="shared" si="5"/>
+        <v>27.001474857749031</v>
       </c>
       <c r="I61" s="1">
-        <f>H61-B61</f>
-        <v>-1.4320904758733377E-3</v>
+        <f t="shared" si="9"/>
+        <v>1.474857749030889E-3</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.3">
@@ -2929,32 +2930,32 @@
         <v>28</v>
       </c>
       <c r="C62" s="1">
-        <f t="shared" si="3"/>
-        <v>8763.6050744872282</v>
+        <f t="shared" si="6"/>
+        <v>8739.6274904458096</v>
       </c>
       <c r="D62" s="1">
-        <f>1/(1/C62+1/B$6)</f>
-        <v>4670.5337485508344</v>
-      </c>
-      <c r="E62" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D62+1),0)</f>
-        <v>22903</v>
+        <f t="shared" si="7"/>
+        <v>4663.7146308813299</v>
+      </c>
+      <c r="E62" s="2">
+        <f t="shared" si="8"/>
+        <v>22609</v>
       </c>
       <c r="F62" s="1">
-        <f t="shared" si="0"/>
-        <v>4670.5413171132222</v>
+        <f t="shared" si="3"/>
+        <v>4663.7098173154081</v>
       </c>
       <c r="G62" s="1">
-        <f t="shared" si="1"/>
-        <v>8763.6317213802977</v>
+        <f t="shared" si="4"/>
+        <v>8739.6105864864712</v>
       </c>
       <c r="H62" s="1">
-        <f t="shared" si="2"/>
-        <v>27.999930219469888</v>
+        <f t="shared" si="5"/>
+        <v>28.00004353692924</v>
       </c>
       <c r="I62" s="1">
-        <f>H62-B62</f>
-        <v>-6.9780530111529515E-5</v>
+        <f t="shared" si="9"/>
+        <v>4.3536929240417521E-5</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.3">
@@ -2962,32 +2963,32 @@
         <v>29</v>
       </c>
       <c r="C63" s="1">
-        <f t="shared" si="3"/>
-        <v>8391.3144275502273</v>
+        <f t="shared" si="6"/>
+        <v>8360.8175033284897</v>
       </c>
       <c r="D63" s="1">
-        <f>1/(1/C63+1/B$6)</f>
-        <v>4562.6507341857086</v>
-      </c>
-      <c r="E63" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D63+1),0)</f>
-        <v>22598</v>
+        <f t="shared" si="7"/>
+        <v>4553.6194136305867</v>
+      </c>
+      <c r="E63" s="2">
+        <f t="shared" si="8"/>
+        <v>22301</v>
       </c>
       <c r="F63" s="1">
-        <f t="shared" si="0"/>
-        <v>4562.5723174222639</v>
+        <f t="shared" si="3"/>
+        <v>4553.5153844469514</v>
       </c>
       <c r="G63" s="1">
-        <f t="shared" si="1"/>
-        <v>8391.0491941646815</v>
+        <f t="shared" si="4"/>
+        <v>8360.4668072390705</v>
       </c>
       <c r="H63" s="1">
-        <f t="shared" si="2"/>
-        <v>29.000730599621079</v>
+        <f t="shared" si="5"/>
+        <v>29.00094980999836</v>
       </c>
       <c r="I63" s="1">
-        <f>H63-B63</f>
-        <v>7.3059962107890897E-4</v>
+        <f t="shared" si="9"/>
+        <v>9.4980999836025148E-4</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.3">
@@ -2995,32 +2996,32 @@
         <v>30</v>
       </c>
       <c r="C64" s="1">
-        <f t="shared" si="3"/>
-        <v>8037.1406869731372</v>
+        <f t="shared" si="6"/>
+        <v>8000.7652355475902</v>
       </c>
       <c r="D64" s="1">
-        <f>1/(1/C64+1/B$6)</f>
-        <v>4455.8840153515885</v>
-      </c>
-      <c r="E64" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D64+1),0)</f>
-        <v>22291</v>
+        <f t="shared" si="7"/>
+        <v>4444.680618214953</v>
+      </c>
+      <c r="E64" s="2">
+        <f t="shared" si="8"/>
+        <v>21991</v>
       </c>
       <c r="F64" s="1">
-        <f t="shared" si="0"/>
-        <v>4456.039778878333</v>
+        <f t="shared" si="3"/>
+        <v>4444.8398940595816</v>
       </c>
       <c r="G64" s="1">
-        <f t="shared" si="1"/>
-        <v>8037.6474598455497</v>
+        <f t="shared" si="4"/>
+        <v>8001.2813479605857</v>
       </c>
       <c r="H64" s="1">
-        <f t="shared" si="2"/>
-        <v>29.998533107487901</v>
+        <f t="shared" si="5"/>
+        <v>29.998529802880398</v>
       </c>
       <c r="I64" s="1">
-        <f>H64-B64</f>
-        <v>-1.4668925120986387E-3</v>
+        <f t="shared" si="9"/>
+        <v>-1.4701971196018349E-3</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.3">
@@ -3028,32 +3029,32 @@
         <v>31</v>
       </c>
       <c r="C65" s="1">
-        <f t="shared" si="3"/>
-        <v>7700.09882366077</v>
+        <f t="shared" si="6"/>
+        <v>7658.4348046944624</v>
       </c>
       <c r="D65" s="1">
-        <f>1/(1/C65+1/B$6)</f>
-        <v>4350.3140295282374</v>
-      </c>
-      <c r="E65" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D65+1),0)</f>
-        <v>21980</v>
+        <f t="shared" si="7"/>
+        <v>4336.9839339659256</v>
+      </c>
+      <c r="E65" s="2">
+        <f t="shared" si="8"/>
+        <v>21677</v>
       </c>
       <c r="F65" s="1">
-        <f t="shared" si="0"/>
-        <v>4350.2482519129244</v>
+        <f t="shared" si="3"/>
+        <v>4336.978704809595</v>
       </c>
       <c r="G65" s="1">
-        <f t="shared" si="1"/>
-        <v>7699.8927490678789</v>
+        <f t="shared" si="4"/>
+        <v>7658.418499137525</v>
       </c>
       <c r="H65" s="1">
-        <f t="shared" si="2"/>
-        <v>31.000626841596898</v>
+        <f t="shared" si="5"/>
+        <v>31.000048912585669</v>
       </c>
       <c r="I65" s="1">
-        <f>H65-B65</f>
-        <v>6.268415968975205E-4</v>
+        <f t="shared" si="9"/>
+        <v>4.891258566885881E-5</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
@@ -3061,32 +3062,32 @@
         <v>32</v>
       </c>
       <c r="C66" s="1">
-        <f t="shared" si="3"/>
-        <v>7379.2626628761145</v>
+        <f t="shared" si="6"/>
+        <v>7332.8531081149804</v>
       </c>
       <c r="D66" s="1">
-        <f>1/(1/C66+1/B$6)</f>
-        <v>4246.0159593760991</v>
-      </c>
-      <c r="E66" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D66+1),0)</f>
-        <v>21667</v>
+        <f t="shared" si="7"/>
+        <v>4230.6093880654007</v>
+      </c>
+      <c r="E66" s="2">
+        <f t="shared" si="8"/>
+        <v>21361</v>
       </c>
       <c r="F66" s="1">
-        <f t="shared" si="0"/>
-        <v>4245.8762823324059</v>
+        <f t="shared" si="3"/>
+        <v>4230.6150085346217</v>
       </c>
       <c r="G66" s="1">
-        <f t="shared" si="1"/>
-        <v>7378.8407942911799</v>
+        <f t="shared" si="4"/>
+        <v>7332.8699935832828</v>
       </c>
       <c r="H66" s="1">
-        <f t="shared" si="2"/>
-        <v>32.001347821490583</v>
+        <f t="shared" si="5"/>
+        <v>31.999946895319908</v>
       </c>
       <c r="I66" s="1">
-        <f>H66-B66</f>
-        <v>1.347821490583101E-3</v>
+        <f t="shared" si="9"/>
+        <v>-5.310468009156466E-5</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.3">
@@ -3094,32 +3095,32 @@
         <v>33</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" si="3"/>
-        <v>7073.7610659870961</v>
+        <f t="shared" si="6"/>
+        <v>7023.1056959788802</v>
       </c>
       <c r="D67" s="1">
-        <f>1/(1/C67+1/B$6)</f>
-        <v>4143.0596566557588</v>
-      </c>
-      <c r="E67" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D67+1),0)</f>
-        <v>21352</v>
+        <f t="shared" si="7"/>
+        <v>4125.6312575430029</v>
+      </c>
+      <c r="E67" s="2">
+        <f t="shared" si="8"/>
+        <v>21043</v>
       </c>
       <c r="F67" s="1">
-        <f t="shared" si="0"/>
-        <v>4142.9017529702232</v>
+        <f t="shared" si="3"/>
+        <v>4125.7240938477453</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" si="1"/>
-        <v>7073.3007681255003</v>
+        <f t="shared" si="4"/>
+        <v>7023.3747269630057</v>
       </c>
       <c r="H67" s="1">
-        <f t="shared" si="2"/>
-        <v>33.001544189222784</v>
+        <f t="shared" si="5"/>
+        <v>32.999109631932868</v>
       </c>
       <c r="I67" s="1">
-        <f>H67-B67</f>
-        <v>1.5441892227840981E-3</v>
+        <f t="shared" si="9"/>
+        <v>-8.9036806713238548E-4</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.3">
@@ -3127,32 +3128,32 @@
         <v>34</v>
       </c>
       <c r="C68" s="1">
-        <f t="shared" si="3"/>
-        <v>6782.7743787355321</v>
+        <f t="shared" si="6"/>
+        <v>6728.3329359880181</v>
       </c>
       <c r="D68" s="1">
-        <f>1/(1/C68+1/B$6)</f>
-        <v>4041.5096012549557</v>
-      </c>
-      <c r="E68" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D68+1),0)</f>
-        <v>21036</v>
+        <f t="shared" si="7"/>
+        <v>4022.1180208060141</v>
+      </c>
+      <c r="E68" s="2">
+        <f t="shared" si="8"/>
+        <v>20722</v>
       </c>
       <c r="F68" s="1">
-        <f t="shared" si="0"/>
-        <v>4041.6202505155111</v>
+        <f t="shared" si="3"/>
+        <v>4021.9616678615198</v>
       </c>
       <c r="G68" s="1">
-        <f t="shared" si="1"/>
-        <v>6783.0860409076586</v>
+        <f t="shared" si="4"/>
+        <v>6727.8954138502031</v>
       </c>
       <c r="H68" s="1">
-        <f t="shared" si="2"/>
-        <v>33.998902686493352</v>
+        <f t="shared" si="5"/>
+        <v>34.001521658013132</v>
       </c>
       <c r="I68" s="1">
-        <f>H68-B68</f>
-        <v>-1.097313506647879E-3</v>
+        <f t="shared" si="9"/>
+        <v>1.5216580131323099E-3</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
@@ -3160,32 +3161,32 @@
         <v>35</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" si="3"/>
-        <v>6505.5311261565666</v>
+        <f t="shared" si="6"/>
+        <v>6447.7264477253148</v>
       </c>
       <c r="D69" s="1">
-        <f>1/(1/C69+1/B$6)</f>
-        <v>3941.4248935298738</v>
-      </c>
-      <c r="E69" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D69+1),0)</f>
-        <v>20717</v>
+        <f t="shared" si="7"/>
+        <v>3920.1323466910048</v>
+      </c>
+      <c r="E69" s="2">
+        <f t="shared" si="8"/>
+        <v>20401</v>
       </c>
       <c r="F69" s="1">
-        <f t="shared" si="0"/>
-        <v>3941.3694290913231</v>
+        <f t="shared" si="3"/>
+        <v>3920.2638959742426</v>
       </c>
       <c r="G69" s="1">
-        <f t="shared" si="1"/>
-        <v>6505.3800243512696</v>
+        <f t="shared" si="4"/>
+        <v>6448.0823326828295</v>
       </c>
       <c r="H69" s="1">
-        <f t="shared" si="2"/>
-        <v>35.000558475508342</v>
+        <f t="shared" si="5"/>
+        <v>34.998700258811709</v>
       </c>
       <c r="I69" s="1">
-        <f>H69-B69</f>
-        <v>5.5847550834187132E-4</v>
+        <f t="shared" si="9"/>
+        <v>-1.2997411882906817E-3</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.3">
@@ -3193,32 +3194,32 @@
         <v>36</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" si="3"/>
-        <v>6241.304935849771</v>
+        <f t="shared" si="6"/>
+        <v>6180.5257864067116</v>
       </c>
       <c r="D70" s="1">
-        <f>1/(1/C70+1/B$6)</f>
-        <v>3842.8592779347482</v>
-      </c>
-      <c r="E70" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D70+1),0)</f>
-        <v>20397</v>
+        <f t="shared" si="7"/>
+        <v>3819.7311187495416</v>
+      </c>
+      <c r="E70" s="2">
+        <f t="shared" si="8"/>
+        <v>20077</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" si="0"/>
-        <v>3842.757030561711</v>
+        <f t="shared" si="3"/>
+        <v>3819.6473041961708</v>
       </c>
       <c r="G70" s="1">
-        <f t="shared" si="1"/>
-        <v>6241.0352322222498</v>
+        <f t="shared" si="4"/>
+        <v>6180.3063549909248</v>
       </c>
       <c r="H70" s="1">
-        <f t="shared" si="2"/>
-        <v>36.00104571477857</v>
+        <f t="shared" si="5"/>
+        <v>36.000841708814733</v>
       </c>
       <c r="I70" s="1">
-        <f>H70-B70</f>
-        <v>1.0457147785700727E-3</v>
+        <f t="shared" si="9"/>
+        <v>8.4170881473255577E-4</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.3">
@@ -3226,32 +3227,32 @@
         <v>37</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" si="3"/>
-        <v>5989.4116727455057</v>
+        <f t="shared" si="6"/>
+        <v>5926.0153574112464</v>
       </c>
       <c r="D71" s="1">
-        <f>1/(1/C71+1/B$6)</f>
-        <v>3745.8611957278335</v>
-      </c>
-      <c r="E71" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D71+1),0)</f>
-        <v>20076</v>
+        <f t="shared" si="7"/>
+        <v>3720.9654922588948</v>
+      </c>
+      <c r="E71" s="2">
+        <f t="shared" si="8"/>
+        <v>19753</v>
       </c>
       <c r="F71" s="1">
-        <f t="shared" si="0"/>
-        <v>3745.7446243610952</v>
+        <f t="shared" si="3"/>
+        <v>3721.0116960629339</v>
       </c>
       <c r="G71" s="1">
-        <f t="shared" si="1"/>
-        <v>5989.1136504454735</v>
+        <f t="shared" si="4"/>
+        <v>5926.1325486619808</v>
       </c>
       <c r="H71" s="1">
-        <f t="shared" si="2"/>
-        <v>37.001211910130564</v>
+        <f t="shared" si="5"/>
+        <v>36.999528338753635</v>
       </c>
       <c r="I71" s="1">
-        <f>H71-B71</f>
-        <v>1.2119101305643198E-3</v>
+        <f t="shared" si="9"/>
+        <v>-4.7166124636532913E-4</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.3">
@@ -3259,32 +3260,32 @@
         <v>38</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" si="3"/>
-        <v>5749.2067698310466</v>
+        <f t="shared" si="6"/>
+        <v>5683.5215444400192</v>
       </c>
       <c r="D72" s="1">
-        <f>1/(1/C72+1/B$6)</f>
-        <v>3650.4738644006784</v>
-      </c>
-      <c r="E72" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D72+1),0)</f>
-        <v>19755</v>
+        <f t="shared" si="7"/>
+        <v>3623.8809812805657</v>
+      </c>
+      <c r="E72" s="2">
+        <f t="shared" si="8"/>
+        <v>19428</v>
       </c>
       <c r="F72" s="1">
-        <f t="shared" si="0"/>
-        <v>3650.5885536551914</v>
+        <f t="shared" si="3"/>
+        <v>3624.0035613247051</v>
       </c>
       <c r="G72" s="1">
-        <f t="shared" si="1"/>
-        <v>5749.491247345044</v>
+        <f t="shared" si="4"/>
+        <v>5683.8230638623809</v>
       </c>
       <c r="H72" s="1">
-        <f t="shared" si="2"/>
-        <v>37.998787395346255</v>
+        <f t="shared" si="5"/>
+        <v>37.998726335198796</v>
       </c>
       <c r="I72" s="1">
-        <f>H72-B72</f>
-        <v>-1.21260465374462E-3</v>
+        <f t="shared" si="9"/>
+        <v>-1.2736648012037222E-3</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.3">
@@ -3292,32 +3293,32 @@
         <v>39</v>
       </c>
       <c r="C73" s="1">
-        <f t="shared" si="3"/>
-        <v>5520.0827405136479</v>
+        <f t="shared" si="6"/>
+        <v>5452.4100355081619</v>
       </c>
       <c r="D73" s="1">
-        <f>1/(1/C73+1/B$6)</f>
-        <v>3556.7353813804198</v>
-      </c>
-      <c r="E73" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D73+1),0)</f>
-        <v>19432</v>
+        <f t="shared" ref="D73:D104" si="10">1/(1/C73+1/B$6)</f>
+        <v>3528.5175729734351</v>
+      </c>
+      <c r="E73" s="2">
+        <f t="shared" ref="E73:E104" si="11">ROUND((B$1/B$3*B$4)/(B$5/D73+1),0)</f>
+        <v>19102</v>
       </c>
       <c r="F73" s="1">
-        <f t="shared" si="0"/>
-        <v>3556.6599523254472</v>
+        <f t="shared" si="3"/>
+        <v>3528.584293941311</v>
       </c>
       <c r="G73" s="1">
-        <f t="shared" si="1"/>
-        <v>5519.9010544369321</v>
+        <f t="shared" si="4"/>
+        <v>5452.5693514600971</v>
       </c>
       <c r="H73" s="1">
-        <f t="shared" si="2"/>
-        <v>39.000812074735677</v>
+        <f t="shared" si="5"/>
+        <v>38.999294047966998</v>
       </c>
       <c r="I73" s="1">
-        <f>H73-B73</f>
-        <v>8.1207473567701527E-4</v>
+        <f t="shared" ref="I73:I104" si="12">H73-B73</f>
+        <v>-7.0595203300172216E-4</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.3">
@@ -3325,32 +3326,32 @@
         <v>40</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" si="3"/>
-        <v>5301.4668594096684</v>
+        <f t="shared" si="6"/>
+        <v>5232.0833322137796</v>
       </c>
       <c r="D74" s="1">
-        <f>1/(1/C74+1/B$6)</f>
-        <v>3464.6788494983543</v>
-      </c>
-      <c r="E74" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D74+1),0)</f>
-        <v>19110</v>
+        <f t="shared" si="10"/>
+        <v>3434.9098663008467</v>
+      </c>
+      <c r="E74" s="2">
+        <f t="shared" si="11"/>
+        <v>18776</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" ref="F74:F137" si="4">B$5 / (B$1 / ((E74/B$4)*B$3)- 1)</f>
-        <v>3464.7883327926138</v>
+        <f t="shared" ref="F74:F137" si="13">B$5 / (B$1 / ((E74/B$4)*B$3)- 1)</f>
+        <v>3435.0007859050497</v>
       </c>
       <c r="G74" s="1">
-        <f t="shared" ref="G74:G137" si="5">1/(1/F74-1/B$6)</f>
-        <v>5301.7232022925136</v>
+        <f t="shared" ref="G74:G137" si="14">1/(1/F74-1/B$6)</f>
+        <v>5232.2942834938294</v>
       </c>
       <c r="H74" s="1">
-        <f t="shared" ref="H74:H137" si="6">1/(1/(I$1+273.15)+LOG(G74/B$6,2.7182818)*(1/B$2))-273.15</f>
-        <v>39.998799779306182</v>
+        <f t="shared" ref="H74:H137" si="15">1/(1/(I$1+273.15)+LOG(G74/B$6,2.7182818)*(1/B$2))-273.15</f>
+        <v>39.999019587923158</v>
       </c>
       <c r="I74" s="1">
-        <f>H74-B74</f>
-        <v>-1.2002206938177551E-3</v>
+        <f t="shared" si="12"/>
+        <v>-9.8041207684218534E-4</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.3">
@@ -3358,32 +3359,32 @@
         <v>41</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" ref="C75:C138" si="7">B$6*EXP((1/(B75+273.15)-1/(I$1+273.15))*$B$2)</f>
-        <v>5092.8189993696833</v>
+        <f t="shared" ref="C75:C138" si="16">B$6*EXP((1/(B75+273.15)-1/(I$1+273.15))*$B$2)</f>
+        <v>5021.9784288649271</v>
       </c>
       <c r="D75" s="1">
-        <f>1/(1/C75+1/B$6)</f>
-        <v>3374.332521699474</v>
-      </c>
-      <c r="E75" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D75+1),0)</f>
-        <v>18787</v>
+        <f t="shared" si="10"/>
+        <v>3343.0872322484033</v>
+      </c>
+      <c r="E75" s="2">
+        <f t="shared" si="11"/>
+        <v>18450</v>
       </c>
       <c r="F75" s="1">
-        <f t="shared" si="4"/>
-        <v>3374.3533819222298</v>
+        <f t="shared" si="13"/>
+        <v>3343.2005650520127</v>
       </c>
       <c r="G75" s="1">
-        <f t="shared" si="5"/>
-        <v>5092.8665176851755</v>
+        <f t="shared" si="14"/>
+        <v>5022.2341798377083</v>
       </c>
       <c r="H75" s="1">
-        <f t="shared" si="6"/>
-        <v>40.999767057601844</v>
+        <f t="shared" si="15"/>
+        <v>40.998753702342015</v>
       </c>
       <c r="I75" s="1">
-        <f>H75-B75</f>
-        <v>-2.3294239815641049E-4</v>
+        <f t="shared" si="12"/>
+        <v>-1.2462976579854512E-3</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.3">
@@ -3391,32 +3392,32 @@
         <v>42</v>
       </c>
       <c r="C76" s="1">
-        <f t="shared" si="7"/>
-        <v>4893.62961348718</v>
+        <f t="shared" si="16"/>
+        <v>4821.5646490892605</v>
       </c>
       <c r="D76" s="1">
-        <f>1/(1/C76+1/B$6)</f>
-        <v>3285.7199624836044</v>
-      </c>
-      <c r="E76" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D76+1),0)</f>
-        <v>18464</v>
+        <f t="shared" si="10"/>
+        <v>3253.0739926877627</v>
+      </c>
+      <c r="E76" s="2">
+        <f t="shared" si="11"/>
+        <v>18124</v>
       </c>
       <c r="F76" s="1">
-        <f t="shared" si="4"/>
-        <v>3285.5951697796263</v>
+        <f t="shared" si="13"/>
+        <v>3253.1331401187877</v>
       </c>
       <c r="G76" s="1">
-        <f t="shared" si="5"/>
-        <v>4893.3528032026479</v>
+        <f t="shared" si="14"/>
+        <v>4821.6945845824257</v>
       </c>
       <c r="H76" s="1">
-        <f t="shared" si="6"/>
-        <v>42.001422526420527</v>
+        <f t="shared" si="15"/>
+        <v>41.99933637300586</v>
       </c>
       <c r="I76" s="1">
-        <f>H76-B76</f>
-        <v>1.4225264205265375E-3</v>
+        <f t="shared" si="12"/>
+        <v>-6.6362699413957671E-4</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
@@ -3424,32 +3425,32 @@
         <v>43</v>
       </c>
       <c r="C77" s="1">
-        <f t="shared" si="7"/>
-        <v>4703.4178516995044</v>
+        <f t="shared" si="16"/>
+        <v>4630.3416285083686</v>
       </c>
       <c r="D77" s="1">
-        <f>1/(1/C77+1/B$6)</f>
-        <v>3198.8602236151892</v>
-      </c>
-      <c r="E77" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D77+1),0)</f>
-        <v>18142</v>
+        <f t="shared" si="10"/>
+        <v>3164.8896150762362</v>
+      </c>
+      <c r="E77" s="2">
+        <f t="shared" si="11"/>
+        <v>17799</v>
       </c>
       <c r="F77" s="1">
-        <f t="shared" si="4"/>
-        <v>3198.7347675627693</v>
+        <f t="shared" si="13"/>
+        <v>3165.0184952349837</v>
       </c>
       <c r="G77" s="1">
-        <f t="shared" si="5"/>
-        <v>4703.1466326398568</v>
+        <f t="shared" si="14"/>
+        <v>4630.6174976896236</v>
       </c>
       <c r="H77" s="1">
-        <f t="shared" si="6"/>
-        <v>43.001459385144926</v>
+        <f t="shared" si="15"/>
+        <v>42.998523334008041</v>
       </c>
       <c r="I77" s="1">
-        <f>H77-B77</f>
-        <v>1.4593851449262729E-3</v>
+        <f t="shared" si="12"/>
+        <v>-1.4766659919587255E-3</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.3">
@@ -3457,32 +3458,32 @@
         <v>44</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" si="7"/>
-        <v>4521.7298023814565</v>
+        <f t="shared" si="16"/>
+        <v>4447.8374329383187</v>
       </c>
       <c r="D78" s="1">
-        <f>1/(1/C78+1/B$6)</f>
-        <v>3113.7680317119839</v>
-      </c>
-      <c r="E78" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D78+1),0)</f>
-        <v>17821</v>
+        <f t="shared" si="10"/>
+        <v>3078.5489202682306</v>
+      </c>
+      <c r="E78" s="2">
+        <f t="shared" si="11"/>
+        <v>17474</v>
       </c>
       <c r="F78" s="1">
-        <f t="shared" si="4"/>
-        <v>3113.7131682567765</v>
+        <f t="shared" si="13"/>
+        <v>3078.5313504052524</v>
       </c>
       <c r="G78" s="1">
-        <f t="shared" si="5"/>
-        <v>4521.6141068996949</v>
+        <f t="shared" si="14"/>
+        <v>4447.8007576982964</v>
       </c>
       <c r="H78" s="1">
-        <f t="shared" si="6"/>
-        <v>44.000651765845134</v>
+        <f t="shared" si="15"/>
+        <v>44.000205911953515</v>
       </c>
       <c r="I78" s="1">
-        <f>H78-B78</f>
-        <v>6.5176584513437774E-4</v>
+        <f t="shared" si="12"/>
+        <v>2.059119535147147E-4</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.3">
@@ -3490,32 +3491,32 @@
         <v>45</v>
       </c>
       <c r="C79" s="1">
-        <f t="shared" si="7"/>
-        <v>4348.1368500594717</v>
+        <f t="shared" si="16"/>
+        <v>4273.6068023854004</v>
       </c>
       <c r="D79" s="1">
-        <f>1/(1/C79+1/B$6)</f>
-        <v>3030.453985418636</v>
-      </c>
-      <c r="E79" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D79+1),0)</f>
-        <v>17501</v>
+        <f t="shared" si="10"/>
+        <v>2994.0623008272837</v>
+      </c>
+      <c r="E79" s="2">
+        <f t="shared" si="11"/>
+        <v>17151</v>
       </c>
       <c r="F79" s="1">
-        <f t="shared" si="4"/>
-        <v>3030.4737923225384</v>
+        <f t="shared" si="13"/>
+        <v>2994.1447639248959</v>
       </c>
       <c r="G79" s="1">
-        <f t="shared" si="5"/>
-        <v>4348.1776264565042</v>
+        <f t="shared" si="14"/>
+        <v>4273.7748112567442</v>
       </c>
       <c r="H79" s="1">
-        <f t="shared" si="6"/>
-        <v>44.999759914430911</v>
+        <f t="shared" si="15"/>
+        <v>44.999013328079627</v>
       </c>
       <c r="I79" s="1">
-        <f>H79-B79</f>
-        <v>-2.4008556908938772E-4</v>
+        <f t="shared" si="12"/>
+        <v>-9.8667192037282803E-4</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.3">
@@ -3523,32 +3524,32 @@
         <v>46</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" si="7"/>
-        <v>4182.2341410439949</v>
+        <f t="shared" si="16"/>
+        <v>4107.2295118485818</v>
       </c>
       <c r="D80" s="1">
-        <f>1/(1/C80+1/B$6)</f>
-        <v>2948.9247599857554</v>
-      </c>
-      <c r="E80" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D80+1),0)</f>
-        <v>17182</v>
+        <f t="shared" si="10"/>
+        <v>2911.4359473622681</v>
+      </c>
+      <c r="E80" s="2">
+        <f t="shared" si="11"/>
+        <v>16829</v>
       </c>
       <c r="F80" s="1">
-        <f t="shared" si="4"/>
-        <v>2948.9623641807475</v>
+        <f t="shared" si="13"/>
+        <v>2911.5335492059826</v>
       </c>
       <c r="G80" s="1">
-        <f t="shared" si="5"/>
-        <v>4182.309776932726</v>
+        <f t="shared" si="14"/>
+        <v>4107.4237557826709</v>
       </c>
       <c r="H80" s="1">
-        <f t="shared" si="6"/>
-        <v>45.999533890031671</v>
+        <f t="shared" si="15"/>
+        <v>45.998805543834351</v>
       </c>
       <c r="I80" s="1">
-        <f>H80-B80</f>
-        <v>-4.661099683289649E-4</v>
+        <f t="shared" si="12"/>
+        <v>-1.1944561656491715E-3</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.3">
@@ -3556,32 +3557,32 @@
         <v>47</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" si="7"/>
-        <v>4023.6391493935303</v>
+        <f t="shared" si="16"/>
+        <v>3948.3088406225024</v>
       </c>
       <c r="D81" s="1">
-        <f>1/(1/C81+1/B$6)</f>
-        <v>2869.183317204463</v>
-      </c>
-      <c r="E81" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D81+1),0)</f>
-        <v>16864</v>
+        <f t="shared" si="10"/>
+        <v>2830.6720805633468</v>
+      </c>
+      <c r="E81" s="2">
+        <f t="shared" si="11"/>
+        <v>16508</v>
       </c>
       <c r="F81" s="1">
-        <f t="shared" si="4"/>
-        <v>2869.1267961620679</v>
+        <f t="shared" si="13"/>
+        <v>2830.6434206630229</v>
       </c>
       <c r="G81" s="1">
-        <f t="shared" si="5"/>
-        <v>4023.5279946050159</v>
+        <f t="shared" si="14"/>
+        <v>3948.2530814847555</v>
       </c>
       <c r="H81" s="1">
-        <f t="shared" si="6"/>
-        <v>47.000717093619244</v>
+        <f t="shared" si="15"/>
+        <v>47.000359247764436</v>
       </c>
       <c r="I81" s="1">
-        <f>H81-B81</f>
-        <v>7.1709361924376935E-4</v>
+        <f t="shared" si="12"/>
+        <v>3.5924776443607698E-4</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.3">
@@ -3589,32 +3590,32 @@
         <v>48</v>
       </c>
       <c r="C82" s="1">
-        <f t="shared" si="7"/>
-        <v>3871.9903361908941</v>
+        <f t="shared" si="16"/>
+        <v>3796.4701424224418</v>
       </c>
       <c r="D82" s="1">
-        <f>1/(1/C82+1/B$6)</f>
-        <v>2791.229118787076</v>
-      </c>
-      <c r="E82" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D82+1),0)</f>
-        <v>16548</v>
+        <f t="shared" si="10"/>
+        <v>2751.7691867782651</v>
+      </c>
+      <c r="E82" s="2">
+        <f t="shared" si="11"/>
+        <v>16189</v>
       </c>
       <c r="F82" s="1">
-        <f t="shared" si="4"/>
-        <v>2791.1616767727642</v>
+        <f t="shared" si="13"/>
+        <v>2751.6676906015105</v>
       </c>
       <c r="G82" s="1">
-        <f t="shared" si="5"/>
-        <v>3871.8605573099094</v>
+        <f t="shared" si="14"/>
+        <v>3796.2769546776758</v>
       </c>
       <c r="H82" s="1">
-        <f t="shared" si="6"/>
-        <v>48.000875438568471</v>
+        <f t="shared" si="15"/>
+        <v>48.001301949854735</v>
       </c>
       <c r="I82" s="1">
-        <f>H82-B82</f>
-        <v>8.7543856847105417E-4</v>
+        <f t="shared" si="12"/>
+        <v>1.301949854735085E-3</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.3">
@@ -3622,32 +3623,32 @@
         <v>49</v>
       </c>
       <c r="C83" s="1">
-        <f t="shared" si="7"/>
-        <v>3726.945895634597</v>
+        <f t="shared" si="16"/>
+        <v>3651.359509230359</v>
       </c>
       <c r="D83" s="1">
-        <f>1/(1/C83+1/B$6)</f>
-        <v>2715.058341433275</v>
-      </c>
-      <c r="E83" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D83+1),0)</f>
-        <v>16234</v>
+        <f t="shared" si="10"/>
+        <v>2674.722255143522</v>
+      </c>
+      <c r="E83" s="2">
+        <f t="shared" si="11"/>
+        <v>15873</v>
       </c>
       <c r="F83" s="1">
-        <f t="shared" si="4"/>
-        <v>2715.0065567707074</v>
+        <f t="shared" si="13"/>
+        <v>2674.7848908995697</v>
       </c>
       <c r="G83" s="1">
-        <f t="shared" si="5"/>
-        <v>3726.8483189837971</v>
+        <f t="shared" si="14"/>
+        <v>3651.4762379831946</v>
       </c>
       <c r="H83" s="1">
-        <f t="shared" si="6"/>
-        <v>49.000688160887307</v>
+        <f t="shared" si="15"/>
+        <v>48.999177439912444</v>
       </c>
       <c r="I83" s="1">
-        <f>H83-B83</f>
-        <v>6.8816088730727643E-4</v>
+        <f t="shared" si="12"/>
+        <v>-8.2256008755621224E-4</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.3">
@@ -3655,32 +3656,32 @@
         <v>50</v>
       </c>
       <c r="C84" s="1">
-        <f t="shared" si="7"/>
-        <v>3588.182581929083</v>
+        <f t="shared" si="16"/>
+        <v>3512.6425222924058</v>
       </c>
       <c r="D84" s="1">
-        <f>1/(1/C84+1/B$6)</f>
-        <v>2640.6640919743049</v>
-      </c>
-      <c r="E84" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D84+1),0)</f>
-        <v>15922</v>
+        <f t="shared" si="10"/>
+        <v>2599.5230144640059</v>
+      </c>
+      <c r="E84" s="2">
+        <f t="shared" si="11"/>
+        <v>15558</v>
       </c>
       <c r="F84" s="1">
-        <f t="shared" si="4"/>
-        <v>2640.6036053056891</v>
+        <f t="shared" si="13"/>
+        <v>2599.4486113875378</v>
       </c>
       <c r="G84" s="1">
-        <f t="shared" si="5"/>
-        <v>3588.07090104483</v>
+        <f t="shared" si="14"/>
+        <v>3512.5066699589684</v>
       </c>
       <c r="H84" s="1">
-        <f t="shared" si="6"/>
-        <v>50.00082313885963</v>
+        <f t="shared" si="15"/>
+        <v>50.00100196758774</v>
       </c>
       <c r="I84" s="1">
-        <f>H84-B84</f>
-        <v>8.2313885963003486E-4</v>
+        <f t="shared" si="12"/>
+        <v>1.0019675877401824E-3</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.3">
@@ -3688,32 +3689,32 @@
         <v>51</v>
       </c>
       <c r="C85" s="1">
-        <f t="shared" si="7"/>
-        <v>3455.3946114014111</v>
+        <f t="shared" si="16"/>
+        <v>3380.0030841881635</v>
       </c>
       <c r="D85" s="1">
-        <f>1/(1/C85+1/B$6)</f>
-        <v>2568.0366211433793</v>
-      </c>
-      <c r="E85" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D85+1),0)</f>
-        <v>15613</v>
+        <f t="shared" si="10"/>
+        <v>2526.1601682158703</v>
+      </c>
+      <c r="E85" s="2">
+        <f t="shared" si="11"/>
+        <v>15246</v>
       </c>
       <c r="F85" s="1">
-        <f t="shared" si="4"/>
-        <v>2568.1300834166382</v>
+        <f t="shared" si="13"/>
+        <v>2526.080123232206</v>
       </c>
       <c r="G85" s="1">
-        <f t="shared" si="5"/>
-        <v>3455.5638247732936</v>
+        <f t="shared" si="14"/>
+        <v>3379.8597856050956</v>
       </c>
       <c r="H85" s="1">
-        <f t="shared" si="6"/>
-        <v>50.998697670339311</v>
+        <f t="shared" si="15"/>
+        <v>51.001105155357322</v>
       </c>
       <c r="I85" s="1">
-        <f>H85-B85</f>
-        <v>-1.3023296606888835E-3</v>
+        <f t="shared" si="12"/>
+        <v>1.1051553573224737E-3</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.3">
@@ -3721,32 +3722,32 @@
         <v>52</v>
       </c>
       <c r="C86" s="1">
-        <f t="shared" si="7"/>
-        <v>3328.2926346803315</v>
+        <f t="shared" si="16"/>
+        <v>3253.1423263423735</v>
       </c>
       <c r="D86" s="1">
-        <f>1/(1/C86+1/B$6)</f>
-        <v>2497.1635346751659</v>
-      </c>
-      <c r="E86" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D86+1),0)</f>
-        <v>15305</v>
+        <f t="shared" si="10"/>
+        <v>2454.6196262273011</v>
+      </c>
+      <c r="E86" s="2">
+        <f t="shared" si="11"/>
+        <v>14937</v>
       </c>
       <c r="F86" s="1">
-        <f t="shared" si="4"/>
-        <v>2497.0640048372438</v>
+        <f t="shared" si="13"/>
+        <v>2454.6131064155707</v>
       </c>
       <c r="G86" s="1">
-        <f t="shared" si="5"/>
-        <v>3328.1158288530441</v>
+        <f t="shared" si="14"/>
+        <v>3253.1308745780016</v>
       </c>
       <c r="H86" s="1">
-        <f t="shared" si="6"/>
-        <v>52.001422175134621</v>
+        <f t="shared" si="15"/>
+        <v>52.000092611574644</v>
       </c>
       <c r="I86" s="1">
-        <f>H86-B86</f>
-        <v>1.4221751346212841E-3</v>
+        <f t="shared" si="12"/>
+        <v>9.2611574643797212E-5</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.3">
@@ -3754,32 +3755,32 @@
         <v>53</v>
       </c>
       <c r="C87" s="1">
-        <f t="shared" si="7"/>
-        <v>3206.602774151228</v>
+        <f t="shared" si="16"/>
+        <v>3131.7775867658347</v>
       </c>
       <c r="D87" s="1">
-        <f>1/(1/C87+1/B$6)</f>
-        <v>2428.0300005898471</v>
-      </c>
-      <c r="E87" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D87+1),0)</f>
-        <v>15001</v>
+        <f t="shared" si="10"/>
+        <v>2384.884731768554</v>
+      </c>
+      <c r="E87" s="2">
+        <f t="shared" si="11"/>
+        <v>14631</v>
       </c>
       <c r="F87" s="1">
-        <f t="shared" si="4"/>
-        <v>2428.0415403605998</v>
+        <f t="shared" si="13"/>
+        <v>2384.9843064334445</v>
       </c>
       <c r="G87" s="1">
-        <f t="shared" si="5"/>
-        <v>3206.6229011988407</v>
+        <f t="shared" si="14"/>
+        <v>3131.9492991306197</v>
       </c>
       <c r="H87" s="1">
-        <f t="shared" si="6"/>
-        <v>52.999831287871302</v>
+        <f t="shared" si="15"/>
+        <v>52.99855384520464</v>
       </c>
       <c r="I87" s="1">
-        <f>H87-B87</f>
-        <v>-1.6871212869773444E-4</v>
+        <f t="shared" si="12"/>
+        <v>-1.4461547953601439E-3</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.3">
@@ -3787,32 +3788,32 @@
         <v>54</v>
       </c>
       <c r="C88" s="1">
-        <f t="shared" si="7"/>
-        <v>3090.0657222480427</v>
+        <f t="shared" si="16"/>
+        <v>3015.6414531949631</v>
       </c>
       <c r="D88" s="1">
-        <f>1/(1/C88+1/B$6)</f>
-        <v>2360.6189516650993</v>
-      </c>
-      <c r="E88" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D88+1),0)</f>
-        <v>14699</v>
+        <f t="shared" si="10"/>
+        <v>2316.9364829535239</v>
+      </c>
+      <c r="E88" s="2">
+        <f t="shared" si="11"/>
+        <v>14327</v>
       </c>
       <c r="F88" s="1">
-        <f t="shared" si="4"/>
-        <v>2360.5494629430741</v>
+        <f t="shared" si="13"/>
+        <v>2316.91120636306</v>
       </c>
       <c r="G88" s="1">
-        <f t="shared" si="5"/>
-        <v>3089.9466545305604</v>
+        <f t="shared" si="14"/>
+        <v>3015.598633041835</v>
       </c>
       <c r="H88" s="1">
-        <f t="shared" si="6"/>
-        <v>54.001044410857446</v>
+        <f t="shared" si="15"/>
+        <v>54.000377249887322</v>
       </c>
       <c r="I88" s="1">
-        <f>H88-B88</f>
-        <v>1.0444108574461097E-3</v>
+        <f t="shared" si="12"/>
+        <v>3.7724988732179554E-4</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.3">
@@ -3820,32 +3821,32 @@
         <v>55</v>
       </c>
       <c r="C89" s="1">
-        <f t="shared" si="7"/>
-        <v>2978.4358964646267</v>
+        <f t="shared" si="16"/>
+        <v>2904.4808671529709</v>
       </c>
       <c r="D89" s="1">
-        <f>1/(1/C89+1/B$6)</f>
-        <v>2294.9112822416168</v>
-      </c>
-      <c r="E89" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D89+1),0)</f>
-        <v>14401</v>
+        <f t="shared" si="10"/>
+        <v>2250.7537475188392</v>
+      </c>
+      <c r="E89" s="2">
+        <f t="shared" si="11"/>
+        <v>14027</v>
       </c>
       <c r="F89" s="1">
-        <f t="shared" si="4"/>
-        <v>2294.9784082699703</v>
+        <f t="shared" si="13"/>
+        <v>2250.7839214146825</v>
       </c>
       <c r="G89" s="1">
-        <f t="shared" si="5"/>
-        <v>2978.5489643964415</v>
+        <f t="shared" si="14"/>
+        <v>2904.5311146177014</v>
       </c>
       <c r="H89" s="1">
-        <f t="shared" si="6"/>
-        <v>54.998965467329754</v>
+        <f t="shared" si="15"/>
+        <v>54.999538320593103</v>
       </c>
       <c r="I89" s="1">
-        <f>H89-B89</f>
-        <v>-1.0345326702463353E-3</v>
+        <f t="shared" si="12"/>
+        <v>-4.6167940689656461E-4</v>
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.3">
@@ -3853,32 +3854,32 @@
         <v>56</v>
       </c>
       <c r="C90" s="1">
-        <f t="shared" si="7"/>
-        <v>2871.48064726449</v>
+        <f t="shared" si="16"/>
+        <v>2798.0562847815195</v>
       </c>
       <c r="D90" s="1">
-        <f>1/(1/C90+1/B$6)</f>
-        <v>2230.886038642921</v>
-      </c>
-      <c r="E90" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D90+1),0)</f>
-        <v>14105</v>
+        <f t="shared" si="10"/>
+        <v>2186.3134702015309</v>
+      </c>
+      <c r="E90" s="2">
+        <f t="shared" si="11"/>
+        <v>13730</v>
       </c>
       <c r="F90" s="1">
-        <f t="shared" si="4"/>
-        <v>2230.8343356345708</v>
+        <f t="shared" si="13"/>
+        <v>2186.3216974455031</v>
       </c>
       <c r="G90" s="1">
-        <f t="shared" si="5"/>
-        <v>2871.3949888681914</v>
+        <f t="shared" si="14"/>
+        <v>2798.0697602187397</v>
       </c>
       <c r="H90" s="1">
-        <f t="shared" si="6"/>
-        <v>56.000818563492999</v>
+        <f t="shared" si="15"/>
+        <v>55.999870952898732</v>
       </c>
       <c r="I90" s="1">
-        <f>H90-B90</f>
-        <v>8.185634929986918E-4</v>
+        <f t="shared" si="12"/>
+        <v>-1.2904710126804275E-4</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.3">
@@ -3886,32 +3887,32 @@
         <v>57</v>
       </c>
       <c r="C91" s="1">
-        <f t="shared" si="7"/>
-        <v>2768.9795153419145</v>
+        <f t="shared" si="16"/>
+        <v>2696.1408905926214</v>
       </c>
       <c r="D91" s="1">
-        <f>1/(1/C91+1/B$6)</f>
-        <v>2168.5206026174519</v>
-      </c>
-      <c r="E91" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D91+1),0)</f>
-        <v>13813</v>
+        <f t="shared" si="10"/>
+        <v>2123.5908720817392</v>
+      </c>
+      <c r="E91" s="2">
+        <f t="shared" si="11"/>
+        <v>13437</v>
       </c>
       <c r="F91" s="1">
-        <f t="shared" si="4"/>
-        <v>2168.4991911838551</v>
+        <f t="shared" si="13"/>
+        <v>2123.6841062150756</v>
       </c>
       <c r="G91" s="1">
-        <f t="shared" si="5"/>
-        <v>2768.9446047719402</v>
+        <f t="shared" si="14"/>
+        <v>2696.2911783297582</v>
       </c>
       <c r="H91" s="1">
-        <f t="shared" si="6"/>
-        <v>57.00034828017499</v>
+        <f t="shared" si="15"/>
+        <v>56.998493524662649</v>
       </c>
       <c r="I91" s="1">
-        <f>H91-B91</f>
-        <v>3.4828017498966801E-4</v>
+        <f t="shared" si="12"/>
+        <v>-1.5064753373508211E-3</v>
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.3">
@@ -3919,32 +3920,32 @@
         <v>58</v>
       </c>
       <c r="C92" s="1">
-        <f t="shared" si="7"/>
-        <v>2670.7235349405078</v>
+        <f t="shared" si="16"/>
+        <v>2598.5198605682604</v>
       </c>
       <c r="D92" s="1">
-        <f>1/(1/C92+1/B$6)</f>
-        <v>2107.790867329541</v>
-      </c>
-      <c r="E92" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D92+1),0)</f>
-        <v>13524</v>
+        <f t="shared" si="10"/>
+        <v>2062.5596413919161</v>
+      </c>
+      <c r="E92" s="2">
+        <f t="shared" si="11"/>
+        <v>13147</v>
       </c>
       <c r="F92" s="1">
-        <f t="shared" si="4"/>
-        <v>2107.7055019848513</v>
+        <f t="shared" si="13"/>
+        <v>2062.602455428198</v>
       </c>
       <c r="G92" s="1">
-        <f t="shared" si="5"/>
-        <v>2670.5864847224379</v>
+        <f t="shared" si="14"/>
+        <v>2598.5878165303225</v>
       </c>
       <c r="H92" s="1">
-        <f t="shared" si="6"/>
-        <v>58.001425060158454</v>
+        <f t="shared" si="15"/>
+        <v>57.9992891310564</v>
       </c>
       <c r="I92" s="1">
-        <f>H92-B92</f>
-        <v>1.4250601584535616E-3</v>
+        <f t="shared" si="12"/>
+        <v>-7.1086894359950747E-4</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.3">
@@ -3952,32 +3953,32 @@
         <v>59</v>
       </c>
       <c r="C93" s="1">
-        <f t="shared" si="7"/>
-        <v>2576.5145801693689</v>
+        <f t="shared" si="16"/>
+        <v>2504.9896712918644</v>
       </c>
       <c r="D93" s="1">
-        <f>1/(1/C93+1/B$6)</f>
-        <v>2048.6714055355319</v>
-      </c>
-      <c r="E93" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D93+1),0)</f>
-        <v>13239</v>
+        <f t="shared" si="10"/>
+        <v>2003.1921154182603</v>
+      </c>
+      <c r="E93" s="2">
+        <f t="shared" si="11"/>
+        <v>12861</v>
       </c>
       <c r="F93" s="1">
-        <f t="shared" si="4"/>
-        <v>2048.6121235510986</v>
+        <f t="shared" si="13"/>
+        <v>2003.2350095918332</v>
       </c>
       <c r="G93" s="1">
-        <f t="shared" si="5"/>
-        <v>2576.4208153130762</v>
+        <f t="shared" si="14"/>
+        <v>2505.0567473154979</v>
       </c>
       <c r="H93" s="1">
-        <f t="shared" si="6"/>
-        <v>59.001016851524184</v>
+        <f t="shared" si="15"/>
+        <v>58.999267736368154</v>
       </c>
       <c r="I93" s="1">
-        <f>H93-B93</f>
-        <v>1.0168515241844034E-3</v>
+        <f t="shared" si="12"/>
+        <v>-7.3226363184630827E-4</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.3">
@@ -3985,32 +3986,32 @@
         <v>60</v>
       </c>
       <c r="C94" s="1">
-        <f t="shared" si="7"/>
-        <v>2486.1647514733818</v>
+        <f t="shared" si="16"/>
+        <v>2415.3574520327388</v>
       </c>
       <c r="D94" s="1">
-        <f>1/(1/C94+1/B$6)</f>
-        <v>1991.1356296816534</v>
-      </c>
-      <c r="E94" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D94+1),0)</f>
-        <v>12958</v>
+        <f t="shared" si="10"/>
+        <v>1945.4594532332837</v>
+      </c>
+      <c r="E94" s="2">
+        <f t="shared" si="11"/>
+        <v>12579</v>
       </c>
       <c r="F94" s="1">
-        <f t="shared" si="4"/>
-        <v>1991.1654501344401</v>
+        <f t="shared" si="13"/>
+        <v>1945.5273068434803</v>
       </c>
       <c r="G94" s="1">
-        <f t="shared" si="5"/>
-        <v>2486.2112430177058</v>
+        <f t="shared" si="14"/>
+        <v>2415.4620432154388</v>
       </c>
       <c r="H94" s="1">
-        <f t="shared" si="6"/>
-        <v>59.999474970977133</v>
+        <f t="shared" si="15"/>
+        <v>59.998808449059936</v>
       </c>
       <c r="I94" s="1">
-        <f>H94-B94</f>
-        <v>-5.2502902286732933E-4</v>
+        <f t="shared" si="12"/>
+        <v>-1.1915509400637347E-3</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.3">
@@ -4018,32 +4019,32 @@
         <v>61</v>
       </c>
       <c r="C95" s="1">
-        <f t="shared" si="7"/>
-        <v>2399.4957996144262</v>
+        <f t="shared" si="16"/>
+        <v>2329.4403769237711</v>
       </c>
       <c r="D95" s="1">
-        <f>1/(1/C95+1/B$6)</f>
-        <v>1935.1559437513909</v>
-      </c>
-      <c r="E95" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D95+1),0)</f>
-        <v>12680</v>
+        <f t="shared" si="10"/>
+        <v>1889.3317991006604</v>
+      </c>
+      <c r="E95" s="2">
+        <f t="shared" si="11"/>
+        <v>12301</v>
       </c>
       <c r="F95" s="1">
-        <f t="shared" si="4"/>
-        <v>1935.1140936885686</v>
+        <f t="shared" si="13"/>
+        <v>1889.4274049100402</v>
       </c>
       <c r="G95" s="1">
-        <f t="shared" si="5"/>
-        <v>2399.4314565246154</v>
+        <f t="shared" si="14"/>
+        <v>2329.5857139036966</v>
       </c>
       <c r="H95" s="1">
-        <f t="shared" si="6"/>
-        <v>61.000758431768872</v>
+        <f t="shared" si="15"/>
+        <v>60.998272711196137</v>
       </c>
       <c r="I95" s="1">
-        <f>H95-B95</f>
-        <v>7.5843176887246955E-4</v>
+        <f t="shared" si="12"/>
+        <v>-1.7272888038633027E-3</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.3">
@@ -4051,32 +4052,32 @@
         <v>62</v>
       </c>
       <c r="C96" s="1">
-        <f t="shared" si="7"/>
-        <v>2316.3385847055865</v>
+        <f t="shared" si="16"/>
+        <v>2247.06509457532</v>
       </c>
       <c r="D96" s="1">
-        <f>1/(1/C96+1/B$6)</f>
-        <v>1880.7038867720094</v>
-      </c>
-      <c r="E96" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D96+1),0)</f>
-        <v>12406</v>
+        <f t="shared" si="10"/>
+        <v>1834.7784364848592</v>
+      </c>
+      <c r="E96" s="2">
+        <f t="shared" si="11"/>
+        <v>12026</v>
       </c>
       <c r="F96" s="1">
-        <f t="shared" si="4"/>
-        <v>1880.6148340924656</v>
+        <f t="shared" si="13"/>
+        <v>1834.6880323763949</v>
       </c>
       <c r="G96" s="1">
-        <f t="shared" si="5"/>
-        <v>2316.2035002218818</v>
+        <f t="shared" si="14"/>
+        <v>2246.9294984088083</v>
       </c>
       <c r="H96" s="1">
-        <f t="shared" si="6"/>
-        <v>62.001658874802843</v>
+        <f t="shared" si="15"/>
+        <v>62.001681579656804</v>
       </c>
       <c r="I96" s="1">
-        <f>H96-B96</f>
-        <v>1.6588748028425471E-3</v>
+        <f t="shared" si="12"/>
+        <v>1.6815796568039332E-3</v>
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.3">
@@ -4084,32 +4085,32 @@
         <v>63</v>
       </c>
       <c r="C97" s="1">
-        <f t="shared" si="7"/>
-        <v>2236.5325680118708</v>
+        <f t="shared" si="16"/>
+        <v>2168.0671926555797</v>
       </c>
       <c r="D97" s="1">
-        <f>1/(1/C97+1/B$6)</f>
-        <v>1827.7502679627578</v>
-      </c>
-      <c r="E97" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D97+1),0)</f>
-        <v>12137</v>
+        <f t="shared" si="10"/>
+        <v>1781.7679326788932</v>
+      </c>
+      <c r="E97" s="2">
+        <f t="shared" si="11"/>
+        <v>11757</v>
       </c>
       <c r="F97" s="1">
-        <f t="shared" si="4"/>
-        <v>1827.8157888313485</v>
+        <f t="shared" si="13"/>
+        <v>1781.8550102512966</v>
       </c>
       <c r="G97" s="1">
-        <f t="shared" si="5"/>
-        <v>2236.6306749832361</v>
+        <f t="shared" si="14"/>
+        <v>2168.1961226943295</v>
       </c>
       <c r="H97" s="1">
-        <f t="shared" si="6"/>
-        <v>62.998745625064885</v>
+        <f t="shared" si="15"/>
+        <v>62.998333922818119</v>
       </c>
       <c r="I97" s="1">
-        <f>H97-B97</f>
-        <v>-1.2543749351152655E-3</v>
+        <f t="shared" si="12"/>
+        <v>-1.6660771818806097E-3</v>
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.3">
@@ -4117,32 +4118,32 @@
         <v>64</v>
       </c>
       <c r="C98" s="1">
-        <f t="shared" si="7"/>
-        <v>2159.925334389869</v>
+        <f t="shared" si="16"/>
+        <v>2092.2906951411496</v>
       </c>
       <c r="D98" s="1">
-        <f>1/(1/C98+1/B$6)</f>
-        <v>1776.2652935715944</v>
-      </c>
-      <c r="E98" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D98+1),0)</f>
-        <v>11871</v>
+        <f t="shared" si="10"/>
+        <v>1730.2682741342473</v>
+      </c>
+      <c r="E98" s="2">
+        <f t="shared" si="11"/>
+        <v>11491</v>
       </c>
       <c r="F98" s="1">
-        <f t="shared" si="4"/>
-        <v>1776.2797072674966</v>
+        <f t="shared" si="13"/>
+        <v>1730.2900292286934</v>
       </c>
       <c r="G98" s="1">
-        <f t="shared" si="5"/>
-        <v>2159.9466470634184</v>
+        <f t="shared" si="14"/>
+        <v>2092.322506284112</v>
       </c>
       <c r="H98" s="1">
-        <f t="shared" si="6"/>
-        <v>63.999716509071504</v>
+        <f t="shared" si="15"/>
+        <v>63.999571835034089</v>
       </c>
       <c r="I98" s="1">
-        <f>H98-B98</f>
-        <v>-2.8349092849566659E-4</v>
+        <f t="shared" si="12"/>
+        <v>-4.281649659105824E-4</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.3">
@@ -4150,32 +4151,32 @@
         <v>65</v>
       </c>
       <c r="C99" s="1">
-        <f t="shared" si="7"/>
-        <v>2086.3721433859669</v>
+        <f t="shared" si="16"/>
+        <v>2019.587590102137</v>
       </c>
       <c r="D99" s="1">
-        <f>1/(1/C99+1/B$6)</f>
-        <v>1726.2186855033199</v>
-      </c>
-      <c r="E99" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D99+1),0)</f>
-        <v>11609</v>
+        <f t="shared" si="10"/>
+        <v>1680.2469926382687</v>
+      </c>
+      <c r="E99" s="2">
+        <f t="shared" si="11"/>
+        <v>11230</v>
       </c>
       <c r="F99" s="1">
-        <f t="shared" si="4"/>
-        <v>1726.1613806913876</v>
+        <f t="shared" si="13"/>
+        <v>1680.3378161780199</v>
       </c>
       <c r="G99" s="1">
-        <f t="shared" si="5"/>
-        <v>2086.288432872082</v>
+        <f t="shared" si="14"/>
+        <v>2019.7188047436891</v>
       </c>
       <c r="H99" s="1">
-        <f t="shared" si="6"/>
-        <v>65.00116197741454</v>
+        <f t="shared" si="15"/>
+        <v>64.998158000842523</v>
       </c>
       <c r="I99" s="1">
-        <f>H99-B99</f>
-        <v>1.1619774145401607E-3</v>
+        <f t="shared" si="12"/>
+        <v>-1.8419991574774031E-3</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.3">
@@ -4183,32 +4184,32 @@
         <v>66</v>
       </c>
       <c r="C100" s="1">
-        <f t="shared" si="7"/>
-        <v>2015.7355071489537</v>
+        <f t="shared" si="16"/>
+        <v>1949.8173860346196</v>
       </c>
       <c r="D100" s="1">
-        <f>1/(1/C100+1/B$6)</f>
-        <v>1677.5797918901092</v>
-      </c>
-      <c r="E100" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D100+1),0)</f>
-        <v>11352</v>
+        <f t="shared" si="10"/>
+        <v>1631.6712825363427</v>
+      </c>
+      <c r="E100" s="2">
+        <f t="shared" si="11"/>
+        <v>10973</v>
       </c>
       <c r="F100" s="1">
-        <f t="shared" si="4"/>
-        <v>1677.6076766557799</v>
+        <f t="shared" si="13"/>
+        <v>1631.7622608165084</v>
       </c>
       <c r="G100" s="1">
-        <f t="shared" si="5"/>
-        <v>2015.7757667228793</v>
+        <f t="shared" si="14"/>
+        <v>1949.9473027348806</v>
       </c>
       <c r="H100" s="1">
-        <f t="shared" si="6"/>
-        <v>65.999418898051033</v>
+        <f t="shared" si="15"/>
+        <v>65.998099772122714</v>
       </c>
       <c r="I100" s="1">
-        <f>H100-B100</f>
-        <v>-5.8110194896698886E-4</v>
+        <f t="shared" si="12"/>
+        <v>-1.9002278772859427E-3</v>
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.3">
@@ -4216,32 +4217,32 @@
         <v>67</v>
       </c>
       <c r="C101" s="1">
-        <f t="shared" si="7"/>
-        <v>1947.8847934394441</v>
+        <f t="shared" si="16"/>
+        <v>1882.8466948911193</v>
       </c>
       <c r="D101" s="1">
-        <f>1/(1/C101+1/B$6)</f>
-        <v>1630.3176897964593</v>
-      </c>
-      <c r="E101" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D101+1),0)</f>
-        <v>11099</v>
+        <f t="shared" si="10"/>
+        <v>1584.5081092400405</v>
+      </c>
+      <c r="E101" s="2">
+        <f t="shared" si="11"/>
+        <v>10720</v>
       </c>
       <c r="F101" s="1">
-        <f t="shared" si="4"/>
-        <v>1630.3872297099463</v>
+        <f t="shared" si="13"/>
+        <v>1584.5241622456642</v>
       </c>
       <c r="G101" s="1">
-        <f t="shared" si="5"/>
-        <v>1947.9840638474898</v>
+        <f t="shared" si="14"/>
+        <v>1882.869362106675</v>
       </c>
       <c r="H101" s="1">
-        <f t="shared" si="6"/>
-        <v>66.998507750463375</v>
+        <f t="shared" si="15"/>
+        <v>66.9996550394157</v>
       </c>
       <c r="I101" s="1">
-        <f>H101-B101</f>
-        <v>-1.4922495366249677E-3</v>
+        <f t="shared" si="12"/>
+        <v>-3.4496058430022458E-4</v>
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.3">
@@ -4249,32 +4250,32 @@
         <v>68</v>
       </c>
       <c r="C102" s="1">
-        <f t="shared" si="7"/>
-        <v>1882.6958521356758</v>
+        <f t="shared" si="16"/>
+        <v>1818.548840087248</v>
       </c>
       <c r="D102" s="1">
-        <f>1/(1/C102+1/B$6)</f>
-        <v>1584.401280284641</v>
-      </c>
-      <c r="E102" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D102+1),0)</f>
-        <v>10850</v>
+        <f t="shared" si="10"/>
+        <v>1538.7243092983849</v>
+      </c>
+      <c r="E102" s="2">
+        <f t="shared" si="11"/>
+        <v>10472</v>
       </c>
       <c r="F102" s="1">
-        <f t="shared" si="4"/>
-        <v>1584.4628581495106</v>
+        <f t="shared" si="13"/>
+        <v>1538.7694340579292</v>
       </c>
       <c r="G102" s="1">
-        <f t="shared" si="5"/>
-        <v>1882.7827997692179</v>
+        <f t="shared" si="14"/>
+        <v>1818.6118698286568</v>
       </c>
       <c r="H102" s="1">
-        <f t="shared" si="6"/>
-        <v>67.998639824149336</v>
+        <f t="shared" si="15"/>
+        <v>67.999000095980193</v>
       </c>
       <c r="I102" s="1">
-        <f>H102-B102</f>
-        <v>-1.3601758506638362E-3</v>
+        <f t="shared" si="12"/>
+        <v>-9.9990401980676324E-4</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.3">
@@ -4282,32 +4283,32 @@
         <v>69</v>
       </c>
       <c r="C103" s="1">
-        <f t="shared" si="7"/>
-        <v>1820.0506637440094</v>
+        <f t="shared" si="16"/>
+        <v>1756.8034878809499</v>
       </c>
       <c r="D103" s="1">
-        <f>1/(1/C103+1/B$6)</f>
-        <v>1539.7993760946426</v>
-      </c>
-      <c r="E103" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D103+1),0)</f>
-        <v>10605</v>
+        <f t="shared" si="10"/>
+        <v>1494.286682338344</v>
+      </c>
+      <c r="E103" s="2">
+        <f t="shared" si="11"/>
+        <v>10228</v>
       </c>
       <c r="F103" s="1">
-        <f t="shared" si="4"/>
-        <v>1539.7989829537585</v>
+        <f t="shared" si="13"/>
+        <v>1494.2745852757184</v>
       </c>
       <c r="G103" s="1">
-        <f t="shared" si="5"/>
-        <v>1820.0501144727616</v>
+        <f t="shared" si="14"/>
+        <v>1756.7867670510223</v>
       </c>
       <c r="H103" s="1">
-        <f t="shared" si="6"/>
-        <v>69.000009472798297</v>
+        <f t="shared" si="15"/>
+        <v>69.000276872381733</v>
       </c>
       <c r="I103" s="1">
-        <f>H103-B103</f>
-        <v>9.4727982968834112E-6</v>
+        <f t="shared" si="12"/>
+        <v>2.7687238173257356E-4</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.3">
@@ -4315,32 +4316,32 @@
         <v>70</v>
       </c>
       <c r="C104" s="1">
-        <f t="shared" si="7"/>
-        <v>1759.8370085233807</v>
+        <f t="shared" si="16"/>
+        <v>1697.4963006304272</v>
       </c>
       <c r="D104" s="1">
-        <f>1/(1/C104+1/B$6)</f>
-        <v>1496.4807822148155</v>
-      </c>
-      <c r="E104" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D104+1),0)</f>
-        <v>10365</v>
+        <f t="shared" si="10"/>
+        <v>1451.1620752031715</v>
+      </c>
+      <c r="E104" s="2">
+        <f t="shared" si="11"/>
+        <v>9989</v>
       </c>
       <c r="F104" s="1">
-        <f t="shared" si="4"/>
-        <v>1496.5407791339928</v>
+        <f t="shared" si="13"/>
+        <v>1451.1847739695802</v>
       </c>
       <c r="G104" s="1">
-        <f t="shared" si="5"/>
-        <v>1759.9199811080916</v>
+        <f t="shared" si="14"/>
+        <v>1697.5273597572275</v>
       </c>
       <c r="H104" s="1">
-        <f t="shared" si="6"/>
-        <v>69.998595073876061</v>
+        <f t="shared" si="15"/>
+        <v>69.999466195395712</v>
       </c>
       <c r="I104" s="1">
-        <f>H104-B104</f>
-        <v>-1.4049261239392763E-3</v>
+        <f t="shared" si="12"/>
+        <v>-5.338046042879796E-4</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.3">
@@ -4348,32 +4349,32 @@
         <v>71</v>
       </c>
       <c r="C105" s="1">
-        <f t="shared" si="7"/>
-        <v>1701.9481549266641</v>
+        <f t="shared" si="16"/>
+        <v>1640.5186105385515</v>
       </c>
       <c r="D105" s="1">
-        <f>1/(1/C105+1/B$6)</f>
-        <v>1454.4143696364974</v>
-      </c>
-      <c r="E105" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D105+1),0)</f>
-        <v>10129</v>
+        <f t="shared" ref="D105:D136" si="17">1/(1/C105+1/B$6)</f>
+        <v>1409.3174586339605</v>
+      </c>
+      <c r="E105" s="2">
+        <f t="shared" ref="E105:E136" si="18">ROUND((B$1/B$3*B$4)/(B$5/D105+1),0)</f>
+        <v>9754</v>
       </c>
       <c r="F105" s="1">
-        <f t="shared" si="4"/>
-        <v>1454.4724920388594</v>
+        <f t="shared" si="13"/>
+        <v>1409.2841323073167</v>
       </c>
       <c r="G105" s="1">
-        <f t="shared" si="5"/>
-        <v>1702.027745722954</v>
+        <f t="shared" si="14"/>
+        <v>1640.4734529834075</v>
       </c>
       <c r="H105" s="1">
-        <f t="shared" si="6"/>
-        <v>70.998598378195027</v>
+        <f t="shared" si="15"/>
+        <v>71.00080915133924</v>
       </c>
       <c r="I105" s="1">
-        <f>H105-B105</f>
-        <v>-1.4016218049732743E-3</v>
+        <f t="shared" ref="I105:I136" si="19">H105-B105</f>
+        <v>8.0915133924008842E-4</v>
       </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.3">
@@ -4381,32 +4382,32 @@
         <v>72</v>
       </c>
       <c r="C106" s="1">
-        <f t="shared" si="7"/>
-        <v>1646.2825661488762</v>
+        <f t="shared" si="16"/>
+        <v>1585.7671125859447</v>
       </c>
       <c r="D106" s="1">
-        <f>1/(1/C106+1/B$6)</f>
-        <v>1413.5691425983141</v>
-      </c>
-      <c r="E106" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D106+1),0)</f>
-        <v>9897</v>
+        <f t="shared" si="17"/>
+        <v>1368.7199968513792</v>
+      </c>
+      <c r="E106" s="2">
+        <f t="shared" si="18"/>
+        <v>9524</v>
       </c>
       <c r="F106" s="1">
-        <f t="shared" si="4"/>
-        <v>1413.563084795665</v>
+        <f t="shared" si="13"/>
+        <v>1368.7170078250194</v>
       </c>
       <c r="G106" s="1">
-        <f t="shared" si="5"/>
-        <v>1646.2743495996745</v>
+        <f t="shared" si="14"/>
+        <v>1585.763100417264</v>
       </c>
       <c r="H106" s="1">
-        <f t="shared" si="6"/>
-        <v>72.00015109338193</v>
+        <f t="shared" si="15"/>
+        <v>72.000075323845465</v>
       </c>
       <c r="I106" s="1">
-        <f>H106-B106</f>
-        <v>1.5109338193042277E-4</v>
+        <f t="shared" si="19"/>
+        <v>7.5323845464936312E-5</v>
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.3">
@@ -4414,32 +4415,32 @@
         <v>73</v>
       </c>
       <c r="C107" s="1">
-        <f t="shared" si="7"/>
-        <v>1592.7436236529284</v>
+        <f t="shared" si="16"/>
+        <v>1533.1435754424506</v>
       </c>
       <c r="D107" s="1">
-        <f>1/(1/C107+1/B$6)</f>
-        <v>1373.9142996341423</v>
-      </c>
-      <c r="E107" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D107+1),0)</f>
-        <v>9670</v>
+        <f t="shared" si="17"/>
+        <v>1329.3371104015184</v>
+      </c>
+      <c r="E107" s="2">
+        <f t="shared" si="18"/>
+        <v>9298</v>
       </c>
       <c r="F107" s="1">
-        <f t="shared" si="4"/>
-        <v>1373.9563908267696</v>
+        <f t="shared" si="13"/>
+        <v>1329.2745327744203</v>
       </c>
       <c r="G107" s="1">
-        <f t="shared" si="5"/>
-        <v>1592.8001910002604</v>
+        <f t="shared" si="14"/>
+        <v>1533.0603394132784</v>
       </c>
       <c r="H107" s="1">
-        <f t="shared" si="6"/>
-        <v>72.998923269060356</v>
+        <f t="shared" si="15"/>
+        <v>73.001614014802215</v>
       </c>
       <c r="I107" s="1">
-        <f>H107-B107</f>
-        <v>-1.0767309396442215E-3</v>
+        <f t="shared" si="19"/>
+        <v>1.6140148022145695E-3</v>
       </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.3">
@@ -4447,32 +4448,32 @@
         <v>74</v>
       </c>
       <c r="C108" s="1">
-        <f t="shared" si="7"/>
-        <v>1541.2393666187754</v>
+        <f t="shared" si="16"/>
+        <v>1482.5545692281187</v>
       </c>
       <c r="D108" s="1">
-        <f>1/(1/C108+1/B$6)</f>
-        <v>1335.4192887434331</v>
-      </c>
-      <c r="E108" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D108+1),0)</f>
-        <v>9447</v>
+        <f t="shared" si="17"/>
+        <v>1291.1365326328939</v>
+      </c>
+      <c r="E108" s="2">
+        <f t="shared" si="18"/>
+        <v>9077</v>
       </c>
       <c r="F108" s="1">
-        <f t="shared" si="4"/>
-        <v>1335.4468218895263</v>
+        <f t="shared" si="13"/>
+        <v>1291.1002106883502</v>
       </c>
       <c r="G108" s="1">
-        <f t="shared" si="5"/>
-        <v>1541.2760409426612</v>
+        <f t="shared" si="14"/>
+        <v>1482.5066792856032</v>
       </c>
       <c r="H108" s="1">
-        <f t="shared" si="6"/>
-        <v>73.999274619755681</v>
+        <f t="shared" si="15"/>
+        <v>74.000966104861732</v>
       </c>
       <c r="I108" s="1">
-        <f>H108-B108</f>
-        <v>-7.2538024431878512E-4</v>
+        <f t="shared" si="19"/>
+        <v>9.6610486173176469E-4</v>
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.3">
@@ -4480,32 +4481,32 @@
         <v>75</v>
       </c>
       <c r="C109" s="1">
-        <f t="shared" si="7"/>
-        <v>1491.682246331595</v>
+        <f t="shared" si="16"/>
+        <v>1433.91120907034</v>
       </c>
       <c r="D109" s="1">
-        <f>1/(1/C109+1/B$6)</f>
-        <v>1298.0538570040724</v>
-      </c>
-      <c r="E109" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D109+1),0)</f>
-        <v>9228</v>
+        <f t="shared" si="17"/>
+        <v>1254.0863601711731</v>
+      </c>
+      <c r="E109" s="2">
+        <f t="shared" si="18"/>
+        <v>8861</v>
       </c>
       <c r="F109" s="1">
-        <f t="shared" si="4"/>
-        <v>1298.0072422086143</v>
+        <f t="shared" si="13"/>
+        <v>1254.1617756286607</v>
       </c>
       <c r="G109" s="1">
-        <f t="shared" si="5"/>
-        <v>1491.6206877400984</v>
+        <f t="shared" si="14"/>
+        <v>1434.0098038102133</v>
       </c>
       <c r="H109" s="1">
-        <f t="shared" si="6"/>
-        <v>75.001266975402018</v>
+        <f t="shared" si="15"/>
+        <v>74.997933678930565</v>
       </c>
       <c r="I109" s="1">
-        <f>H109-B109</f>
-        <v>1.2669754020180335E-3</v>
+        <f t="shared" si="19"/>
+        <v>-2.0663210694351619E-3</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.3">
@@ -4513,32 +4514,32 @@
         <v>76</v>
       </c>
       <c r="C110" s="1">
-        <f t="shared" si="7"/>
-        <v>1443.9888945894415</v>
+        <f t="shared" si="16"/>
+        <v>1387.1289134738902</v>
       </c>
       <c r="D110" s="1">
-        <f>1/(1/C110+1/B$6)</f>
-        <v>1261.7880949466312</v>
-      </c>
-      <c r="E110" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D110+1),0)</f>
-        <v>9014</v>
+        <f t="shared" si="17"/>
+        <v>1218.1550977547654</v>
+      </c>
+      <c r="E110" s="2">
+        <f t="shared" si="18"/>
+        <v>8648</v>
       </c>
       <c r="F110" s="1">
-        <f t="shared" si="4"/>
-        <v>1261.7801013396654</v>
+        <f t="shared" si="13"/>
+        <v>1218.0913791160874</v>
       </c>
       <c r="G110" s="1">
-        <f t="shared" si="5"/>
-        <v>1443.9784257811025</v>
+        <f t="shared" si="14"/>
+        <v>1387.0462922141917</v>
       </c>
       <c r="H110" s="1">
-        <f t="shared" si="6"/>
-        <v>76.000224374869902</v>
+        <f t="shared" si="15"/>
+        <v>76.0018015424439</v>
       </c>
       <c r="I110" s="1">
-        <f>H110-B110</f>
-        <v>2.2437486990156685E-4</v>
+        <f t="shared" si="19"/>
+        <v>1.8015424438999617E-3</v>
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.3">
@@ -4546,32 +4547,32 @@
         <v>77</v>
       </c>
       <c r="C111" s="1">
-        <f t="shared" si="7"/>
-        <v>1398.0799052713089</v>
+        <f t="shared" si="16"/>
+        <v>1342.1271765859735</v>
       </c>
       <c r="D111" s="1">
-        <f>1/(1/C111+1/B$6)</f>
-        <v>1226.5924760053085</v>
-      </c>
-      <c r="E111" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D111+1),0)</f>
-        <v>8804</v>
+        <f t="shared" si="17"/>
+        <v>1183.3116977885618</v>
+      </c>
+      <c r="E111" s="2">
+        <f t="shared" si="18"/>
+        <v>8441</v>
       </c>
       <c r="F111" s="1">
-        <f t="shared" si="4"/>
-        <v>1226.568811429112</v>
+        <f t="shared" si="13"/>
+        <v>1183.3699593892468</v>
       </c>
       <c r="G111" s="1">
-        <f t="shared" si="5"/>
-        <v>1398.0491612300534</v>
+        <f t="shared" si="14"/>
+        <v>1342.2021270468001</v>
       </c>
       <c r="H111" s="1">
-        <f t="shared" si="6"/>
-        <v>77.000683207097779</v>
+        <f t="shared" si="15"/>
+        <v>76.998302574997183</v>
       </c>
       <c r="I111" s="1">
-        <f>H111-B111</f>
-        <v>6.8320709777935917E-4</v>
+        <f t="shared" si="19"/>
+        <v>-1.697425002816999E-3</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.3">
@@ -4579,32 +4580,32 @@
         <v>78</v>
       </c>
       <c r="C112" s="1">
-        <f t="shared" si="7"/>
-        <v>1353.8796282625538</v>
+        <f t="shared" si="16"/>
+        <v>1298.829353498867</v>
       </c>
       <c r="D112" s="1">
-        <f>1/(1/C112+1/B$6)</f>
-        <v>1192.437891355145</v>
-      </c>
-      <c r="E112" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D112+1),0)</f>
-        <v>8599</v>
+        <f t="shared" si="17"/>
+        <v>1149.5255949649891</v>
+      </c>
+      <c r="E112" s="2">
+        <f t="shared" si="18"/>
+        <v>8237</v>
       </c>
       <c r="F112" s="1">
-        <f t="shared" si="4"/>
-        <v>1192.5149576376241</v>
+        <f t="shared" si="13"/>
+        <v>1149.4682935721748</v>
       </c>
       <c r="G112" s="1">
-        <f t="shared" si="5"/>
-        <v>1353.9789757255874</v>
+        <f t="shared" si="14"/>
+        <v>1298.7562009832213</v>
       </c>
       <c r="H112" s="1">
-        <f t="shared" si="6"/>
-        <v>77.997710069550692</v>
+        <f t="shared" si="15"/>
+        <v>78.001723142134097</v>
       </c>
       <c r="I112" s="1">
-        <f>H112-B112</f>
-        <v>-2.2899304493080308E-3</v>
+        <f t="shared" si="19"/>
+        <v>1.7231421340966335E-3</v>
       </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.3">
@@ -4612,32 +4613,32 @@
         <v>79</v>
       </c>
       <c r="C113" s="1">
-        <f t="shared" si="7"/>
-        <v>1311.3159749870022</v>
+        <f t="shared" si="16"/>
+        <v>1257.1624577892878</v>
       </c>
       <c r="D113" s="1">
-        <f>1/(1/C113+1/B$6)</f>
-        <v>1159.2956804378448</v>
-      </c>
-      <c r="E113" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D113+1),0)</f>
-        <v>8397</v>
+        <f t="shared" si="17"/>
+        <v>1116.7667362918851</v>
+      </c>
+      <c r="E113" s="2">
+        <f t="shared" si="18"/>
+        <v>8038</v>
       </c>
       <c r="F113" s="1">
-        <f t="shared" si="4"/>
-        <v>1159.2635586019571</v>
+        <f t="shared" si="13"/>
+        <v>1116.696188433313</v>
       </c>
       <c r="G113" s="1">
-        <f t="shared" si="5"/>
-        <v>1311.2748765742363</v>
+        <f t="shared" si="14"/>
+        <v>1257.0730576379656</v>
       </c>
       <c r="H113" s="1">
-        <f t="shared" si="6"/>
-        <v>79.000984642631181</v>
+        <f t="shared" si="15"/>
+        <v>79.002187924966847</v>
       </c>
       <c r="I113" s="1">
-        <f>H113-B113</f>
-        <v>9.846426311810319E-4</v>
+        <f t="shared" si="19"/>
+        <v>2.1879249668472767E-3</v>
       </c>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.3">
@@ -4645,32 +4646,32 @@
         <v>80</v>
       </c>
       <c r="C114" s="1">
-        <f t="shared" si="7"/>
-        <v>1270.3202348436205</v>
+        <f t="shared" si="16"/>
+        <v>1217.0569705459302</v>
       </c>
       <c r="D114" s="1">
-        <f>1/(1/C114+1/B$6)</f>
-        <v>1127.137657469807</v>
-      </c>
-      <c r="E114" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D114+1),0)</f>
-        <v>8200</v>
+        <f t="shared" si="17"/>
+        <v>1085.0056068554463</v>
+      </c>
+      <c r="E114" s="2">
+        <f t="shared" si="18"/>
+        <v>7844</v>
       </c>
       <c r="F114" s="1">
-        <f t="shared" si="4"/>
-        <v>1127.1220694354854</v>
+        <f t="shared" si="13"/>
+        <v>1085.0276313739855</v>
       </c>
       <c r="G114" s="1">
-        <f t="shared" si="5"/>
-        <v>1270.3004349387857</v>
+        <f t="shared" si="14"/>
+        <v>1217.0846823849565</v>
       </c>
       <c r="H114" s="1">
-        <f t="shared" si="6"/>
-        <v>80.000492806796331</v>
+        <f t="shared" si="15"/>
+        <v>79.999296400135336</v>
       </c>
       <c r="I114" s="1">
-        <f>H114-B114</f>
-        <v>4.9280679633056934E-4</v>
+        <f t="shared" si="19"/>
+        <v>-7.0359986466428381E-4</v>
       </c>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.3">
@@ -4678,32 +4679,32 @@
         <v>81</v>
       </c>
       <c r="C115" s="1">
-        <f t="shared" si="7"/>
-        <v>1230.8269018910289</v>
+        <f t="shared" si="16"/>
+        <v>1178.4466601855613</v>
       </c>
       <c r="D115" s="1">
-        <f>1/(1/C115+1/B$6)</f>
-        <v>1095.9361342162474</v>
-      </c>
-      <c r="E115" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D115+1),0)</f>
-        <v>8007</v>
+        <f t="shared" si="17"/>
+        <v>1054.2132516343727</v>
+      </c>
+      <c r="E115" s="2">
+        <f t="shared" si="18"/>
+        <v>7654</v>
       </c>
       <c r="F115" s="1">
-        <f t="shared" si="4"/>
-        <v>1095.9043013860316</v>
+        <f t="shared" si="13"/>
+        <v>1054.2766317952157</v>
       </c>
       <c r="G115" s="1">
-        <f t="shared" si="5"/>
-        <v>1230.7867508169556</v>
+        <f t="shared" si="14"/>
+        <v>1178.525859118743</v>
       </c>
       <c r="H115" s="1">
-        <f t="shared" si="6"/>
-        <v>81.0010365203525</v>
+        <f t="shared" si="15"/>
+        <v>80.997910215434558</v>
       </c>
       <c r="I115" s="1">
-        <f>H115-B115</f>
-        <v>1.0365203524997924E-3</v>
+        <f t="shared" si="19"/>
+        <v>-2.0897845654417324E-3</v>
       </c>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.3">
@@ -4711,32 +4712,32 @@
         <v>82</v>
       </c>
       <c r="C116" s="1">
-        <f t="shared" si="7"/>
-        <v>1192.7735111652521</v>
+        <f t="shared" si="16"/>
+        <v>1141.2684124033854</v>
       </c>
       <c r="D116" s="1">
-        <f>1/(1/C116+1/B$6)</f>
-        <v>1065.663939304598</v>
-      </c>
-      <c r="E116" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D116+1),0)</f>
-        <v>7818</v>
+        <f t="shared" si="17"/>
+        <v>1024.3612936681702</v>
+      </c>
+      <c r="E116" s="2">
+        <f t="shared" si="18"/>
+        <v>7468</v>
       </c>
       <c r="F116" s="1">
-        <f t="shared" si="4"/>
-        <v>1065.5902613306439</v>
+        <f t="shared" si="13"/>
+        <v>1024.4234537491702</v>
       </c>
       <c r="G116" s="1">
-        <f t="shared" si="5"/>
-        <v>1192.6812095024281</v>
+        <f t="shared" si="14"/>
+        <v>1141.3455709172022</v>
       </c>
       <c r="H116" s="1">
-        <f t="shared" si="6"/>
-        <v>82.00247185405459</v>
+        <f t="shared" si="15"/>
+        <v>81.997885849447698</v>
       </c>
       <c r="I116" s="1">
-        <f>H116-B116</f>
-        <v>2.4718540545904943E-3</v>
+        <f t="shared" si="19"/>
+        <v>-2.1141505523019077E-3</v>
       </c>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.3">
@@ -4744,32 +4745,32 @@
         <v>83</v>
       </c>
       <c r="C117" s="1">
-        <f t="shared" si="7"/>
-        <v>1156.1004840554915</v>
+        <f t="shared" si="16"/>
+        <v>1105.4620696457916</v>
       </c>
       <c r="D117" s="1">
-        <f>1/(1/C117+1/B$6)</f>
-        <v>1036.2944343391421</v>
-      </c>
-      <c r="E117" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D117+1),0)</f>
-        <v>7634</v>
+        <f t="shared" si="17"/>
+        <v>995.42194886903098</v>
+      </c>
+      <c r="E117" s="2">
+        <f t="shared" si="18"/>
+        <v>7286</v>
       </c>
       <c r="F117" s="1">
-        <f t="shared" si="4"/>
-        <v>1036.3192029422582</v>
+        <f t="shared" si="13"/>
+        <v>995.44916316940794</v>
       </c>
       <c r="G117" s="1">
-        <f t="shared" si="5"/>
-        <v>1156.1313107919036</v>
+        <f t="shared" si="14"/>
+        <v>1105.4956334943461</v>
       </c>
       <c r="H117" s="1">
-        <f t="shared" si="6"/>
-        <v>82.999144488457773</v>
+        <f t="shared" si="15"/>
+        <v>82.999045588663762</v>
       </c>
       <c r="I117" s="1">
-        <f>H117-B117</f>
-        <v>-8.5551154222685E-4</v>
+        <f t="shared" si="19"/>
+        <v>-9.5441133623808128E-4</v>
       </c>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.3">
@@ -4777,32 +4778,32 @@
         <v>84</v>
       </c>
       <c r="C118" s="1">
-        <f t="shared" si="7"/>
-        <v>1120.7509821993378</v>
+        <f t="shared" si="16"/>
+        <v>1070.9702795329404</v>
       </c>
       <c r="D118" s="1">
-        <f>1/(1/C118+1/B$6)</f>
-        <v>1007.8015270670942</v>
-      </c>
-      <c r="E118" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D118+1),0)</f>
-        <v>7453</v>
+        <f t="shared" si="17"/>
+        <v>967.36803775262445</v>
+      </c>
+      <c r="E118" s="2">
+        <f t="shared" si="18"/>
+        <v>7108</v>
       </c>
       <c r="F118" s="1">
-        <f t="shared" si="4"/>
-        <v>1007.7545950348424</v>
+        <f t="shared" si="13"/>
+        <v>967.33559487729383</v>
       </c>
       <c r="G118" s="1">
-        <f t="shared" si="5"/>
-        <v>1120.6929411405974</v>
+        <f t="shared" si="14"/>
+        <v>1070.9305156169507</v>
       </c>
       <c r="H118" s="1">
-        <f t="shared" si="6"/>
-        <v>84.001673153559409</v>
+        <f t="shared" si="15"/>
+        <v>84.001175372431362</v>
       </c>
       <c r="I118" s="1">
-        <f>H118-B118</f>
-        <v>1.6731535594090019E-3</v>
+        <f t="shared" si="19"/>
+        <v>1.1753724313621206E-3</v>
       </c>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.3">
@@ -4810,32 +4811,32 @@
         <v>85</v>
       </c>
       <c r="C119" s="1">
-        <f t="shared" si="7"/>
-        <v>1086.6707693930255</v>
+        <f t="shared" si="16"/>
+        <v>1037.7383516954023</v>
       </c>
       <c r="D119" s="1">
-        <f>1/(1/C119+1/B$6)</f>
-        <v>980.15968183433176</v>
-      </c>
-      <c r="E119" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D119+1),0)</f>
-        <v>7277</v>
+        <f t="shared" si="17"/>
+        <v>940.17299434897836</v>
+      </c>
+      <c r="E119" s="2">
+        <f t="shared" si="18"/>
+        <v>6935</v>
       </c>
       <c r="F119" s="1">
-        <f t="shared" si="4"/>
-        <v>980.19449101706925</v>
+        <f t="shared" si="13"/>
+        <v>940.22145420759534</v>
       </c>
       <c r="G119" s="1">
-        <f t="shared" si="5"/>
-        <v>1086.713555010562</v>
+        <f t="shared" si="14"/>
+        <v>1037.7973914652237</v>
       </c>
       <c r="H119" s="1">
-        <f t="shared" si="6"/>
-        <v>84.998722190379226</v>
+        <f t="shared" si="15"/>
+        <v>84.998190866861592</v>
       </c>
       <c r="I119" s="1">
-        <f>H119-B119</f>
-        <v>-1.2778096207739509E-3</v>
+        <f t="shared" si="19"/>
+        <v>-1.8091331384084697E-3</v>
       </c>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.3">
@@ -4843,32 +4844,32 @@
         <v>86</v>
       </c>
       <c r="C120" s="1">
-        <f t="shared" si="7"/>
-        <v>1053.8080810441725</v>
+        <f t="shared" si="16"/>
+        <v>1005.7141225232421</v>
       </c>
       <c r="D120" s="1">
-        <f>1/(1/C120+1/B$6)</f>
-        <v>953.34392755679812</v>
-      </c>
-      <c r="E120" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D120+1),0)</f>
-        <v>7104</v>
+        <f t="shared" si="17"/>
+        <v>913.8108725403323</v>
+      </c>
+      <c r="E120" s="2">
+        <f t="shared" si="18"/>
+        <v>6765</v>
       </c>
       <c r="F120" s="1">
-        <f t="shared" si="4"/>
-        <v>953.30879591376856</v>
+        <f t="shared" si="13"/>
+        <v>913.77660189552307</v>
       </c>
       <c r="G120" s="1">
-        <f t="shared" si="5"/>
-        <v>1053.7651550250503</v>
+        <f t="shared" si="14"/>
+        <v>1005.6726121065335</v>
       </c>
       <c r="H120" s="1">
-        <f t="shared" si="6"/>
-        <v>86.001330991516909</v>
+        <f t="shared" si="15"/>
+        <v>86.001321226500409</v>
       </c>
       <c r="I120" s="1">
-        <f>H120-B120</f>
-        <v>1.3309915169088526E-3</v>
+        <f t="shared" si="19"/>
+        <v>1.3212265004085566E-3</v>
       </c>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.3">
@@ -4876,32 +4877,32 @@
         <v>87</v>
       </c>
       <c r="C121" s="1">
-        <f t="shared" si="7"/>
-        <v>1022.1135007242613</v>
+        <f t="shared" si="16"/>
+        <v>974.84782735787905</v>
       </c>
       <c r="D121" s="1">
-        <f>1/(1/C121+1/B$6)</f>
-        <v>927.32986342147387</v>
-      </c>
-      <c r="E121" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D121+1),0)</f>
-        <v>6936</v>
+        <f t="shared" si="17"/>
+        <v>888.25635005872061</v>
+      </c>
+      <c r="E121" s="2">
+        <f t="shared" si="18"/>
+        <v>6600</v>
       </c>
       <c r="F121" s="1">
-        <f t="shared" si="4"/>
-        <v>927.39214412624904</v>
+        <f t="shared" si="13"/>
+        <v>888.29619587233969</v>
       </c>
       <c r="G121" s="1">
-        <f t="shared" si="5"/>
-        <v>1022.1891641947697</v>
+        <f t="shared" si="14"/>
+        <v>974.89582076837905</v>
       </c>
       <c r="H121" s="1">
-        <f t="shared" si="6"/>
-        <v>86.99757004762381</v>
+        <f t="shared" si="15"/>
+        <v>86.998417063708985</v>
       </c>
       <c r="I121" s="1">
-        <f>H121-B121</f>
-        <v>-2.4299523761897035E-3</v>
+        <f t="shared" si="19"/>
+        <v>-1.5829362910153577E-3</v>
       </c>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.3">
@@ -4909,32 +4910,32 @@
         <v>88</v>
       </c>
       <c r="C122" s="1">
-        <f t="shared" si="7"/>
-        <v>991.53984340578097</v>
+        <f t="shared" si="16"/>
+        <v>945.09197968677529</v>
       </c>
       <c r="D122" s="1">
-        <f>1/(1/C122+1/B$6)</f>
-        <v>902.09366251866993</v>
-      </c>
-      <c r="E122" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D122+1),0)</f>
-        <v>6771</v>
+        <f t="shared" si="17"/>
+        <v>863.48473036205746</v>
+      </c>
+      <c r="E122" s="2">
+        <f t="shared" si="18"/>
+        <v>6438</v>
       </c>
       <c r="F122" s="1">
-        <f t="shared" si="4"/>
-        <v>902.1204349239606</v>
+        <f t="shared" si="13"/>
+        <v>863.45603306517717</v>
       </c>
       <c r="G122" s="1">
-        <f t="shared" si="5"/>
-        <v>991.57218830080308</v>
+        <f t="shared" si="14"/>
+        <v>945.05760185692407</v>
       </c>
       <c r="H122" s="1">
-        <f t="shared" si="6"/>
-        <v>87.99892367583368</v>
+        <f t="shared" si="15"/>
+        <v>88.00117750616181</v>
       </c>
       <c r="I122" s="1">
-        <f>H122-B122</f>
-        <v>-1.0763241663198642E-3</v>
+        <f t="shared" si="19"/>
+        <v>1.1775061618095606E-3</v>
       </c>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.3">
@@ -4942,32 +4943,32 @@
         <v>89</v>
       </c>
       <c r="C123" s="1">
-        <f t="shared" si="7"/>
-        <v>962.04204499490004</v>
+        <f t="shared" si="16"/>
+        <v>916.40125692873733</v>
       </c>
       <c r="D123" s="1">
-        <f>1/(1/C123+1/B$6)</f>
-        <v>877.61207359549724</v>
-      </c>
-      <c r="E123" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D123+1),0)</f>
-        <v>6610</v>
+        <f t="shared" si="17"/>
+        <v>839.47194259380046</v>
+      </c>
+      <c r="E123" s="2">
+        <f t="shared" si="18"/>
+        <v>6280</v>
       </c>
       <c r="F123" s="1">
-        <f t="shared" si="4"/>
-        <v>877.63352606223657</v>
+        <f t="shared" si="13"/>
+        <v>839.39634061831111</v>
       </c>
       <c r="G123" s="1">
-        <f t="shared" si="5"/>
-        <v>962.06782370517612</v>
+        <f t="shared" si="14"/>
+        <v>916.31116444892416</v>
       </c>
       <c r="H123" s="1">
-        <f t="shared" si="6"/>
-        <v>88.999111120952989</v>
+        <f t="shared" si="15"/>
+        <v>89.003198858440953</v>
       </c>
       <c r="I123" s="1">
-        <f>H123-B123</f>
-        <v>-8.8887904701095977E-4</v>
+        <f t="shared" si="19"/>
+        <v>3.198858440953245E-3</v>
       </c>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.3">
@@ -4975,32 +4976,32 @@
         <v>90</v>
       </c>
       <c r="C124" s="1">
-        <f t="shared" si="7"/>
-        <v>933.57705779475566</v>
+        <f t="shared" si="16"/>
+        <v>888.73239242357477</v>
       </c>
       <c r="D124" s="1">
-        <f>1/(1/C124+1/B$6)</f>
-        <v>853.86242110873559</v>
-      </c>
-      <c r="E124" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D124+1),0)</f>
-        <v>6453</v>
+        <f t="shared" si="17"/>
+        <v>816.19453981802178</v>
+      </c>
+      <c r="E124" s="2">
+        <f t="shared" si="18"/>
+        <v>6127</v>
       </c>
       <c r="F124" s="1">
-        <f t="shared" si="4"/>
-        <v>853.91705557783212</v>
+        <f t="shared" si="13"/>
+        <v>816.25372431824235</v>
       </c>
       <c r="G124" s="1">
-        <f t="shared" si="5"/>
-        <v>933.64236992690087</v>
+        <f t="shared" si="14"/>
+        <v>888.80256467848426</v>
       </c>
       <c r="H124" s="1">
-        <f t="shared" si="6"/>
-        <v>89.997665216786402</v>
+        <f t="shared" si="15"/>
+        <v>89.997418415459549</v>
       </c>
       <c r="I124" s="1">
-        <f>H124-B124</f>
-        <v>-2.3347832135982571E-3</v>
+        <f t="shared" si="19"/>
+        <v>-2.5815845404508764E-3</v>
       </c>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.3">
@@ -5008,32 +5009,32 @@
         <v>91</v>
       </c>
       <c r="C125" s="1">
-        <f t="shared" si="7"/>
-        <v>906.10375155695078</v>
+        <f t="shared" si="16"/>
+        <v>862.04407326392243</v>
       </c>
       <c r="D125" s="1">
-        <f>1/(1/C125+1/B$6)</f>
-        <v>830.82260374388591</v>
-      </c>
-      <c r="E125" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D125+1),0)</f>
-        <v>6299</v>
+        <f t="shared" si="17"/>
+        <v>793.62969570872667</v>
+      </c>
+      <c r="E125" s="2">
+        <f t="shared" si="18"/>
+        <v>5976</v>
       </c>
       <c r="F125" s="1">
-        <f t="shared" si="4"/>
-        <v>830.80767672416289</v>
+        <f t="shared" si="13"/>
+        <v>793.56233935458999</v>
       </c>
       <c r="G125" s="1">
-        <f t="shared" si="5"/>
-        <v>906.08599692600171</v>
+        <f t="shared" si="14"/>
+        <v>861.96460412349984</v>
       </c>
       <c r="H125" s="1">
-        <f t="shared" si="6"/>
-        <v>91.000658656716837</v>
+        <f t="shared" si="15"/>
+        <v>91.003032869044603</v>
       </c>
       <c r="I125" s="1">
-        <f>H125-B125</f>
-        <v>6.5865671683695837E-4</v>
+        <f t="shared" si="19"/>
+        <v>3.0328690446026485E-3</v>
       </c>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.3">
@@ -5041,32 +5042,32 @@
         <v>92</v>
       </c>
       <c r="C126" s="1">
-        <f t="shared" si="7"/>
-        <v>879.58281980005268</v>
+        <f t="shared" si="16"/>
+        <v>836.29684362968771</v>
       </c>
       <c r="D126" s="1">
-        <f>1/(1/C126+1/B$6)</f>
-        <v>808.47109155626413</v>
-      </c>
-      <c r="E126" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D126+1),0)</f>
-        <v>6149</v>
+        <f t="shared" si="17"/>
+        <v>771.75519985992253</v>
+      </c>
+      <c r="E126" s="2">
+        <f t="shared" si="18"/>
+        <v>5830</v>
       </c>
       <c r="F126" s="1">
-        <f t="shared" si="4"/>
-        <v>808.44364767560307</v>
+        <f t="shared" si="13"/>
+        <v>771.76145328529878</v>
       </c>
       <c r="G126" s="1">
-        <f t="shared" si="5"/>
-        <v>879.55033585923741</v>
+        <f t="shared" si="14"/>
+        <v>836.30418674000327</v>
       </c>
       <c r="H126" s="1">
-        <f t="shared" si="6"/>
-        <v>92.001247516132366</v>
+        <f t="shared" si="15"/>
+        <v>91.999710497316357</v>
       </c>
       <c r="I126" s="1">
-        <f>H126-B126</f>
-        <v>1.2475161323663997E-3</v>
+        <f t="shared" si="19"/>
+        <v>-2.8950268364269505E-4</v>
       </c>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.3">
@@ -5074,32 +5075,32 @@
         <v>93</v>
       </c>
       <c r="C127" s="1">
-        <f t="shared" si="7"/>
-        <v>853.97669109353592</v>
+        <f t="shared" si="16"/>
+        <v>811.45301330659458</v>
       </c>
       <c r="D127" s="1">
-        <f>1/(1/C127+1/B$6)</f>
-        <v>786.78692187931892</v>
-      </c>
-      <c r="E127" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D127+1),0)</f>
-        <v>6003</v>
+        <f t="shared" si="17"/>
+        <v>750.54945187096382</v>
+      </c>
+      <c r="E127" s="2">
+        <f t="shared" si="18"/>
+        <v>5687</v>
       </c>
       <c r="F127" s="1">
-        <f t="shared" si="4"/>
-        <v>786.81220443411451</v>
+        <f t="shared" si="13"/>
+        <v>750.53988787301341</v>
       </c>
       <c r="G127" s="1">
-        <f t="shared" si="5"/>
-        <v>854.0064762522162</v>
+        <f t="shared" si="14"/>
+        <v>811.44183419849446</v>
       </c>
       <c r="H127" s="1">
-        <f t="shared" si="6"/>
-        <v>92.998817108162484</v>
+        <f t="shared" si="15"/>
+        <v>93.000458958033846</v>
       </c>
       <c r="I127" s="1">
-        <f>H127-B127</f>
-        <v>-1.1828918375158537E-3</v>
+        <f t="shared" si="19"/>
+        <v>4.589580338461019E-4</v>
       </c>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.3">
@@ -5107,32 +5108,32 @@
         <v>94</v>
       </c>
       <c r="C128" s="1">
-        <f t="shared" si="7"/>
-        <v>829.24944502410733</v>
+        <f t="shared" si="16"/>
+        <v>787.4765710900017</v>
       </c>
       <c r="D128" s="1">
-        <f>1/(1/C128+1/B$6)</f>
-        <v>765.74969413520716</v>
-      </c>
-      <c r="E128" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D128+1),0)</f>
-        <v>5860</v>
+        <f t="shared" si="17"/>
+        <v>729.99145435032221</v>
+      </c>
+      <c r="E128" s="2">
+        <f t="shared" si="18"/>
+        <v>5548</v>
       </c>
       <c r="F128" s="1">
-        <f t="shared" si="4"/>
-        <v>765.75429547284955</v>
+        <f t="shared" si="13"/>
+        <v>730.0353912003535</v>
       </c>
       <c r="G128" s="1">
-        <f t="shared" si="5"/>
-        <v>829.25484113708762</v>
+        <f t="shared" si="14"/>
+        <v>787.52770049128026</v>
       </c>
       <c r="H128" s="1">
-        <f t="shared" si="6"/>
-        <v>93.999778822516191</v>
+        <f t="shared" si="15"/>
+        <v>93.997830273838133</v>
       </c>
       <c r="I128" s="1">
-        <f>H128-B128</f>
-        <v>-2.2117748380878766E-4</v>
+        <f t="shared" si="19"/>
+        <v>-2.1697261618669472E-3</v>
       </c>
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.3">
@@ -5140,32 +5141,32 @@
         <v>95</v>
       </c>
       <c r="C129" s="1">
-        <f t="shared" si="7"/>
-        <v>805.36673257853829</v>
+        <f t="shared" si="16"/>
+        <v>764.33310279354691</v>
       </c>
       <c r="D129" s="1">
-        <f>1/(1/C129+1/B$6)</f>
-        <v>745.33956367286544</v>
-      </c>
-      <c r="E129" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D129+1),0)</f>
-        <v>5721</v>
+        <f t="shared" si="17"/>
+        <v>710.06080497006178</v>
+      </c>
+      <c r="E129" s="2">
+        <f t="shared" si="18"/>
+        <v>5412</v>
       </c>
       <c r="F129" s="1">
-        <f t="shared" si="4"/>
-        <v>745.40672227668301</v>
+        <f t="shared" si="13"/>
+        <v>710.09019113278441</v>
       </c>
       <c r="G129" s="1">
-        <f t="shared" si="5"/>
-        <v>805.44514481360045</v>
+        <f t="shared" si="14"/>
+        <v>764.36715290282325</v>
       </c>
       <c r="H129" s="1">
-        <f t="shared" si="6"/>
-        <v>94.996660357932285</v>
+        <f t="shared" si="15"/>
+        <v>94.998503450915109</v>
       </c>
       <c r="I129" s="1">
-        <f>H129-B129</f>
-        <v>-3.3396420677149763E-3</v>
+        <f t="shared" si="19"/>
+        <v>-1.4965490848908303E-3</v>
       </c>
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.3">
@@ -5173,32 +5174,32 @@
         <v>96</v>
       </c>
       <c r="C130" s="1">
-        <f t="shared" si="7"/>
-        <v>782.29570069330578</v>
+        <f t="shared" si="16"/>
+        <v>741.98971359938162</v>
       </c>
       <c r="D130" s="1">
-        <f>1/(1/C130+1/B$6)</f>
-        <v>725.53723474955689</v>
-      </c>
-      <c r="E130" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D130+1),0)</f>
-        <v>5584</v>
+        <f t="shared" si="17"/>
+        <v>690.73768769301751</v>
+      </c>
+      <c r="E130" s="2">
+        <f t="shared" si="18"/>
+        <v>5279</v>
       </c>
       <c r="F130" s="1">
-        <f t="shared" si="4"/>
-        <v>725.46790671986287</v>
+        <f t="shared" si="13"/>
+        <v>690.69568399711159</v>
       </c>
       <c r="G130" s="1">
-        <f t="shared" si="5"/>
-        <v>782.2151019839597</v>
+        <f t="shared" si="14"/>
+        <v>741.94124560928924</v>
       </c>
       <c r="H130" s="1">
-        <f t="shared" si="6"/>
-        <v>96.003555533600547</v>
+        <f t="shared" si="15"/>
+        <v>96.002208717338135</v>
       </c>
       <c r="I130" s="1">
-        <f>H130-B130</f>
-        <v>3.5555336005472782E-3</v>
+        <f t="shared" si="19"/>
+        <v>2.2087173381351022E-3</v>
       </c>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.3">
@@ -5206,32 +5207,32 @@
         <v>97</v>
       </c>
       <c r="C131" s="1">
-        <f t="shared" si="7"/>
-        <v>760.00492073640328</v>
+        <f t="shared" si="16"/>
+        <v>720.41495450281013</v>
       </c>
       <c r="D131" s="1">
-        <f>1/(1/C131+1/B$6)</f>
-        <v>706.32395276301543</v>
-      </c>
-      <c r="E131" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D131+1),0)</f>
-        <v>5452</v>
+        <f t="shared" si="17"/>
+        <v>672.00286328489551</v>
+      </c>
+      <c r="E131" s="2">
+        <f t="shared" si="18"/>
+        <v>5150</v>
       </c>
       <c r="F131" s="1">
-        <f t="shared" si="4"/>
-        <v>706.36477589660694</v>
+        <f t="shared" si="13"/>
+        <v>671.98819468569627</v>
       </c>
       <c r="G131" s="1">
-        <f t="shared" si="5"/>
-        <v>760.05218503156152</v>
+        <f t="shared" si="14"/>
+        <v>720.3980963047826</v>
       </c>
       <c r="H131" s="1">
-        <f t="shared" si="6"/>
-        <v>96.997843891038258</v>
+        <f t="shared" si="15"/>
+        <v>97.000796123142095</v>
       </c>
       <c r="I131" s="1">
-        <f>H131-B131</f>
-        <v>-2.1561089617421203E-3</v>
+        <f t="shared" si="19"/>
+        <v>7.9612314209498436E-4</v>
       </c>
     </row>
     <row r="132" spans="2:9" x14ac:dyDescent="0.3">
@@ -5239,32 +5240,32 @@
         <v>98</v>
       </c>
       <c r="C132" s="1">
-        <f t="shared" si="7"/>
-        <v>738.4643207007814</v>
+        <f t="shared" si="16"/>
+        <v>699.57875261916683</v>
       </c>
       <c r="D132" s="1">
-        <f>1/(1/C132+1/B$6)</f>
-        <v>687.68149583290688</v>
-      </c>
-      <c r="E132" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D132+1),0)</f>
-        <v>5322</v>
+        <f t="shared" si="17"/>
+        <v>653.83765921430859</v>
+      </c>
+      <c r="E132" s="2">
+        <f t="shared" si="18"/>
+        <v>5024</v>
       </c>
       <c r="F132" s="1">
-        <f t="shared" si="4"/>
-        <v>687.65381201891125</v>
+        <f t="shared" si="13"/>
+        <v>653.81356557873278</v>
       </c>
       <c r="G132" s="1">
-        <f t="shared" si="5"/>
-        <v>738.43239731188976</v>
+        <f t="shared" si="14"/>
+        <v>699.5511700588263</v>
       </c>
       <c r="H132" s="1">
-        <f t="shared" si="6"/>
-        <v>98.001508573392243</v>
+        <f t="shared" si="15"/>
+        <v>98.001348010088293</v>
       </c>
       <c r="I132" s="1">
-        <f>H132-B132</f>
-        <v>1.5085733922433064E-3</v>
+        <f t="shared" si="19"/>
+        <v>1.3480100882929946E-3</v>
       </c>
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.3">
@@ -5272,32 +5273,32 @@
         <v>99</v>
       </c>
       <c r="C133" s="1">
-        <f t="shared" si="7"/>
-        <v>717.64512090214896</v>
+        <f t="shared" si="16"/>
+        <v>679.45234513486037</v>
       </c>
       <c r="D133" s="1">
-        <f>1/(1/C133+1/B$6)</f>
-        <v>669.59216582246916</v>
-      </c>
-      <c r="E133" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D133+1),0)</f>
-        <v>5196</v>
+        <f t="shared" si="17"/>
+        <v>636.22395903512052</v>
+      </c>
+      <c r="E133" s="2">
+        <f t="shared" si="18"/>
+        <v>4901</v>
       </c>
       <c r="F133" s="1">
-        <f t="shared" si="4"/>
-        <v>669.61507019388512</v>
+        <f t="shared" si="13"/>
+        <v>636.16415520250905</v>
       </c>
       <c r="G133" s="1">
-        <f t="shared" si="5"/>
-        <v>717.67143074106764</v>
+        <f t="shared" si="14"/>
+        <v>679.38413887932404</v>
       </c>
       <c r="H133" s="1">
-        <f t="shared" si="6"/>
-        <v>98.9987155680559</v>
+        <f t="shared" si="15"/>
+        <v>99.003449279076051</v>
       </c>
       <c r="I133" s="1">
-        <f>H133-B133</f>
-        <v>-1.2844319441001062E-3</v>
+        <f t="shared" si="19"/>
+        <v>3.4492790760509706E-3</v>
       </c>
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.3">
@@ -5305,32 +5306,32 @@
         <v>100</v>
       </c>
       <c r="C134" s="1">
-        <f t="shared" si="7"/>
-        <v>697.51977298618806</v>
+        <f t="shared" si="16"/>
+        <v>660.0082166976332</v>
       </c>
       <c r="D134" s="1">
-        <f>1/(1/C134+1/B$6)</f>
-        <v>652.03877888367481</v>
-      </c>
-      <c r="E134" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D134+1),0)</f>
-        <v>5073</v>
+        <f t="shared" si="17"/>
+        <v>619.14419133730962</v>
+      </c>
+      <c r="E134" s="2">
+        <f t="shared" si="18"/>
+        <v>4782</v>
       </c>
       <c r="F134" s="1">
-        <f t="shared" si="4"/>
-        <v>652.09672886602698</v>
+        <f t="shared" si="13"/>
+        <v>619.17500716144218</v>
       </c>
       <c r="G134" s="1">
-        <f t="shared" si="5"/>
-        <v>697.58608957762851</v>
+        <f t="shared" si="14"/>
+        <v>660.04323461329716</v>
       </c>
       <c r="H134" s="1">
-        <f t="shared" si="6"/>
-        <v>99.996649701064086</v>
+        <f t="shared" si="15"/>
+        <v>99.998168779386447</v>
       </c>
       <c r="I134" s="1">
-        <f>H134-B134</f>
-        <v>-3.3502989359135427E-3</v>
+        <f t="shared" si="19"/>
+        <v>-1.8312206135533415E-3</v>
       </c>
     </row>
     <row r="135" spans="2:9" x14ac:dyDescent="0.3">
@@ -5338,32 +5339,32 @@
         <v>101</v>
       </c>
       <c r="C135" s="1">
-        <f t="shared" si="7"/>
-        <v>678.06190206183987</v>
+        <f t="shared" si="16"/>
+        <v>641.22004005340114</v>
       </c>
       <c r="D135" s="1">
-        <f>1/(1/C135+1/B$6)</f>
-        <v>635.00465560226064</v>
-      </c>
-      <c r="E135" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D135+1),0)</f>
-        <v>4952</v>
+        <f t="shared" si="17"/>
+        <v>602.5813183449435</v>
+      </c>
+      <c r="E135" s="2">
+        <f t="shared" si="18"/>
+        <v>4665</v>
       </c>
       <c r="F135" s="1">
-        <f t="shared" si="4"/>
-        <v>634.95020079470851</v>
+        <f t="shared" si="13"/>
+        <v>602.55351590843509</v>
       </c>
       <c r="G135" s="1">
-        <f t="shared" si="5"/>
-        <v>677.99981250349549</v>
+        <f t="shared" si="14"/>
+        <v>641.18855790077214</v>
       </c>
       <c r="H135" s="1">
-        <f t="shared" si="6"/>
-        <v>101.00324639146152</v>
+        <f t="shared" si="15"/>
+        <v>101.00170567100872</v>
       </c>
       <c r="I135" s="1">
-        <f>H135-B135</f>
-        <v>3.2463914615163958E-3</v>
+        <f t="shared" si="19"/>
+        <v>1.7056710087217652E-3</v>
       </c>
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.3">
@@ -5371,32 +5372,32 @@
         <v>102</v>
       </c>
       <c r="C136" s="1">
-        <f t="shared" si="7"/>
-        <v>659.24625178819122</v>
+        <f t="shared" si="16"/>
+        <v>623.06261974857978</v>
       </c>
       <c r="D136" s="1">
-        <f>1/(1/C136+1/B$6)</f>
-        <v>618.4736108123933</v>
-      </c>
-      <c r="E136" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D136+1),0)</f>
-        <v>4835</v>
+        <f t="shared" si="17"/>
+        <v>586.51882423274844</v>
+      </c>
+      <c r="E136" s="2">
+        <f t="shared" si="18"/>
+        <v>4552</v>
       </c>
       <c r="F136" s="1">
-        <f t="shared" si="4"/>
-        <v>618.45190890826211</v>
+        <f t="shared" si="13"/>
+        <v>586.5770207155382</v>
       </c>
       <c r="G136" s="1">
-        <f t="shared" si="5"/>
-        <v>659.22159424361314</v>
+        <f t="shared" si="14"/>
+        <v>623.12829457082933</v>
       </c>
       <c r="H136" s="1">
-        <f t="shared" si="6"/>
-        <v>102.00133369052747</v>
+        <f t="shared" si="15"/>
+        <v>101.9963220172304</v>
       </c>
       <c r="I136" s="1">
-        <f>H136-B136</f>
-        <v>1.3336905274741184E-3</v>
+        <f t="shared" si="19"/>
+        <v>-3.6779827696022949E-3</v>
       </c>
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.3">
@@ -5404,32 +5405,32 @@
         <v>103</v>
       </c>
       <c r="C137" s="1">
-        <f t="shared" si="7"/>
-        <v>641.04863225265444</v>
+        <f t="shared" si="16"/>
+        <v>605.51183872759282</v>
       </c>
       <c r="D137" s="1">
-        <f>1/(1/C137+1/B$6)</f>
-        <v>602.42994314456746</v>
-      </c>
-      <c r="E137" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D137+1),0)</f>
-        <v>4721</v>
+        <f t="shared" ref="D137:D168" si="20">1/(1/C137+1/B$6)</f>
+        <v>570.94070322610639</v>
+      </c>
+      <c r="E137" s="2">
+        <f t="shared" ref="E137:E168" si="21">ROUND((B$1/B$3*B$4)/(B$5/D137+1),0)</f>
+        <v>4441</v>
       </c>
       <c r="F137" s="1">
-        <f t="shared" si="4"/>
-        <v>602.45308078636469</v>
+        <f t="shared" si="13"/>
+        <v>570.95619146534852</v>
       </c>
       <c r="G137" s="1">
-        <f t="shared" si="5"/>
-        <v>641.07483151228212</v>
+        <f t="shared" si="14"/>
+        <v>605.52925944468564</v>
       </c>
       <c r="H137" s="1">
-        <f t="shared" si="6"/>
-        <v>102.99853712652202</v>
+        <f t="shared" si="15"/>
+        <v>102.99899145757377</v>
       </c>
       <c r="I137" s="1">
-        <f>H137-B137</f>
-        <v>-1.4628734779762453E-3</v>
+        <f t="shared" ref="I137:I168" si="22">H137-B137</f>
+        <v>-1.0085424262342713E-3</v>
       </c>
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.3">
@@ -5437,32 +5438,32 @@
         <v>104</v>
       </c>
       <c r="C138" s="1">
-        <f t="shared" si="7"/>
-        <v>623.44587048764549</v>
+        <f t="shared" si="16"/>
+        <v>588.54460766533714</v>
       </c>
       <c r="D138" s="1">
-        <f>1/(1/C138+1/B$6)</f>
-        <v>586.85842436454902</v>
-      </c>
-      <c r="E138" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D138+1),0)</f>
-        <v>4609</v>
+        <f t="shared" si="20"/>
+        <v>555.83144754310581</v>
+      </c>
+      <c r="E138" s="2">
+        <f t="shared" si="21"/>
+        <v>4333</v>
       </c>
       <c r="F138" s="1">
-        <f t="shared" ref="F138:F159" si="8">B$5 / (B$1 / ((E138/B$4)*B$3)- 1)</f>
-        <v>586.80788084068695</v>
+        <f t="shared" ref="F138:F159" si="23">B$5 / (B$1 / ((E138/B$4)*B$3)- 1)</f>
+        <v>555.82641325265047</v>
       </c>
       <c r="G138" s="1">
-        <f t="shared" ref="G138:G159" si="9">1/(1/F138-1/B$6)</f>
-        <v>623.38882858485033</v>
+        <f t="shared" ref="G138:G159" si="24">1/(1/F138-1/B$6)</f>
+        <v>588.53896335897571</v>
       </c>
       <c r="H138" s="1">
-        <f t="shared" ref="H138:H159" si="10">1/(1/(I$1+273.15)+LOG(G138/B$6,2.7182818)*(1/B$2))-273.15</f>
-        <v>104.00329600550623</v>
+        <f t="shared" ref="H138:H159" si="25">1/(1/(I$1+273.15)+LOG(G138/B$6,2.7182818)*(1/B$2))-273.15</f>
+        <v>104.00033937691552</v>
       </c>
       <c r="I138" s="1">
-        <f>H138-B138</f>
-        <v>3.2960055062289939E-3</v>
+        <f t="shared" si="22"/>
+        <v>3.393769155195514E-4</v>
       </c>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.3">
@@ -5470,32 +5471,32 @@
         <v>105</v>
       </c>
       <c r="C139" s="1">
-        <f t="shared" ref="C139:C159" si="11">B$6*EXP((1/(B139+273.15)-1/(I$1+273.15))*$B$2)</f>
-        <v>606.41576348196213</v>
+        <f t="shared" ref="C139:C159" si="26">B$6*EXP((1/(B139+273.15)-1/(I$1+273.15))*$B$2)</f>
+        <v>572.13881688391132</v>
       </c>
       <c r="D139" s="1">
-        <f>1/(1/C139+1/B$6)</f>
-        <v>571.744288555857</v>
-      </c>
-      <c r="E139" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D139+1),0)</f>
-        <v>4501</v>
+        <f t="shared" si="20"/>
+        <v>541.17603523157914</v>
+      </c>
+      <c r="E139" s="2">
+        <f t="shared" si="21"/>
+        <v>4228</v>
       </c>
       <c r="F139" s="1">
-        <f t="shared" si="8"/>
-        <v>571.7894436806381</v>
+        <f t="shared" si="23"/>
+        <v>541.18159023795431</v>
       </c>
       <c r="G139" s="1">
-        <f t="shared" si="9"/>
-        <v>606.46656145941711</v>
+        <f t="shared" si="24"/>
+        <v>572.14502572480274</v>
       </c>
       <c r="H139" s="1">
-        <f t="shared" si="10"/>
-        <v>104.99696866997618</v>
+        <f t="shared" si="25"/>
+        <v>104.99961619233767</v>
       </c>
       <c r="I139" s="1">
-        <f>H139-B139</f>
-        <v>-3.031330023816281E-3</v>
+        <f t="shared" si="22"/>
+        <v>-3.8380766233103714E-4</v>
       </c>
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.3">
@@ -5503,32 +5504,32 @@
         <v>106</v>
       </c>
       <c r="C140" s="1">
-        <f t="shared" si="11"/>
-        <v>589.93703355138325</v>
+        <f t="shared" si="26"/>
+        <v>556.2732907117263</v>
       </c>
       <c r="D140" s="1">
-        <f>1/(1/C140+1/B$6)</f>
-        <v>557.07322119321907</v>
-      </c>
-      <c r="E140" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D140+1),0)</f>
-        <v>4395</v>
+        <f t="shared" si="20"/>
+        <v>526.95991794867712</v>
+      </c>
+      <c r="E140" s="2">
+        <f t="shared" si="21"/>
+        <v>4126</v>
       </c>
       <c r="F140" s="1">
-        <f t="shared" si="8"/>
-        <v>557.11361891313879</v>
+        <f t="shared" si="23"/>
+        <v>527.01585991690604</v>
       </c>
       <c r="G140" s="1">
-        <f t="shared" si="9"/>
-        <v>589.98233848178097</v>
+        <f t="shared" si="24"/>
+        <v>556.33562995945567</v>
       </c>
       <c r="H140" s="1">
-        <f t="shared" si="10"/>
-        <v>105.99720631556124</v>
+        <f t="shared" si="25"/>
+        <v>105.99600580925312</v>
       </c>
       <c r="I140" s="1">
-        <f>H140-B140</f>
-        <v>-2.7936844387568271E-3</v>
+        <f t="shared" si="22"/>
+        <v>-3.9941907468801219E-3</v>
       </c>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.3">
@@ -5536,32 +5537,32 @@
         <v>107</v>
       </c>
       <c r="C141" s="1">
-        <f t="shared" si="11"/>
-        <v>573.98928594092331</v>
+        <f t="shared" si="26"/>
+        <v>540.92774415148949</v>
       </c>
       <c r="D141" s="1">
-        <f>1/(1/C141+1/B$6)</f>
-        <v>542.831348149836</v>
-      </c>
-      <c r="E141" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D141+1),0)</f>
-        <v>4291</v>
+        <f t="shared" si="20"/>
+        <v>513.16900872564747</v>
+      </c>
+      <c r="E141" s="2">
+        <f t="shared" si="21"/>
+        <v>4026</v>
       </c>
       <c r="F141" s="1">
-        <f t="shared" si="8"/>
-        <v>542.77638724663416</v>
+        <f t="shared" si="23"/>
+        <v>513.18556554600866</v>
       </c>
       <c r="G141" s="1">
-        <f t="shared" si="9"/>
-        <v>573.92783492470562</v>
+        <f t="shared" si="24"/>
+        <v>540.94614065837879</v>
       </c>
       <c r="H141" s="1">
-        <f t="shared" si="10"/>
-        <v>107.00391820587845</v>
+        <f t="shared" si="25"/>
+        <v>106.99878217011121</v>
       </c>
       <c r="I141" s="1">
-        <f>H141-B141</f>
-        <v>3.9182058784490437E-3</v>
+        <f t="shared" si="22"/>
+        <v>-1.2178298887874917E-3</v>
       </c>
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.3">
@@ -5569,32 +5570,32 @@
         <v>108</v>
       </c>
       <c r="C142" s="1">
-        <f t="shared" si="11"/>
-        <v>558.55296853852633</v>
+        <f t="shared" si="26"/>
+        <v>526.08274173132236</v>
       </c>
       <c r="D142" s="1">
-        <f>1/(1/C142+1/B$6)</f>
-        <v>529.00522467695589</v>
-      </c>
-      <c r="E142" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D142+1),0)</f>
-        <v>4191</v>
+        <f t="shared" si="20"/>
+        <v>499.78966975590453</v>
+      </c>
+      <c r="E142" s="2">
+        <f t="shared" si="21"/>
+        <v>3929</v>
       </c>
       <c r="F142" s="1">
-        <f t="shared" si="8"/>
-        <v>529.04784709111777</v>
+        <f t="shared" si="23"/>
+        <v>499.82440669990001</v>
       </c>
       <c r="G142" s="1">
-        <f t="shared" si="9"/>
-        <v>558.600485515733</v>
+        <f t="shared" si="24"/>
+        <v>526.12122985642077</v>
       </c>
       <c r="H142" s="1">
-        <f t="shared" si="10"/>
-        <v>107.99687245956608</v>
+        <f t="shared" si="25"/>
+        <v>107.99736523385951</v>
       </c>
       <c r="I142" s="1">
-        <f>H142-B142</f>
-        <v>-3.1275404339226043E-3</v>
+        <f t="shared" si="22"/>
+        <v>-2.6347661404884093E-3</v>
       </c>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.3">
@@ -5602,32 +5603,32 @@
         <v>109</v>
       </c>
       <c r="C143" s="1">
-        <f t="shared" si="11"/>
-        <v>543.60933358693057</v>
+        <f t="shared" si="26"/>
+        <v>511.71965842061525</v>
       </c>
       <c r="D143" s="1">
-        <f>1/(1/C143+1/B$6)</f>
-        <v>515.58182439029622</v>
-      </c>
-      <c r="E143" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D143+1),0)</f>
-        <v>4093</v>
+        <f t="shared" si="20"/>
+        <v>486.80870024030031</v>
+      </c>
+      <c r="E143" s="2">
+        <f t="shared" si="21"/>
+        <v>3834</v>
       </c>
       <c r="F143" s="1">
-        <f t="shared" si="8"/>
-        <v>515.64800742798218</v>
+        <f t="shared" si="23"/>
+        <v>486.79018683369492</v>
       </c>
       <c r="G143" s="1">
-        <f t="shared" si="9"/>
-        <v>543.68290825965641</v>
+        <f t="shared" si="24"/>
+        <v>511.69920184034629</v>
       </c>
       <c r="H143" s="1">
-        <f t="shared" si="10"/>
-        <v>108.99499759155134</v>
+        <f t="shared" si="25"/>
+        <v>109.00144909356413</v>
       </c>
       <c r="I143" s="1">
-        <f>H143-B143</f>
-        <v>-5.0024084486608444E-3</v>
+        <f t="shared" si="22"/>
+        <v>1.4490935641333635E-3</v>
       </c>
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.3">
@@ -5635,32 +5636,32 @@
         <v>110</v>
       </c>
       <c r="C144" s="1">
-        <f t="shared" si="11"/>
-        <v>529.14040128691556</v>
+        <f t="shared" si="26"/>
+        <v>497.82064249906784</v>
       </c>
       <c r="D144" s="1">
-        <f>1/(1/C144+1/B$6)</f>
-        <v>502.54852829414432</v>
-      </c>
-      <c r="E144" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D144+1),0)</f>
-        <v>3997</v>
+        <f t="shared" si="20"/>
+        <v>474.21332431962639</v>
+      </c>
+      <c r="E144" s="2">
+        <f t="shared" si="21"/>
+        <v>3742</v>
       </c>
       <c r="F144" s="1">
-        <f t="shared" si="8"/>
-        <v>502.57327790088215</v>
+        <f t="shared" si="23"/>
+        <v>474.21582103544233</v>
       </c>
       <c r="G144" s="1">
-        <f t="shared" si="9"/>
-        <v>529.1678394648394</v>
+        <f t="shared" si="24"/>
+        <v>497.82339398643512</v>
       </c>
       <c r="H144" s="1">
-        <f t="shared" si="10"/>
-        <v>109.99807401156846</v>
+        <f t="shared" si="25"/>
+        <v>109.99979990545239</v>
       </c>
       <c r="I144" s="1">
-        <f>H144-B144</f>
-        <v>-1.925988431537462E-3</v>
+        <f t="shared" si="22"/>
+        <v>-2.0009454760838707E-4</v>
       </c>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.3">
@@ -5668,32 +5669,32 @@
         <v>111</v>
       </c>
       <c r="C145" s="1">
-        <f t="shared" si="11"/>
-        <v>515.12892519125728</v>
+        <f t="shared" si="26"/>
+        <v>484.36858027381663</v>
       </c>
       <c r="D145" s="1">
-        <f>1/(1/C145+1/B$6)</f>
-        <v>489.89311387058217</v>
-      </c>
-      <c r="E145" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D145+1),0)</f>
-        <v>3904</v>
+        <f t="shared" si="20"/>
+        <v>461.99117912083796</v>
+      </c>
+      <c r="E145" s="2">
+        <f t="shared" si="21"/>
+        <v>3652</v>
       </c>
       <c r="F145" s="1">
-        <f t="shared" si="8"/>
-        <v>489.95559122152935</v>
+        <f t="shared" si="23"/>
+        <v>461.9604876957564</v>
       </c>
       <c r="G145" s="1">
-        <f t="shared" si="9"/>
-        <v>515.19800556269149</v>
+        <f t="shared" si="24"/>
+        <v>484.33484375884478</v>
       </c>
       <c r="H145" s="1">
-        <f t="shared" si="10"/>
-        <v>110.99499149685732</v>
+        <f t="shared" si="25"/>
+        <v>111.00255047460439</v>
       </c>
       <c r="I145" s="1">
-        <f>H145-B145</f>
-        <v>-5.0085031426760906E-3</v>
+        <f t="shared" si="22"/>
+        <v>2.5504746043907289E-3</v>
       </c>
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.3">
@@ -5701,32 +5702,32 @@
         <v>112</v>
       </c>
       <c r="C146" s="1">
-        <f t="shared" si="11"/>
-        <v>501.55835929445976</v>
+        <f t="shared" si="26"/>
+        <v>471.34706254560405</v>
       </c>
       <c r="D146" s="1">
-        <f>1/(1/C146+1/B$6)</f>
-        <v>477.60374425815854</v>
-      </c>
-      <c r="E146" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D146+1),0)</f>
-        <v>3813</v>
+        <f t="shared" si="20"/>
+        <v>450.13030294023957</v>
+      </c>
+      <c r="E146" s="2">
+        <f t="shared" si="21"/>
+        <v>3565</v>
       </c>
       <c r="F146" s="1">
-        <f t="shared" si="8"/>
-        <v>477.6551525680083</v>
+        <f t="shared" si="23"/>
+        <v>450.15637131200918</v>
       </c>
       <c r="G146" s="1">
-        <f t="shared" si="9"/>
-        <v>501.61505408704397</v>
+        <f t="shared" si="24"/>
+        <v>471.37564636108505</v>
       </c>
       <c r="H146" s="1">
-        <f t="shared" si="10"/>
-        <v>111.99575639764424</v>
+        <f t="shared" si="25"/>
+        <v>111.99777015901628</v>
       </c>
       <c r="I146" s="1">
-        <f>H146-B146</f>
-        <v>-4.2436023557570479E-3</v>
+        <f t="shared" si="22"/>
+        <v>-2.2298409837162581E-3</v>
       </c>
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.3">
@@ -5734,32 +5735,32 @@
         <v>113</v>
       </c>
       <c r="C147" s="1">
-        <f t="shared" si="11"/>
-        <v>488.41282672869647</v>
+        <f t="shared" si="26"/>
+        <v>458.74035273060008</v>
       </c>
       <c r="D147" s="1">
-        <f>1/(1/C147+1/B$6)</f>
-        <v>465.66895754143479</v>
-      </c>
-      <c r="E147" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D147+1),0)</f>
-        <v>3724</v>
+        <f t="shared" si="20"/>
+        <v>438.6191235838748</v>
+      </c>
+      <c r="E147" s="2">
+        <f t="shared" si="21"/>
+        <v>3480</v>
       </c>
       <c r="F147" s="1">
-        <f t="shared" si="8"/>
-        <v>465.66872666841994</v>
+        <f t="shared" si="23"/>
+        <v>438.6639434042396</v>
       </c>
       <c r="G147" s="1">
-        <f t="shared" si="9"/>
-        <v>488.41257275267861</v>
+        <f t="shared" si="24"/>
+        <v>458.78937923286679</v>
       </c>
       <c r="H147" s="1">
-        <f t="shared" si="10"/>
-        <v>113.00002082326677</v>
+        <f t="shared" si="25"/>
+        <v>112.99604909367912</v>
       </c>
       <c r="I147" s="1">
-        <f>H147-B147</f>
-        <v>2.0823266766001325E-5</v>
+        <f t="shared" si="22"/>
+        <v>-3.9509063208811313E-3</v>
       </c>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.3">
@@ -5767,32 +5768,32 @@
         <v>114</v>
       </c>
       <c r="C148" s="1">
-        <f t="shared" si="11"/>
-        <v>475.67708998146702</v>
+        <f t="shared" si="26"/>
+        <v>446.5333565498396</v>
       </c>
       <c r="D148" s="1">
-        <f>1/(1/C148+1/B$6)</f>
-        <v>454.07765617020237</v>
-      </c>
-      <c r="E148" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D148+1),0)</f>
-        <v>3638</v>
+        <f t="shared" si="20"/>
+        <v>427.44644688265805</v>
+      </c>
+      <c r="E148" s="2">
+        <f t="shared" si="21"/>
+        <v>3397</v>
       </c>
       <c r="F148" s="1">
-        <f t="shared" si="8"/>
-        <v>454.12714690936662</v>
+        <f t="shared" si="23"/>
+        <v>427.48019120609541</v>
       </c>
       <c r="G148" s="1">
-        <f t="shared" si="9"/>
-        <v>475.73140130641423</v>
+        <f t="shared" si="24"/>
+        <v>446.57018187978656</v>
       </c>
       <c r="H148" s="1">
-        <f t="shared" si="10"/>
-        <v>113.99566899544897</v>
+        <f t="shared" si="25"/>
+        <v>113.996935652866</v>
       </c>
       <c r="I148" s="1">
-        <f>H148-B148</f>
-        <v>-4.3310045510338568E-3</v>
+        <f t="shared" si="22"/>
+        <v>-3.0643471339999451E-3</v>
       </c>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.3">
@@ -5800,32 +5801,32 @@
         <v>115</v>
       </c>
       <c r="C149" s="1">
-        <f t="shared" si="11"/>
-        <v>463.33652255524424</v>
+        <f t="shared" si="26"/>
+        <v>434.71159320324182</v>
       </c>
       <c r="D149" s="1">
-        <f>1/(1/C149+1/B$6)</f>
-        <v>442.81909652476054</v>
-      </c>
-      <c r="E149" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D149+1),0)</f>
-        <v>3553</v>
+        <f t="shared" si="20"/>
+        <v>416.60144539729851</v>
+      </c>
+      <c r="E149" s="2">
+        <f t="shared" si="21"/>
+        <v>3316</v>
       </c>
       <c r="F149" s="1">
-        <f t="shared" si="8"/>
-        <v>442.7589784495766</v>
+        <f t="shared" si="23"/>
+        <v>416.60219752215005</v>
       </c>
       <c r="G149" s="1">
-        <f t="shared" si="9"/>
-        <v>463.27070485217286</v>
+        <f t="shared" si="24"/>
+        <v>434.71241214095778</v>
       </c>
       <c r="H149" s="1">
-        <f t="shared" si="10"/>
-        <v>115.00541980295264</v>
+        <f t="shared" si="25"/>
+        <v>114.99993083395213</v>
       </c>
       <c r="I149" s="1">
-        <f>H149-B149</f>
-        <v>5.4198029526446589E-3</v>
+        <f t="shared" si="22"/>
+        <v>-6.9166047865110158E-5</v>
       </c>
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.3">
@@ -5833,32 +5834,32 @@
         <v>116</v>
       </c>
       <c r="C150" s="1">
-        <f t="shared" si="11"/>
-        <v>451.37708199382428</v>
+        <f t="shared" si="26"/>
+        <v>423.26116794986268</v>
       </c>
       <c r="D150" s="1">
-        <f>1/(1/C150+1/B$6)</f>
-        <v>431.88287864139954</v>
-      </c>
-      <c r="E150" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D150+1),0)</f>
-        <v>3471</v>
+        <f t="shared" si="20"/>
+        <v>406.07364732578543</v>
+      </c>
+      <c r="E150" s="2">
+        <f t="shared" si="21"/>
+        <v>3237</v>
       </c>
       <c r="F150" s="1">
-        <f t="shared" si="8"/>
-        <v>431.82879029797027</v>
+        <f t="shared" si="23"/>
+        <v>406.02713874513131</v>
       </c>
       <c r="G150" s="1">
-        <f t="shared" si="9"/>
-        <v>451.3180009363756</v>
+        <f t="shared" si="24"/>
+        <v>423.21063923879382</v>
       </c>
       <c r="H150" s="1">
-        <f t="shared" si="10"/>
-        <v>116.00501981091202</v>
+        <f t="shared" si="25"/>
+        <v>116.00448533304814</v>
       </c>
       <c r="I150" s="1">
-        <f>H150-B150</f>
-        <v>5.0198109120174195E-3</v>
+        <f t="shared" si="22"/>
+        <v>4.4853330481373632E-3</v>
       </c>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.3">
@@ -5866,32 +5867,32 @@
         <v>117</v>
       </c>
       <c r="C151" s="1">
-        <f t="shared" si="11"/>
-        <v>439.78528420433872</v>
+        <f t="shared" si="26"/>
+        <v>412.16874602049023</v>
       </c>
       <c r="D151" s="1">
-        <f>1/(1/C151+1/B$6)</f>
-        <v>421.25893611025225</v>
-      </c>
-      <c r="E151" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D151+1),0)</f>
-        <v>3391</v>
+        <f t="shared" si="20"/>
+        <v>395.85292562418402</v>
+      </c>
+      <c r="E151" s="2">
+        <f t="shared" si="21"/>
+        <v>3161</v>
       </c>
       <c r="F151" s="1">
-        <f t="shared" si="8"/>
-        <v>421.19980097491134</v>
+        <f t="shared" si="23"/>
+        <v>395.88551777764849</v>
       </c>
       <c r="G151" s="1">
-        <f t="shared" si="9"/>
-        <v>439.72083374051397</v>
+        <f t="shared" si="24"/>
+        <v>412.20408035582085</v>
       </c>
       <c r="H151" s="1">
-        <f t="shared" si="10"/>
-        <v>117.00564919423579</v>
+        <f t="shared" si="25"/>
+        <v>116.99676500820811</v>
       </c>
       <c r="I151" s="1">
-        <f>H151-B151</f>
-        <v>5.649194235786581E-3</v>
+        <f t="shared" si="22"/>
+        <v>-3.2349917918850224E-3</v>
       </c>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.3">
@@ -5899,32 +5900,32 @@
         <v>118</v>
       </c>
       <c r="C152" s="1">
-        <f t="shared" si="11"/>
-        <v>428.54817900780245</v>
+        <f t="shared" si="26"/>
+        <v>401.42152779280389</v>
       </c>
       <c r="D152" s="1">
-        <f>1/(1/C152+1/B$6)</f>
-        <v>410.93752615579859</v>
-      </c>
-      <c r="E152" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D152+1),0)</f>
-        <v>3314</v>
+        <f t="shared" si="20"/>
+        <v>385.92948734958742</v>
+      </c>
+      <c r="E152" s="2">
+        <f t="shared" si="21"/>
+        <v>3086</v>
       </c>
       <c r="F152" s="1">
-        <f t="shared" si="8"/>
-        <v>411.00152733681574</v>
+        <f t="shared" si="23"/>
+        <v>385.90782010363654</v>
       </c>
       <c r="G152" s="1">
-        <f t="shared" si="9"/>
-        <v>428.61778371174029</v>
+        <f t="shared" si="24"/>
+        <v>401.39808614545285</v>
       </c>
       <c r="H152" s="1">
-        <f t="shared" si="10"/>
-        <v>117.99371076144325</v>
+        <f t="shared" si="25"/>
+        <v>118.00221727230593</v>
       </c>
       <c r="I152" s="1">
-        <f>H152-B152</f>
-        <v>-6.2892385567465681E-3</v>
+        <f t="shared" si="22"/>
+        <v>2.2172723059270538E-3</v>
       </c>
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.3">
@@ -5932,32 +5933,32 @@
         <v>119</v>
       </c>
       <c r="C153" s="1">
-        <f t="shared" si="11"/>
-        <v>417.65332685483179</v>
+        <f t="shared" si="26"/>
+        <v>391.00722516327136</v>
       </c>
       <c r="D153" s="1">
-        <f>1/(1/C153+1/B$6)</f>
-        <v>400.90921990866872</v>
-      </c>
-      <c r="E153" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D153+1),0)</f>
-        <v>3238</v>
+        <f t="shared" si="20"/>
+        <v>376.29386323242363</v>
+      </c>
+      <c r="E153" s="2">
+        <f t="shared" si="21"/>
+        <v>3014</v>
       </c>
       <c r="F153" s="1">
-        <f t="shared" si="8"/>
-        <v>400.96645839572602</v>
+        <f t="shared" si="23"/>
+        <v>376.35758892755092</v>
       </c>
       <c r="G153" s="1">
-        <f t="shared" si="9"/>
-        <v>417.7154467247679</v>
+        <f t="shared" si="24"/>
+        <v>391.0760321835462</v>
       </c>
       <c r="H153" s="1">
-        <f t="shared" si="10"/>
-        <v>118.99421123212755</v>
+        <f t="shared" si="25"/>
+        <v>118.9932903096975</v>
       </c>
       <c r="I153" s="1">
-        <f>H153-B153</f>
-        <v>-5.7887678724455327E-3</v>
+        <f t="shared" si="22"/>
+        <v>-6.7096903025003485E-3</v>
       </c>
     </row>
     <row r="154" spans="2:9" x14ac:dyDescent="0.3">
@@ -5965,32 +5966,32 @@
         <v>120</v>
       </c>
       <c r="C154" s="1">
-        <f t="shared" si="11"/>
-        <v>407.08877664662782</v>
+        <f t="shared" si="26"/>
+        <v>380.91403905358931</v>
       </c>
       <c r="D154" s="1">
-        <f>1/(1/C154+1/B$6)</f>
-        <v>391.1648928758346</v>
-      </c>
-      <c r="E154" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D154+1),0)</f>
-        <v>3164</v>
+        <f t="shared" si="20"/>
+        <v>366.9368974837563</v>
+      </c>
+      <c r="E154" s="2">
+        <f t="shared" si="21"/>
+        <v>2943</v>
       </c>
       <c r="F154" s="1">
-        <f t="shared" si="8"/>
-        <v>391.22470015120314</v>
+        <f t="shared" si="23"/>
+        <v>366.96708435807261</v>
       </c>
       <c r="G154" s="1">
-        <f t="shared" si="9"/>
-        <v>407.15355281266636</v>
+        <f t="shared" si="24"/>
+        <v>380.94656955048782</v>
       </c>
       <c r="H154" s="1">
-        <f t="shared" si="10"/>
-        <v>119.99377538264849</v>
+        <f t="shared" si="25"/>
+        <v>119.9967276211396</v>
       </c>
       <c r="I154" s="1">
-        <f>H154-B154</f>
-        <v>-6.2246173515063674E-3</v>
+        <f t="shared" si="22"/>
+        <v>-3.272378860401659E-3</v>
       </c>
     </row>
     <row r="155" spans="2:9" x14ac:dyDescent="0.3">
@@ -5998,32 +5999,32 @@
         <v>121</v>
       </c>
       <c r="C155" s="1">
-        <f t="shared" si="11"/>
-        <v>396.84304460465404</v>
+        <f t="shared" si="26"/>
+        <v>371.13063799296674</v>
       </c>
       <c r="D155" s="1">
-        <f>1/(1/C155+1/B$6)</f>
-        <v>381.69571561493575</v>
-      </c>
-      <c r="E155" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D155+1),0)</f>
-        <v>3091</v>
+        <f t="shared" si="20"/>
+        <v>357.84973784187952</v>
+      </c>
+      <c r="E155" s="2">
+        <f t="shared" si="21"/>
+        <v>2874</v>
       </c>
       <c r="F155" s="1">
-        <f t="shared" si="8"/>
-        <v>381.64272003343353</v>
+        <f t="shared" si="23"/>
+        <v>357.86676068737819</v>
       </c>
       <c r="G155" s="1">
-        <f t="shared" si="9"/>
-        <v>396.78575969342666</v>
+        <f t="shared" si="24"/>
+        <v>371.14894785761135</v>
       </c>
       <c r="H155" s="1">
-        <f t="shared" si="10"/>
-        <v>121.00567919351266</v>
+        <f t="shared" si="25"/>
+        <v>120.99810047774054</v>
       </c>
       <c r="I155" s="1">
-        <f>H155-B155</f>
-        <v>5.6791935126625503E-3</v>
+        <f t="shared" si="22"/>
+        <v>-1.8995222594639927E-3</v>
       </c>
     </row>
     <row r="156" spans="2:9" x14ac:dyDescent="0.3">
@@ -6031,32 +6032,32 @@
         <v>122</v>
       </c>
       <c r="C156" s="1">
-        <f t="shared" si="11"/>
-        <v>386.90509413550336</v>
+        <f t="shared" si="26"/>
+        <v>361.6461377207699</v>
       </c>
       <c r="D156" s="1">
-        <f>1/(1/C156+1/B$6)</f>
-        <v>372.49314461720832</v>
-      </c>
-      <c r="E156" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D156+1),0)</f>
-        <v>3021</v>
+        <f t="shared" si="20"/>
+        <v>349.02382586124531</v>
+      </c>
+      <c r="E156" s="2">
+        <f t="shared" si="21"/>
+        <v>2807</v>
       </c>
       <c r="F156" s="1">
-        <f t="shared" si="8"/>
-        <v>372.48064922100684</v>
+        <f t="shared" si="23"/>
+        <v>349.05431802894805</v>
       </c>
       <c r="G156" s="1">
-        <f t="shared" si="9"/>
-        <v>386.89161314525768</v>
+        <f t="shared" si="24"/>
+        <v>361.67887534691755</v>
       </c>
       <c r="H156" s="1">
-        <f t="shared" si="10"/>
-        <v>122.00137872447334</v>
+        <f t="shared" si="25"/>
+        <v>121.99649589977696</v>
       </c>
       <c r="I156" s="1">
-        <f>H156-B156</f>
-        <v>1.3787244733407533E-3</v>
+        <f t="shared" si="22"/>
+        <v>-3.5041002230400409E-3</v>
       </c>
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.3">
@@ -6064,32 +6065,32 @@
         <v>123</v>
       </c>
       <c r="C157" s="1">
-        <f t="shared" si="11"/>
-        <v>377.2643166404078</v>
+        <f t="shared" si="26"/>
+        <v>352.45008175713804</v>
       </c>
       <c r="D157" s="1">
-        <f>1/(1/C157+1/B$6)</f>
-        <v>363.54891340239607</v>
-      </c>
-      <c r="E157" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D157+1),0)</f>
-        <v>2953</v>
+        <f t="shared" si="20"/>
+        <v>340.45088744568585</v>
+      </c>
+      <c r="E157" s="2">
+        <f t="shared" si="21"/>
+        <v>2741</v>
       </c>
       <c r="F157" s="1">
-        <f t="shared" si="8"/>
-        <v>363.60474445553444</v>
+        <f t="shared" si="23"/>
+        <v>340.3965304163446</v>
       </c>
       <c r="G157" s="1">
-        <f t="shared" si="9"/>
-        <v>377.32444011813254</v>
+        <f t="shared" si="24"/>
+        <v>352.39182590485382</v>
       </c>
       <c r="H157" s="1">
-        <f t="shared" si="10"/>
-        <v>122.99367026502472</v>
+        <f t="shared" si="25"/>
+        <v>123.00643540237485</v>
       </c>
       <c r="I157" s="1">
-        <f>H157-B157</f>
-        <v>-6.3297349752815535E-3</v>
+        <f t="shared" si="22"/>
+        <v>6.4354023748478539E-3</v>
       </c>
     </row>
     <row r="158" spans="2:9" x14ac:dyDescent="0.3">
@@ -6097,32 +6098,32 @@
         <v>124</v>
       </c>
       <c r="C158" s="1">
-        <f t="shared" si="11"/>
-        <v>367.91051322155982</v>
+        <f t="shared" si="26"/>
+        <v>343.53242289203422</v>
       </c>
       <c r="D158" s="1">
-        <f>1/(1/C158+1/B$6)</f>
-        <v>354.85502382797978</v>
-      </c>
-      <c r="E158" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D158+1),0)</f>
-        <v>2886</v>
+        <f t="shared" si="20"/>
+        <v>332.1229236268814</v>
+      </c>
+      <c r="E158" s="2">
+        <f t="shared" si="21"/>
+        <v>2678</v>
       </c>
       <c r="F158" s="1">
-        <f t="shared" si="8"/>
-        <v>354.88278351247237</v>
+        <f t="shared" si="23"/>
+        <v>332.15360561374462</v>
       </c>
       <c r="G158" s="1">
-        <f t="shared" si="9"/>
-        <v>367.94035318288275</v>
+        <f t="shared" si="24"/>
+        <v>343.56524924373372</v>
       </c>
       <c r="H158" s="1">
-        <f t="shared" si="10"/>
-        <v>123.99676285790395</v>
+        <f t="shared" si="25"/>
+        <v>123.99626355819686</v>
       </c>
       <c r="I158" s="1">
-        <f>H158-B158</f>
-        <v>-3.2371420960544128E-3</v>
+        <f t="shared" si="22"/>
+        <v>-3.736441803141588E-3</v>
       </c>
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.3">
@@ -6130,32 +6131,32 @@
         <v>125</v>
       </c>
       <c r="C159" s="1">
-        <f t="shared" si="11"/>
-        <v>358.83387724003381</v>
+        <f t="shared" si="26"/>
+        <v>334.88350554592427</v>
       </c>
       <c r="D159" s="1">
-        <f>1/(1/C159+1/B$6)</f>
-        <v>346.40373761418027</v>
-      </c>
-      <c r="E159" s="3">
-        <f>ROUND((B$1/B$3*B$4)/(B$5/D159+1),0)</f>
-        <v>2821</v>
+        <f t="shared" si="20"/>
+        <v>324.0322015881635</v>
+      </c>
+      <c r="E159" s="2">
+        <f t="shared" si="21"/>
+        <v>2616</v>
       </c>
       <c r="F159" s="1">
-        <f t="shared" si="8"/>
-        <v>346.44330363126323</v>
+        <f t="shared" si="23"/>
+        <v>324.0617809543316</v>
       </c>
       <c r="G159" s="1">
-        <f t="shared" si="9"/>
-        <v>358.87633390248862</v>
+        <f t="shared" si="24"/>
+        <v>334.91509930940174</v>
       </c>
       <c r="H159" s="1">
-        <f t="shared" si="10"/>
-        <v>124.99525331954987</v>
+        <f t="shared" si="25"/>
+        <v>124.99629240522825</v>
       </c>
       <c r="I159" s="1">
-        <f>H159-B159</f>
-        <v>-4.7466804501254956E-3</v>
+        <f t="shared" si="22"/>
+        <v>-3.7075947717539748E-3</v>
       </c>
     </row>
   </sheetData>
